--- a/xlsx/All-in-One.xlsx
+++ b/xlsx/All-in-One.xlsx
@@ -5,37 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Desktop\source\HTML CSS JS All-in-One\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Desktop\source\HTML CSS JS All-in-One\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F02C91-BCC8-41CE-8D04-BB21A75BF517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5897D3-BB51-4AB6-9545-9D78F9DE046D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11746" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="HTML" sheetId="11" r:id="rId1"/>
-    <sheet name="CSS" sheetId="3" r:id="rId2"/>
-    <sheet name="ECMAScript" sheetId="4" r:id="rId3"/>
-    <sheet name="DOM" sheetId="6" r:id="rId4"/>
-    <sheet name="BOM" sheetId="7" r:id="rId5"/>
-    <sheet name="ES6" sheetId="9" r:id="rId6"/>
-    <sheet name="React" sheetId="10" r:id="rId7"/>
+    <sheet name="Preface" sheetId="12" r:id="rId1"/>
+    <sheet name="HTML" sheetId="11" r:id="rId2"/>
+    <sheet name="CSS" sheetId="3" r:id="rId3"/>
+    <sheet name="ECMAScript" sheetId="4" r:id="rId4"/>
+    <sheet name="DOM" sheetId="6" r:id="rId5"/>
+    <sheet name="BOM" sheetId="7" r:id="rId6"/>
+    <sheet name="ES6" sheetId="9" r:id="rId7"/>
+    <sheet name="React" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">BOM!$A$1:$D$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">CSS!$A$1:$D$108</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">DOM!$A$1:$D$130</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">ECMAScript!$A$1:$D$145</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'ES6'!$A$1:$E$183</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HTML!$A$1:$D$55</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">React!$A$1:$E$49</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">BOM!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">CSS!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">DOM!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">ECMAScript!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'ES6'!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">HTML!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">React!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">BOM!$A$1:$D$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">CSS!$A$1:$D$108</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">DOM!$A$1:$D$130</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">ECMAScript!$A$1:$D$145</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'ES6'!$A$1:$E$183</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">HTML!$A$1:$D$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">React!$A$1:$E$49</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">BOM!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">CSS!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">DOM!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">ECMAScript!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">'ES6'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">HTML!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">React!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42718,6 +42719,117 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="47" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -42742,10 +42854,10 @@
     <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -42753,6 +42865,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -42790,69 +42911,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="55" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -42877,26 +42935,140 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -42907,20 +43079,98 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -42940,91 +43190,19 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -43045,214 +43223,13 @@
     <xf numFmtId="0" fontId="71" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="67" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="66" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -43264,22 +43241,46 @@
     <xf numFmtId="0" fontId="71" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -43441,6 +43442,61 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>143282</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53DF10D3-CC10-4BF1-8B66-1F7BE0F76C8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11772900" cy="8072845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -43675,7 +43731,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -43910,7 +43966,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -44134,7 +44190,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -44358,7 +44414,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -44582,7 +44638,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -44910,7 +44966,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -45468,14 +45524,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A29BF5A-581F-4D93-84BE-D1D5F9602915}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T56" sqref="T56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E98C7F2-D670-4C43-B22B-46E5718E7D4A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -45487,17 +45560,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="44" customFormat="1" ht="63.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="170"/>
-      <c r="B1" s="171"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="173"/>
+      <c r="A1" s="207"/>
+      <c r="B1" s="208"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="210"/>
     </row>
     <row r="2" spans="1:4" s="46" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="211" t="s">
         <v>1119</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
+      <c r="B2" s="212"/>
+      <c r="C2" s="212"/>
       <c r="D2" s="45"/>
     </row>
     <row r="3" spans="1:4" s="50" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.4">
@@ -45515,7 +45588,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A4" s="168" t="s">
+      <c r="A4" s="205" t="s">
         <v>1126</v>
       </c>
       <c r="B4" s="38" t="s">
@@ -45527,7 +45600,7 @@
       <c r="D4" s="40"/>
     </row>
     <row r="5" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A5" s="168"/>
+      <c r="A5" s="205"/>
       <c r="B5" s="38" t="s">
         <v>1</v>
       </c>
@@ -45537,7 +45610,7 @@
       <c r="D5" s="40"/>
     </row>
     <row r="6" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A6" s="168"/>
+      <c r="A6" s="205"/>
       <c r="B6" s="38" t="s">
         <v>3</v>
       </c>
@@ -45547,7 +45620,7 @@
       <c r="D6" s="40"/>
     </row>
     <row r="7" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A7" s="168"/>
+      <c r="A7" s="205"/>
       <c r="B7" s="38" t="s">
         <v>5</v>
       </c>
@@ -45557,7 +45630,7 @@
       <c r="D7" s="40"/>
     </row>
     <row r="8" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A8" s="168"/>
+      <c r="A8" s="205"/>
       <c r="B8" s="38" t="s">
         <v>7</v>
       </c>
@@ -45567,7 +45640,7 @@
       <c r="D8" s="40"/>
     </row>
     <row r="9" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A9" s="168" t="s">
+      <c r="A9" s="205" t="s">
         <v>1120</v>
       </c>
       <c r="B9" s="38" t="s">
@@ -45579,7 +45652,7 @@
       <c r="D9" s="40"/>
     </row>
     <row r="10" spans="1:4" ht="20.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="168"/>
+      <c r="A10" s="205"/>
       <c r="B10" s="38" t="s">
         <v>10</v>
       </c>
@@ -45589,7 +45662,7 @@
       <c r="D10" s="40"/>
     </row>
     <row r="11" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A11" s="168"/>
+      <c r="A11" s="205"/>
       <c r="B11" s="38" t="s">
         <v>11</v>
       </c>
@@ -45598,8 +45671,8 @@
       </c>
       <c r="D11" s="40"/>
     </row>
-    <row r="12" spans="1:4" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="168"/>
+    <row r="12" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
+      <c r="A12" s="205"/>
       <c r="B12" s="38" t="s">
         <v>12</v>
       </c>
@@ -45621,7 +45694,7 @@
       <c r="D13" s="40"/>
     </row>
     <row r="14" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A14" s="168" t="s">
+      <c r="A14" s="205" t="s">
         <v>1133</v>
       </c>
       <c r="B14" s="38" t="s">
@@ -45635,7 +45708,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A15" s="168"/>
+      <c r="A15" s="205"/>
       <c r="B15" s="38" t="s">
         <v>16</v>
       </c>
@@ -45647,7 +45720,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A16" s="168"/>
+      <c r="A16" s="205"/>
       <c r="B16" s="38" t="s">
         <v>15</v>
       </c>
@@ -45659,7 +45732,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A17" s="168"/>
+      <c r="A17" s="205"/>
       <c r="B17" s="38" t="s">
         <v>17</v>
       </c>
@@ -45671,7 +45744,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A18" s="168"/>
+      <c r="A18" s="205"/>
       <c r="B18" s="38" t="s">
         <v>18</v>
       </c>
@@ -45683,7 +45756,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A19" s="168"/>
+      <c r="A19" s="205"/>
       <c r="B19" s="38" t="s">
         <v>19</v>
       </c>
@@ -45695,7 +45768,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A20" s="168"/>
+      <c r="A20" s="205"/>
       <c r="B20" s="38" t="s">
         <v>372</v>
       </c>
@@ -45705,7 +45778,7 @@
       <c r="D20" s="40"/>
     </row>
     <row r="21" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A21" s="168"/>
+      <c r="A21" s="205"/>
       <c r="B21" s="38" t="s">
         <v>20</v>
       </c>
@@ -45715,7 +45788,7 @@
       <c r="D21" s="40"/>
     </row>
     <row r="22" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A22" s="168" t="s">
+      <c r="A22" s="205" t="s">
         <v>1143</v>
       </c>
       <c r="B22" s="38" t="s">
@@ -45727,7 +45800,7 @@
       <c r="D22" s="40"/>
     </row>
     <row r="23" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A23" s="168"/>
+      <c r="A23" s="205"/>
       <c r="B23" s="38" t="s">
         <v>24</v>
       </c>
@@ -45737,7 +45810,7 @@
       <c r="D23" s="40"/>
     </row>
     <row r="24" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A24" s="168"/>
+      <c r="A24" s="205"/>
       <c r="B24" s="38" t="s">
         <v>25</v>
       </c>
@@ -45747,7 +45820,7 @@
       <c r="D24" s="40"/>
     </row>
     <row r="25" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A25" s="168"/>
+      <c r="A25" s="205"/>
       <c r="B25" s="38" t="s">
         <v>26</v>
       </c>
@@ -45757,7 +45830,7 @@
       <c r="D25" s="40"/>
     </row>
     <row r="26" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A26" s="168"/>
+      <c r="A26" s="205"/>
       <c r="B26" s="38" t="s">
         <v>27</v>
       </c>
@@ -45767,7 +45840,7 @@
       <c r="D26" s="40"/>
     </row>
     <row r="27" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A27" s="168"/>
+      <c r="A27" s="205"/>
       <c r="B27" s="38" t="s">
         <v>28</v>
       </c>
@@ -45777,7 +45850,7 @@
       <c r="D27" s="40"/>
     </row>
     <row r="28" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A28" s="168"/>
+      <c r="A28" s="205"/>
       <c r="B28" s="38" t="s">
         <v>29</v>
       </c>
@@ -45787,7 +45860,7 @@
       <c r="D28" s="40"/>
     </row>
     <row r="29" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A29" s="168"/>
+      <c r="A29" s="205"/>
       <c r="B29" s="38" t="s">
         <v>30</v>
       </c>
@@ -45797,7 +45870,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A30" s="168"/>
+      <c r="A30" s="205"/>
       <c r="B30" s="38" t="s">
         <v>31</v>
       </c>
@@ -45807,7 +45880,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A31" s="168" t="s">
+      <c r="A31" s="205" t="s">
         <v>1151</v>
       </c>
       <c r="B31" s="38" t="s">
@@ -45819,7 +45892,7 @@
       <c r="D31" s="40"/>
     </row>
     <row r="32" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A32" s="168"/>
+      <c r="A32" s="205"/>
       <c r="B32" s="38" t="s">
         <v>32</v>
       </c>
@@ -45829,7 +45902,7 @@
       <c r="D32" s="40"/>
     </row>
     <row r="33" spans="1:4" ht="80.650000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="168"/>
+      <c r="A33" s="205"/>
       <c r="B33" s="38" t="s">
         <v>1154</v>
       </c>
@@ -45839,7 +45912,7 @@
       <c r="D33" s="40"/>
     </row>
     <row r="34" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A34" s="168" t="s">
+      <c r="A34" s="205" t="s">
         <v>1156</v>
       </c>
       <c r="B34" s="38" t="s">
@@ -45853,7 +45926,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A35" s="168"/>
+      <c r="A35" s="205"/>
       <c r="B35" s="38" t="s">
         <v>1159</v>
       </c>
@@ -45865,7 +45938,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A36" s="168"/>
+      <c r="A36" s="205"/>
       <c r="B36" s="38" t="s">
         <v>34</v>
       </c>
@@ -45877,7 +45950,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A37" s="168"/>
+      <c r="A37" s="205"/>
       <c r="B37" s="38" t="s">
         <v>35</v>
       </c>
@@ -45887,7 +45960,7 @@
       <c r="D37" s="40"/>
     </row>
     <row r="38" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A38" s="168"/>
+      <c r="A38" s="205"/>
       <c r="B38" s="38" t="s">
         <v>36</v>
       </c>
@@ -45897,7 +45970,7 @@
       <c r="D38" s="40"/>
     </row>
     <row r="39" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A39" s="168"/>
+      <c r="A39" s="205"/>
       <c r="B39" s="38" t="s">
         <v>37</v>
       </c>
@@ -45907,7 +45980,7 @@
       <c r="D39" s="40"/>
     </row>
     <row r="40" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A40" s="168"/>
+      <c r="A40" s="205"/>
       <c r="B40" s="38" t="s">
         <v>1166</v>
       </c>
@@ -45917,7 +45990,7 @@
       <c r="D40" s="40"/>
     </row>
     <row r="41" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A41" s="168"/>
+      <c r="A41" s="205"/>
       <c r="B41" s="38" t="s">
         <v>38</v>
       </c>
@@ -45937,7 +46010,7 @@
       <c r="D42" s="40"/>
     </row>
     <row r="43" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A43" s="168" t="s">
+      <c r="A43" s="205" t="s">
         <v>1170</v>
       </c>
       <c r="B43" s="38" t="s">
@@ -45949,7 +46022,7 @@
       <c r="D43" s="40"/>
     </row>
     <row r="44" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A44" s="168"/>
+      <c r="A44" s="205"/>
       <c r="B44" s="38" t="s">
         <v>1173</v>
       </c>
@@ -45959,7 +46032,7 @@
       <c r="D44" s="40"/>
     </row>
     <row r="45" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A45" s="168"/>
+      <c r="A45" s="205"/>
       <c r="B45" s="38" t="s">
         <v>1175</v>
       </c>
@@ -45969,7 +46042,7 @@
       <c r="D45" s="40"/>
     </row>
     <row r="46" spans="1:4" ht="113.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="168"/>
+      <c r="A46" s="205"/>
       <c r="B46" s="38" t="s">
         <v>40</v>
       </c>
@@ -45979,7 +46052,7 @@
       <c r="D46" s="40"/>
     </row>
     <row r="47" spans="1:4" ht="70.5" x14ac:dyDescent="0.4">
-      <c r="A47" s="168"/>
+      <c r="A47" s="205"/>
       <c r="B47" s="38" t="s">
         <v>378</v>
       </c>
@@ -45988,8 +46061,8 @@
       </c>
       <c r="D47" s="40"/>
     </row>
-    <row r="48" spans="1:4" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="A48" s="168"/>
+    <row r="48" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
+      <c r="A48" s="205"/>
       <c r="B48" s="38" t="s">
         <v>41</v>
       </c>
@@ -46007,7 +46080,7 @@
       <c r="D49" s="40"/>
     </row>
     <row r="50" spans="1:4" ht="126" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="168" t="s">
+      <c r="A50" s="205" t="s">
         <v>1180</v>
       </c>
       <c r="B50" s="38" t="s">
@@ -46019,7 +46092,7 @@
       <c r="D50" s="40"/>
     </row>
     <row r="51" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A51" s="168"/>
+      <c r="A51" s="205"/>
       <c r="B51" s="38" t="s">
         <v>44</v>
       </c>
@@ -46029,7 +46102,7 @@
       <c r="D51" s="40"/>
     </row>
     <row r="52" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A52" s="168"/>
+      <c r="A52" s="205"/>
       <c r="B52" s="38" t="s">
         <v>45</v>
       </c>
@@ -46039,7 +46112,7 @@
       <c r="D52" s="40"/>
     </row>
     <row r="53" spans="1:4" ht="212.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="168"/>
+      <c r="A53" s="205"/>
       <c r="B53" s="38" t="s">
         <v>1487</v>
       </c>
@@ -46049,7 +46122,7 @@
       <c r="D53" s="40"/>
     </row>
     <row r="54" spans="1:4" ht="227.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="168" t="s">
+      <c r="A54" s="205" t="s">
         <v>1185</v>
       </c>
       <c r="B54" s="38" t="s">
@@ -46061,7 +46134,7 @@
       <c r="D54" s="40"/>
     </row>
     <row r="55" spans="1:4" ht="133.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="169"/>
+      <c r="A55" s="206"/>
       <c r="B55" s="42" t="s">
         <v>46</v>
       </c>
@@ -46092,15 +46165,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25493A0F-503C-4316-AA37-39CD2D612EF0}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -46113,17 +46186,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="52" customFormat="1" ht="63.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="181"/>
-      <c r="B1" s="182"/>
+      <c r="A1" s="221"/>
+      <c r="B1" s="222"/>
       <c r="C1" s="51"/>
       <c r="D1" s="64"/>
     </row>
     <row r="2" spans="1:4" s="54" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="223" t="s">
         <v>1188</v>
       </c>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
+      <c r="B2" s="224"/>
+      <c r="C2" s="224"/>
       <c r="D2" s="53"/>
     </row>
     <row r="3" spans="1:4" s="57" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.4">
@@ -46144,24 +46217,24 @@
       <c r="A4" s="66" t="s">
         <v>1189</v>
       </c>
-      <c r="B4" s="190" t="s">
+      <c r="B4" s="230" t="s">
         <v>1190</v>
       </c>
-      <c r="C4" s="190"/>
-      <c r="D4" s="191"/>
+      <c r="C4" s="230"/>
+      <c r="D4" s="231"/>
     </row>
     <row r="5" spans="1:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="66" t="s">
         <v>1191</v>
       </c>
-      <c r="B5" s="190" t="s">
+      <c r="B5" s="230" t="s">
         <v>1192</v>
       </c>
-      <c r="C5" s="190"/>
+      <c r="C5" s="230"/>
       <c r="D5" s="67"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="192" t="s">
+      <c r="A6" s="217" t="s">
         <v>1193</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -46173,7 +46246,7 @@
       <c r="D6" s="67"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="192"/>
+      <c r="A7" s="217"/>
       <c r="B7" s="59" t="s">
         <v>49</v>
       </c>
@@ -46183,7 +46256,7 @@
       <c r="D7" s="67"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="192"/>
+      <c r="A8" s="217"/>
       <c r="B8" s="59" t="s">
         <v>50</v>
       </c>
@@ -46193,7 +46266,7 @@
       <c r="D8" s="67"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="192"/>
+      <c r="A9" s="217"/>
       <c r="B9" s="59" t="s">
         <v>51</v>
       </c>
@@ -46203,7 +46276,7 @@
       <c r="D9" s="67"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="192"/>
+      <c r="A10" s="217"/>
       <c r="B10" s="59" t="s">
         <v>52</v>
       </c>
@@ -46213,7 +46286,7 @@
       <c r="D10" s="67"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="192"/>
+      <c r="A11" s="217"/>
       <c r="B11" s="59" t="s">
         <v>53</v>
       </c>
@@ -46223,7 +46296,7 @@
       <c r="D11" s="67"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="192"/>
+      <c r="A12" s="217"/>
       <c r="B12" s="59" t="s">
         <v>54</v>
       </c>
@@ -46233,7 +46306,7 @@
       <c r="D12" s="67"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="192"/>
+      <c r="A13" s="217"/>
       <c r="B13" s="59" t="s">
         <v>55</v>
       </c>
@@ -46243,7 +46316,7 @@
       <c r="D13" s="67"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="192"/>
+      <c r="A14" s="217"/>
       <c r="B14" s="59" t="s">
         <v>56</v>
       </c>
@@ -46253,7 +46326,7 @@
       <c r="D14" s="67"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="192"/>
+      <c r="A15" s="217"/>
       <c r="B15" s="59" t="s">
         <v>57</v>
       </c>
@@ -46263,7 +46336,7 @@
       <c r="D15" s="67"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="192"/>
+      <c r="A16" s="217"/>
       <c r="B16" s="59" t="s">
         <v>1205</v>
       </c>
@@ -46273,7 +46346,7 @@
       <c r="D16" s="67"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="192"/>
+      <c r="A17" s="217"/>
       <c r="B17" s="59" t="s">
         <v>1207</v>
       </c>
@@ -46283,7 +46356,7 @@
       <c r="D17" s="67"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="192"/>
+      <c r="A18" s="217"/>
       <c r="B18" s="59" t="s">
         <v>1209</v>
       </c>
@@ -46293,7 +46366,7 @@
       <c r="D18" s="67"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="192"/>
+      <c r="A19" s="217"/>
       <c r="B19" s="59" t="s">
         <v>1211</v>
       </c>
@@ -46303,7 +46376,7 @@
       <c r="D19" s="67"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="192"/>
+      <c r="A20" s="217"/>
       <c r="B20" s="59" t="s">
         <v>1213</v>
       </c>
@@ -46313,7 +46386,7 @@
       <c r="D20" s="67"/>
     </row>
     <row r="21" spans="1:4" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A21" s="192"/>
+      <c r="A21" s="217"/>
       <c r="B21" s="59" t="s">
         <v>1215</v>
       </c>
@@ -46323,7 +46396,7 @@
       <c r="D21" s="67"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="192" t="s">
+      <c r="A22" s="217" t="s">
         <v>1217</v>
       </c>
       <c r="B22" s="59" t="s">
@@ -46335,7 +46408,7 @@
       <c r="D22" s="67"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="192"/>
+      <c r="A23" s="217"/>
       <c r="B23" s="59" t="s">
         <v>59</v>
       </c>
@@ -46345,7 +46418,7 @@
       <c r="D23" s="67"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="192"/>
+      <c r="A24" s="217"/>
       <c r="B24" s="59" t="s">
         <v>60</v>
       </c>
@@ -46355,7 +46428,7 @@
       <c r="D24" s="67"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="192"/>
+      <c r="A25" s="217"/>
       <c r="B25" s="59" t="s">
         <v>61</v>
       </c>
@@ -46365,7 +46438,7 @@
       <c r="D25" s="67"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="192"/>
+      <c r="A26" s="217"/>
       <c r="B26" s="59" t="s">
         <v>62</v>
       </c>
@@ -46375,7 +46448,7 @@
       <c r="D26" s="67"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="192"/>
+      <c r="A27" s="217"/>
       <c r="B27" s="59" t="s">
         <v>63</v>
       </c>
@@ -46385,7 +46458,7 @@
       <c r="D27" s="67"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="192"/>
+      <c r="A28" s="217"/>
       <c r="B28" s="59" t="s">
         <v>64</v>
       </c>
@@ -46395,7 +46468,7 @@
       <c r="D28" s="67"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="192"/>
+      <c r="A29" s="217"/>
       <c r="B29" s="59" t="s">
         <v>65</v>
       </c>
@@ -46405,7 +46478,7 @@
       <c r="D29" s="67"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="192"/>
+      <c r="A30" s="217"/>
       <c r="B30" s="59" t="s">
         <v>66</v>
       </c>
@@ -46415,7 +46488,7 @@
       <c r="D30" s="67"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="192"/>
+      <c r="A31" s="217"/>
       <c r="B31" s="59" t="s">
         <v>67</v>
       </c>
@@ -46425,7 +46498,7 @@
       <c r="D31" s="67"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="192"/>
+      <c r="A32" s="217"/>
       <c r="B32" s="59" t="s">
         <v>68</v>
       </c>
@@ -46435,7 +46508,7 @@
       <c r="D32" s="67"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="192"/>
+      <c r="A33" s="217"/>
       <c r="B33" s="59" t="s">
         <v>69</v>
       </c>
@@ -46445,7 +46518,7 @@
       <c r="D33" s="67"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="192" t="s">
+      <c r="A34" s="217" t="s">
         <v>1230</v>
       </c>
       <c r="B34" s="59" t="s">
@@ -46457,7 +46530,7 @@
       <c r="D34" s="67"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="192"/>
+      <c r="A35" s="217"/>
       <c r="B35" s="59" t="s">
         <v>73</v>
       </c>
@@ -46467,7 +46540,7 @@
       <c r="D35" s="67"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" s="192"/>
+      <c r="A36" s="217"/>
       <c r="B36" s="59" t="s">
         <v>74</v>
       </c>
@@ -46477,7 +46550,7 @@
       <c r="D36" s="67"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" s="192"/>
+      <c r="A37" s="217"/>
       <c r="B37" s="59" t="s">
         <v>71</v>
       </c>
@@ -46487,7 +46560,7 @@
       <c r="D37" s="67"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" s="192"/>
+      <c r="A38" s="217"/>
       <c r="B38" s="59" t="s">
         <v>72</v>
       </c>
@@ -46497,7 +46570,7 @@
       <c r="D38" s="67"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" s="192" t="s">
+      <c r="A39" s="217" t="s">
         <v>1236</v>
       </c>
       <c r="B39" s="58" t="s">
@@ -46509,7 +46582,7 @@
       <c r="D39" s="67"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" s="192"/>
+      <c r="A40" s="217"/>
       <c r="B40" s="58" t="s">
         <v>1238</v>
       </c>
@@ -46519,7 +46592,7 @@
       <c r="D40" s="67"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="192"/>
+      <c r="A41" s="217"/>
       <c r="B41" s="58" t="s">
         <v>1240</v>
       </c>
@@ -46529,7 +46602,7 @@
       <c r="D41" s="67"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="192"/>
+      <c r="A42" s="217"/>
       <c r="B42" s="58" t="s">
         <v>1242</v>
       </c>
@@ -46539,7 +46612,7 @@
       <c r="D42" s="67"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" s="192"/>
+      <c r="A43" s="217"/>
       <c r="B43" s="58" t="s">
         <v>1244</v>
       </c>
@@ -46549,7 +46622,7 @@
       <c r="D43" s="67"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" s="192"/>
+      <c r="A44" s="217"/>
       <c r="B44" s="58" t="s">
         <v>1246</v>
       </c>
@@ -46559,7 +46632,7 @@
       <c r="D44" s="67"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" s="192"/>
+      <c r="A45" s="217"/>
       <c r="B45" s="58" t="s">
         <v>1248</v>
       </c>
@@ -46584,11 +46657,11 @@
       <c r="A47" s="66" t="s">
         <v>1291</v>
       </c>
-      <c r="B47" s="187" t="s">
+      <c r="B47" s="227" t="s">
         <v>1292</v>
       </c>
-      <c r="C47" s="188"/>
-      <c r="D47" s="189"/>
+      <c r="C47" s="228"/>
+      <c r="D47" s="229"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="66" t="s">
@@ -46631,20 +46704,20 @@
       <c r="D50" s="72"/>
     </row>
     <row r="51" spans="1:5" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="178" t="s">
+      <c r="A51" s="215" t="s">
         <v>1250</v>
       </c>
       <c r="B51" s="59" t="s">
         <v>1251</v>
       </c>
-      <c r="C51" s="185" t="s">
+      <c r="C51" s="225" t="s">
         <v>1252</v>
       </c>
-      <c r="D51" s="186"/>
+      <c r="D51" s="226"/>
       <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="A52" s="179"/>
+      <c r="A52" s="216"/>
       <c r="B52" s="59" t="s">
         <v>1321</v>
       </c>
@@ -46656,7 +46729,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A53" s="179"/>
+      <c r="A53" s="216"/>
       <c r="B53" s="59" t="s">
         <v>1319</v>
       </c>
@@ -46668,7 +46741,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A54" s="179"/>
+      <c r="A54" s="216"/>
       <c r="B54" s="59" t="s">
         <v>76</v>
       </c>
@@ -46678,7 +46751,7 @@
       <c r="D54" s="67"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A55" s="179"/>
+      <c r="A55" s="216"/>
       <c r="B55" s="59" t="s">
         <v>77</v>
       </c>
@@ -46688,7 +46761,7 @@
       <c r="D55" s="67"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A56" s="180"/>
+      <c r="A56" s="220"/>
       <c r="B56" s="59" t="s">
         <v>78</v>
       </c>
@@ -46704,10 +46777,10 @@
       <c r="B57" s="59" t="s">
         <v>1256</v>
       </c>
-      <c r="C57" s="190" t="s">
+      <c r="C57" s="230" t="s">
         <v>1318</v>
       </c>
-      <c r="D57" s="191"/>
+      <c r="D57" s="231"/>
     </row>
     <row r="58" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A58" s="66" t="s">
@@ -46736,7 +46809,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="23.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="178" t="s">
+      <c r="A60" s="215" t="s">
         <v>1265</v>
       </c>
       <c r="B60" s="59" t="s">
@@ -46748,11 +46821,11 @@
       <c r="D60" s="67"/>
     </row>
     <row r="61" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="179"/>
+      <c r="A61" s="216"/>
       <c r="B61" s="59" t="s">
         <v>1496</v>
       </c>
-      <c r="C61" s="279" t="s">
+      <c r="C61" s="169" t="s">
         <v>1494</v>
       </c>
       <c r="D61" s="67" t="s">
@@ -46760,7 +46833,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A62" s="179"/>
+      <c r="A62" s="216"/>
       <c r="B62" s="59" t="s">
         <v>1497</v>
       </c>
@@ -46772,7 +46845,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A63" s="179"/>
+      <c r="A63" s="216"/>
       <c r="B63" s="59" t="s">
         <v>1498</v>
       </c>
@@ -46784,19 +46857,19 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="179"/>
+      <c r="A64" s="216"/>
       <c r="B64" s="59" t="s">
         <v>1499</v>
       </c>
-      <c r="C64" s="279" t="s">
+      <c r="C64" s="169" t="s">
         <v>1495</v>
       </c>
-      <c r="D64" s="278" t="s">
+      <c r="D64" s="168" t="s">
         <v>1493</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="178" t="s">
+      <c r="A65" s="215" t="s">
         <v>1271</v>
       </c>
       <c r="B65" s="59" t="s">
@@ -46810,7 +46883,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="179"/>
+      <c r="A66" s="216"/>
       <c r="B66" s="59" t="s">
         <v>1316</v>
       </c>
@@ -46822,7 +46895,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="179"/>
+      <c r="A67" s="216"/>
       <c r="B67" s="59" t="s">
         <v>1315</v>
       </c>
@@ -46834,7 +46907,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A68" s="179"/>
+      <c r="A68" s="216"/>
       <c r="B68" s="58" t="s">
         <v>1314</v>
       </c>
@@ -46846,7 +46919,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="61.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="179"/>
+      <c r="A69" s="216"/>
       <c r="B69" s="62" t="s">
         <v>82</v>
       </c>
@@ -46858,7 +46931,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="50.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="180"/>
+      <c r="A70" s="220"/>
       <c r="B70" s="59" t="s">
         <v>1313</v>
       </c>
@@ -46870,7 +46943,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A71" s="178" t="s">
+      <c r="A71" s="215" t="s">
         <v>1328</v>
       </c>
       <c r="B71" s="59" t="s">
@@ -46880,7 +46953,7 @@
       <c r="D71" s="67"/>
     </row>
     <row r="72" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="179"/>
+      <c r="A72" s="216"/>
       <c r="B72" s="59" t="s">
         <v>84</v>
       </c>
@@ -46890,7 +46963,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A73" s="179"/>
+      <c r="A73" s="216"/>
       <c r="B73" s="59" t="s">
         <v>85</v>
       </c>
@@ -46898,7 +46971,7 @@
       <c r="D73" s="67"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A74" s="179"/>
+      <c r="A74" s="216"/>
       <c r="B74" s="59" t="s">
         <v>86</v>
       </c>
@@ -46906,7 +46979,7 @@
       <c r="D74" s="67"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A75" s="179"/>
+      <c r="A75" s="216"/>
       <c r="B75" s="59" t="s">
         <v>87</v>
       </c>
@@ -46914,7 +46987,7 @@
       <c r="D75" s="67"/>
     </row>
     <row r="76" spans="1:4" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A76" s="179"/>
+      <c r="A76" s="216"/>
       <c r="B76" s="59" t="s">
         <v>1311</v>
       </c>
@@ -46924,7 +46997,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A77" s="179"/>
+      <c r="A77" s="216"/>
       <c r="B77" s="59" t="s">
         <v>1310</v>
       </c>
@@ -46934,7 +47007,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A78" s="179"/>
+      <c r="A78" s="216"/>
       <c r="B78" s="59" t="s">
         <v>1309</v>
       </c>
@@ -46944,7 +47017,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="192" t="s">
+      <c r="A79" s="217" t="s">
         <v>1329</v>
       </c>
       <c r="B79" s="59" t="s">
@@ -46958,7 +47031,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="192"/>
+      <c r="A80" s="217"/>
       <c r="B80" s="59" t="s">
         <v>89</v>
       </c>
@@ -46970,7 +47043,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="94.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="192"/>
+      <c r="A81" s="217"/>
       <c r="B81" s="59" t="s">
         <v>90</v>
       </c>
@@ -46982,7 +47055,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="29.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="192"/>
+      <c r="A82" s="217"/>
       <c r="B82" s="59" t="s">
         <v>91</v>
       </c>
@@ -46992,19 +47065,19 @@
       <c r="D82" s="67"/>
     </row>
     <row r="83" spans="1:4" ht="60.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="192" t="s">
+      <c r="A83" s="217" t="s">
         <v>1330</v>
       </c>
       <c r="B83" s="60" t="s">
         <v>1500</v>
       </c>
-      <c r="C83" s="280" t="s">
+      <c r="C83" s="170" t="s">
         <v>1501</v>
       </c>
       <c r="D83" s="67"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A84" s="192"/>
+      <c r="A84" s="217"/>
       <c r="B84" s="59" t="s">
         <v>92</v>
       </c>
@@ -47014,7 +47087,7 @@
       <c r="D84" s="67"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A85" s="192"/>
+      <c r="A85" s="217"/>
       <c r="B85" s="59" t="s">
         <v>93</v>
       </c>
@@ -47024,7 +47097,7 @@
       <c r="D85" s="67"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A86" s="192"/>
+      <c r="A86" s="217"/>
       <c r="B86" s="59" t="s">
         <v>94</v>
       </c>
@@ -47034,7 +47107,7 @@
       <c r="D86" s="67"/>
     </row>
     <row r="87" spans="1:4" ht="42.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="192"/>
+      <c r="A87" s="217"/>
       <c r="B87" s="59" t="s">
         <v>95</v>
       </c>
@@ -47046,7 +47119,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="192"/>
+      <c r="A88" s="217"/>
       <c r="B88" s="59" t="s">
         <v>96</v>
       </c>
@@ -47058,7 +47131,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="34.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="192"/>
+      <c r="A89" s="217"/>
       <c r="B89" s="59" t="s">
         <v>97</v>
       </c>
@@ -47070,7 +47143,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="69.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="192"/>
+      <c r="A90" s="217"/>
       <c r="B90" s="59" t="s">
         <v>98</v>
       </c>
@@ -47082,29 +47155,29 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A91" s="178" t="s">
+      <c r="A91" s="215" t="s">
         <v>1346</v>
       </c>
       <c r="B91" s="59" t="s">
         <v>1323</v>
       </c>
-      <c r="C91" s="176" t="s">
+      <c r="C91" s="218" t="s">
         <v>1347</v>
       </c>
-      <c r="D91" s="281" t="s">
+      <c r="D91" s="213" t="s">
         <v>1503</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A92" s="179"/>
+      <c r="A92" s="216"/>
       <c r="B92" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="C92" s="177"/>
-      <c r="D92" s="282"/>
+      <c r="C92" s="219"/>
+      <c r="D92" s="214"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A93" s="179"/>
+      <c r="A93" s="216"/>
       <c r="B93" s="59" t="s">
         <v>1322</v>
       </c>
@@ -47114,7 +47187,7 @@
       <c r="D93" s="67"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A94" s="179"/>
+      <c r="A94" s="216"/>
       <c r="B94" s="59" t="s">
         <v>1504</v>
       </c>
@@ -47126,7 +47199,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A95" s="179"/>
+      <c r="A95" s="216"/>
       <c r="B95" s="59" t="s">
         <v>100</v>
       </c>
@@ -47136,7 +47209,7 @@
       <c r="D95" s="67"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A96" s="180"/>
+      <c r="A96" s="220"/>
       <c r="B96" s="59" t="s">
         <v>1506</v>
       </c>
@@ -47146,7 +47219,7 @@
       <c r="D96" s="67"/>
     </row>
     <row r="97" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="192" t="s">
+      <c r="A97" s="217" t="s">
         <v>1293</v>
       </c>
       <c r="B97" s="59" t="s">
@@ -47160,7 +47233,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="57.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="192"/>
+      <c r="A98" s="217"/>
       <c r="B98" s="59" t="s">
         <v>105</v>
       </c>
@@ -47172,7 +47245,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="192"/>
+      <c r="A99" s="217"/>
       <c r="B99" s="58" t="s">
         <v>1358</v>
       </c>
@@ -47184,7 +47257,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="192"/>
+      <c r="A100" s="217"/>
       <c r="B100" s="59" t="s">
         <v>106</v>
       </c>
@@ -47196,7 +47269,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="192"/>
+      <c r="A101" s="217"/>
       <c r="B101" s="59" t="s">
         <v>107</v>
       </c>
@@ -47208,7 +47281,7 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="93.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="192"/>
+      <c r="A102" s="217"/>
       <c r="B102" s="59" t="s">
         <v>108</v>
       </c>
@@ -47220,7 +47293,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A103" s="192" t="s">
+      <c r="A103" s="217" t="s">
         <v>1297</v>
       </c>
       <c r="B103" s="59" t="s">
@@ -47234,7 +47307,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A104" s="192"/>
+      <c r="A104" s="217"/>
       <c r="B104" s="59" t="s">
         <v>103</v>
       </c>
@@ -47244,7 +47317,7 @@
       <c r="D104" s="67"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A105" s="192"/>
+      <c r="A105" s="217"/>
       <c r="B105" s="59" t="s">
         <v>104</v>
       </c>
@@ -47254,7 +47327,7 @@
       <c r="D105" s="67"/>
     </row>
     <row r="106" spans="1:4" ht="50.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="192"/>
+      <c r="A106" s="217"/>
       <c r="B106" s="59" t="s">
         <v>110</v>
       </c>
@@ -47266,7 +47339,7 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="192"/>
+      <c r="A107" s="217"/>
       <c r="B107" s="58" t="s">
         <v>101</v>
       </c>
@@ -47278,7 +47351,7 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="192"/>
+      <c r="A108" s="217"/>
       <c r="B108" s="59" t="s">
         <v>382</v>
       </c>
@@ -47291,11 +47364,7 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="A71:A78"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A83:A90"/>
-    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="C57:D57"/>
     <mergeCell ref="A103:A108"/>
     <mergeCell ref="C91:C92"/>
     <mergeCell ref="A91:A96"/>
@@ -47312,7 +47381,11 @@
     <mergeCell ref="A22:A33"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="A39:A45"/>
-    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="A71:A78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A83:A90"/>
+    <mergeCell ref="A97:A102"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.05" right="0" top="0.05" bottom="0" header="0" footer="0"/>
@@ -47321,14 +47394,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58088F6B-CFA3-4E00-9873-6B4239D1C7DD}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E146"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:D8"/>
     </sheetView>
   </sheetViews>
@@ -47343,17 +47416,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="77" customFormat="1" ht="63.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="211"/>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
+      <c r="A1" s="243"/>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
       <c r="D1" s="76"/>
     </row>
     <row r="2" spans="1:4" s="78" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="232" t="s">
         <v>1359</v>
       </c>
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
+      <c r="B2" s="233"/>
+      <c r="C2" s="233"/>
       <c r="D2" s="80"/>
     </row>
     <row r="3" spans="1:4" s="79" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.4">
@@ -47371,7 +47444,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="220" t="s">
+      <c r="A4" s="239" t="s">
         <v>1428</v>
       </c>
       <c r="B4" s="84" t="s">
@@ -47385,7 +47458,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A5" s="220"/>
+      <c r="A5" s="239"/>
       <c r="B5" s="84" t="s">
         <v>112</v>
       </c>
@@ -47395,35 +47468,35 @@
       <c r="D5" s="109"/>
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.4">
-      <c r="A6" s="220"/>
+      <c r="A6" s="239"/>
       <c r="B6" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="286" t="s">
+      <c r="C6" s="174" t="s">
         <v>1518</v>
       </c>
       <c r="D6" s="109"/>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" ht="48.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="220"/>
-      <c r="B7" s="287" t="s">
+      <c r="A7" s="239"/>
+      <c r="B7" s="245" t="s">
         <v>1525</v>
       </c>
-      <c r="C7" s="288"/>
-      <c r="D7" s="289"/>
+      <c r="C7" s="246"/>
+      <c r="D7" s="247"/>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="198" t="s">
+      <c r="A8" s="240" t="s">
         <v>1429</v>
       </c>
-      <c r="B8" s="218" t="s">
+      <c r="B8" s="237" t="s">
         <v>1479</v>
       </c>
-      <c r="C8" s="218"/>
-      <c r="D8" s="219"/>
+      <c r="C8" s="237"/>
+      <c r="D8" s="238"/>
     </row>
     <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="199"/>
+      <c r="A9" s="241"/>
       <c r="B9" s="84" t="s">
         <v>126</v>
       </c>
@@ -47433,7 +47506,7 @@
       <c r="D9" s="109"/>
     </row>
     <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="199"/>
+      <c r="A10" s="241"/>
       <c r="B10" s="84" t="s">
         <v>128</v>
       </c>
@@ -47443,7 +47516,7 @@
       <c r="D10" s="109"/>
     </row>
     <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="199"/>
+      <c r="A11" s="241"/>
       <c r="B11" s="84" t="s">
         <v>113</v>
       </c>
@@ -47453,7 +47526,7 @@
       <c r="D11" s="109"/>
     </row>
     <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="199"/>
+      <c r="A12" s="241"/>
       <c r="B12" s="84" t="s">
         <v>114</v>
       </c>
@@ -47463,7 +47536,7 @@
       <c r="D12" s="109"/>
     </row>
     <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="199"/>
+      <c r="A13" s="241"/>
       <c r="B13" s="84" t="s">
         <v>115</v>
       </c>
@@ -47473,7 +47546,7 @@
       <c r="D13" s="109"/>
     </row>
     <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="199"/>
+      <c r="A14" s="241"/>
       <c r="B14" s="84" t="s">
         <v>117</v>
       </c>
@@ -47483,7 +47556,7 @@
       <c r="D14" s="109"/>
     </row>
     <row r="15" spans="1:4" s="4" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="199"/>
+      <c r="A15" s="241"/>
       <c r="B15" s="86" t="s">
         <v>395</v>
       </c>
@@ -47495,67 +47568,67 @@
       </c>
     </row>
     <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="199"/>
-      <c r="B16" s="218" t="s">
+      <c r="A16" s="241"/>
+      <c r="B16" s="237" t="s">
         <v>1480</v>
       </c>
-      <c r="C16" s="218"/>
-      <c r="D16" s="219"/>
+      <c r="C16" s="237"/>
+      <c r="D16" s="238"/>
     </row>
     <row r="17" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="199"/>
+      <c r="A17" s="241"/>
       <c r="B17" s="84" t="s">
         <v>136</v>
       </c>
       <c r="C17" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="206" t="s">
+      <c r="D17" s="248" t="s">
         <v>1383</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="199"/>
+      <c r="A18" s="241"/>
       <c r="B18" s="84" t="s">
         <v>137</v>
       </c>
       <c r="C18" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="207"/>
+      <c r="D18" s="249"/>
     </row>
     <row r="19" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="199"/>
+      <c r="A19" s="241"/>
       <c r="B19" s="84" t="s">
         <v>138</v>
       </c>
       <c r="C19" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="207"/>
+      <c r="D19" s="249"/>
     </row>
     <row r="20" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="199"/>
+      <c r="A20" s="241"/>
       <c r="B20" s="84" t="s">
         <v>139</v>
       </c>
       <c r="C20" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="207"/>
+      <c r="D20" s="249"/>
     </row>
     <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="199"/>
+      <c r="A21" s="241"/>
       <c r="B21" s="84" t="s">
         <v>140</v>
       </c>
       <c r="C21" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="208"/>
+      <c r="D21" s="250"/>
     </row>
     <row r="22" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="199"/>
+      <c r="A22" s="241"/>
       <c r="B22" s="84" t="s">
         <v>141</v>
       </c>
@@ -47565,7 +47638,7 @@
       <c r="D22" s="109"/>
     </row>
     <row r="23" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="199"/>
+      <c r="A23" s="241"/>
       <c r="B23" s="86" t="s">
         <v>205</v>
       </c>
@@ -47577,7 +47650,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" s="4" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A24" s="199"/>
+      <c r="A24" s="241"/>
       <c r="B24" s="84" t="s">
         <v>206</v>
       </c>
@@ -47587,7 +47660,7 @@
       <c r="D24" s="109"/>
     </row>
     <row r="25" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="199"/>
+      <c r="A25" s="241"/>
       <c r="B25" s="84" t="s">
         <v>420</v>
       </c>
@@ -47599,49 +47672,49 @@
       </c>
     </row>
     <row r="26" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="199"/>
+      <c r="A26" s="241"/>
       <c r="B26" s="87" t="s">
         <v>421</v>
       </c>
       <c r="C26" s="87" t="s">
         <v>1385</v>
       </c>
-      <c r="D26" s="194" t="s">
+      <c r="D26" s="255" t="s">
         <v>1386</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="199"/>
+      <c r="A27" s="241"/>
       <c r="B27" s="87" t="s">
         <v>207</v>
       </c>
       <c r="C27" s="87" t="s">
         <v>1363</v>
       </c>
-      <c r="D27" s="195"/>
+      <c r="D27" s="256"/>
     </row>
     <row r="28" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="199"/>
+      <c r="A28" s="241"/>
       <c r="B28" s="87" t="s">
         <v>208</v>
       </c>
       <c r="C28" s="87" t="s">
         <v>1364</v>
       </c>
-      <c r="D28" s="195"/>
+      <c r="D28" s="256"/>
     </row>
     <row r="29" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="199"/>
+      <c r="A29" s="241"/>
       <c r="B29" s="87" t="s">
         <v>1387</v>
       </c>
       <c r="C29" s="87" t="s">
         <v>1388</v>
       </c>
-      <c r="D29" s="196"/>
+      <c r="D29" s="257"/>
     </row>
     <row r="30" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="199"/>
+      <c r="A30" s="241"/>
       <c r="B30" s="84" t="s">
         <v>209</v>
       </c>
@@ -47651,7 +47724,7 @@
       <c r="D30" s="109"/>
     </row>
     <row r="31" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="199"/>
+      <c r="A31" s="241"/>
       <c r="B31" s="84" t="s">
         <v>210</v>
       </c>
@@ -47661,7 +47734,7 @@
       <c r="D31" s="109"/>
     </row>
     <row r="32" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="199"/>
+      <c r="A32" s="241"/>
       <c r="B32" s="84" t="s">
         <v>374</v>
       </c>
@@ -47671,7 +47744,7 @@
       <c r="D32" s="109"/>
     </row>
     <row r="33" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="199"/>
+      <c r="A33" s="241"/>
       <c r="B33" s="84" t="s">
         <v>375</v>
       </c>
@@ -47681,7 +47754,7 @@
       <c r="D33" s="109"/>
     </row>
     <row r="34" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="199"/>
+      <c r="A34" s="241"/>
       <c r="B34" s="84" t="s">
         <v>376</v>
       </c>
@@ -47691,15 +47764,15 @@
       <c r="D34" s="109"/>
     </row>
     <row r="35" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="199"/>
-      <c r="B35" s="218" t="s">
+      <c r="A35" s="241"/>
+      <c r="B35" s="237" t="s">
         <v>1481</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="219"/>
+      <c r="C35" s="237"/>
+      <c r="D35" s="238"/>
     </row>
     <row r="36" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="199"/>
+      <c r="A36" s="241"/>
       <c r="B36" s="84" t="s">
         <v>397</v>
       </c>
@@ -47709,7 +47782,7 @@
       <c r="D36" s="109"/>
     </row>
     <row r="37" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="199"/>
+      <c r="A37" s="241"/>
       <c r="B37" s="84" t="s">
         <v>398</v>
       </c>
@@ -47719,15 +47792,15 @@
       <c r="D37" s="109"/>
     </row>
     <row r="38" spans="1:4" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="199"/>
-      <c r="B38" s="218" t="s">
+      <c r="A38" s="241"/>
+      <c r="B38" s="237" t="s">
         <v>1482</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="219"/>
+      <c r="C38" s="237"/>
+      <c r="D38" s="238"/>
     </row>
     <row r="39" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="199"/>
+      <c r="A39" s="241"/>
       <c r="B39" s="84" t="s">
         <v>142</v>
       </c>
@@ -47739,7 +47812,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="199"/>
+      <c r="A40" s="241"/>
       <c r="B40" s="84" t="s">
         <v>143</v>
       </c>
@@ -47749,15 +47822,15 @@
       <c r="D40" s="109"/>
     </row>
     <row r="41" spans="1:4" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="199"/>
-      <c r="B41" s="218" t="s">
+      <c r="A41" s="241"/>
+      <c r="B41" s="237" t="s">
         <v>1483</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="219"/>
+      <c r="C41" s="237"/>
+      <c r="D41" s="238"/>
     </row>
     <row r="42" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="199"/>
+      <c r="A42" s="241"/>
       <c r="B42" s="84" t="s">
         <v>144</v>
       </c>
@@ -47767,7 +47840,7 @@
       <c r="D42" s="109"/>
     </row>
     <row r="43" spans="1:4" s="4" customFormat="1" ht="38.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="200"/>
+      <c r="A43" s="242"/>
       <c r="B43" s="88" t="s">
         <v>399</v>
       </c>
@@ -47779,17 +47852,17 @@
       </c>
     </row>
     <row r="44" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="198" t="s">
+      <c r="A44" s="240" t="s">
         <v>1368</v>
       </c>
-      <c r="B44" s="215" t="s">
+      <c r="B44" s="234" t="s">
         <v>1369</v>
       </c>
-      <c r="C44" s="216"/>
-      <c r="D44" s="217"/>
+      <c r="C44" s="235"/>
+      <c r="D44" s="236"/>
     </row>
     <row r="45" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="199"/>
+      <c r="A45" s="241"/>
       <c r="B45" s="89" t="s">
         <v>401</v>
       </c>
@@ -47799,7 +47872,7 @@
       <c r="D45" s="112"/>
     </row>
     <row r="46" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="199"/>
+      <c r="A46" s="241"/>
       <c r="B46" s="89" t="s">
         <v>400</v>
       </c>
@@ -47809,7 +47882,7 @@
       <c r="D46" s="112"/>
     </row>
     <row r="47" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="199"/>
+      <c r="A47" s="241"/>
       <c r="B47" s="90" t="s">
         <v>1509</v>
       </c>
@@ -47819,7 +47892,7 @@
       <c r="D47" s="112"/>
     </row>
     <row r="48" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="199"/>
+      <c r="A48" s="241"/>
       <c r="B48" s="91" t="s">
         <v>265</v>
       </c>
@@ -47829,15 +47902,15 @@
       <c r="D48" s="112"/>
     </row>
     <row r="49" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="199"/>
-      <c r="B49" s="215" t="s">
+      <c r="A49" s="241"/>
+      <c r="B49" s="234" t="s">
         <v>1370</v>
       </c>
-      <c r="C49" s="216"/>
-      <c r="D49" s="217"/>
+      <c r="C49" s="235"/>
+      <c r="D49" s="236"/>
     </row>
     <row r="50" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="199"/>
+      <c r="A50" s="241"/>
       <c r="B50" s="89" t="s">
         <v>384</v>
       </c>
@@ -47845,7 +47918,7 @@
       <c r="D50" s="112"/>
     </row>
     <row r="51" spans="1:4" s="4" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A51" s="199"/>
+      <c r="A51" s="241"/>
       <c r="B51" s="92" t="s">
         <v>1394</v>
       </c>
@@ -47853,7 +47926,7 @@
       <c r="D51" s="112"/>
     </row>
     <row r="52" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="199"/>
+      <c r="A52" s="241"/>
       <c r="B52" s="92" t="s">
         <v>266</v>
       </c>
@@ -47863,15 +47936,15 @@
       <c r="D52" s="112"/>
     </row>
     <row r="53" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="199"/>
-      <c r="B53" s="215" t="s">
+      <c r="A53" s="241"/>
+      <c r="B53" s="234" t="s">
         <v>1371</v>
       </c>
-      <c r="C53" s="216"/>
-      <c r="D53" s="217"/>
+      <c r="C53" s="235"/>
+      <c r="D53" s="236"/>
     </row>
     <row r="54" spans="1:4" s="4" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A54" s="199"/>
+      <c r="A54" s="241"/>
       <c r="B54" s="92" t="s">
         <v>1510</v>
       </c>
@@ -47881,7 +47954,7 @@
       <c r="D54" s="112"/>
     </row>
     <row r="55" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="198" t="s">
+      <c r="A55" s="240" t="s">
         <v>1430</v>
       </c>
       <c r="B55" s="85" t="s">
@@ -47893,7 +47966,7 @@
       <c r="D55" s="109"/>
     </row>
     <row r="56" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="199"/>
+      <c r="A56" s="241"/>
       <c r="B56" s="93" t="s">
         <v>147</v>
       </c>
@@ -47905,7 +47978,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="199"/>
+      <c r="A57" s="241"/>
       <c r="B57" s="87" t="s">
         <v>148</v>
       </c>
@@ -47917,7 +47990,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="199"/>
+      <c r="A58" s="241"/>
       <c r="B58" s="94" t="s">
         <v>154</v>
       </c>
@@ -47927,7 +48000,7 @@
       <c r="D58" s="110"/>
     </row>
     <row r="59" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="199"/>
+      <c r="A59" s="241"/>
       <c r="B59" s="86" t="s">
         <v>149</v>
       </c>
@@ -47937,7 +48010,7 @@
       <c r="D59" s="110"/>
     </row>
     <row r="60" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="199"/>
+      <c r="A60" s="241"/>
       <c r="B60" s="94" t="s">
         <v>150</v>
       </c>
@@ -47947,7 +48020,7 @@
       <c r="D60" s="110"/>
     </row>
     <row r="61" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="199"/>
+      <c r="A61" s="241"/>
       <c r="B61" s="86" t="s">
         <v>151</v>
       </c>
@@ -47957,7 +48030,7 @@
       <c r="D61" s="110"/>
     </row>
     <row r="62" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="199"/>
+      <c r="A62" s="241"/>
       <c r="B62" s="86" t="s">
         <v>152</v>
       </c>
@@ -47967,7 +48040,7 @@
       <c r="D62" s="110"/>
     </row>
     <row r="63" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="200"/>
+      <c r="A63" s="242"/>
       <c r="B63" s="86" t="s">
         <v>153</v>
       </c>
@@ -47977,7 +48050,7 @@
       <c r="D63" s="110"/>
     </row>
     <row r="64" spans="1:4" s="4" customFormat="1" ht="67.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="205" t="s">
+      <c r="A64" s="251" t="s">
         <v>1431</v>
       </c>
       <c r="B64" s="86" t="s">
@@ -47991,7 +48064,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" s="4" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="200"/>
+      <c r="A65" s="242"/>
       <c r="B65" s="86" t="s">
         <v>405</v>
       </c>
@@ -48013,7 +48086,7 @@
       <c r="D66" s="109"/>
     </row>
     <row r="67" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="198" t="s">
+      <c r="A67" s="240" t="s">
         <v>1433</v>
       </c>
       <c r="B67" s="84" t="s">
@@ -48025,7 +48098,7 @@
       <c r="D67" s="109"/>
     </row>
     <row r="68" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="199"/>
+      <c r="A68" s="241"/>
       <c r="B68" s="84" t="s">
         <v>156</v>
       </c>
@@ -48035,7 +48108,7 @@
       <c r="D68" s="109"/>
     </row>
     <row r="69" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="199"/>
+      <c r="A69" s="241"/>
       <c r="B69" s="84" t="s">
         <v>157</v>
       </c>
@@ -48045,7 +48118,7 @@
       <c r="D69" s="109"/>
     </row>
     <row r="70" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="199"/>
+      <c r="A70" s="241"/>
       <c r="B70" s="84" t="s">
         <v>228</v>
       </c>
@@ -48055,19 +48128,19 @@
       <c r="D70" s="109"/>
     </row>
     <row r="71" spans="1:4" s="4" customFormat="1" ht="89.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="200"/>
+      <c r="A71" s="242"/>
       <c r="B71" s="84" t="s">
         <v>1399</v>
       </c>
       <c r="C71" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="D71" s="285" t="s">
+      <c r="D71" s="173" t="s">
         <v>1519</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="4" customFormat="1" ht="61.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="198" t="s">
+      <c r="A72" s="240" t="s">
         <v>1434</v>
       </c>
       <c r="B72" s="84" t="s">
@@ -48079,7 +48152,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" s="4" customFormat="1" ht="45.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="199"/>
+      <c r="A73" s="241"/>
       <c r="B73" s="84" t="s">
         <v>1400</v>
       </c>
@@ -48091,7 +48164,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" s="4" customFormat="1" ht="41.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="199"/>
+      <c r="A74" s="241"/>
       <c r="B74" s="84" t="s">
         <v>1401</v>
       </c>
@@ -48115,31 +48188,31 @@
       </c>
     </row>
     <row r="76" spans="1:4" s="4" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="198" t="s">
+      <c r="A76" s="240" t="s">
         <v>1436</v>
       </c>
-      <c r="B76" s="209" t="s">
+      <c r="B76" s="252" t="s">
         <v>1513</v>
       </c>
       <c r="C76" s="95" t="s">
         <v>410</v>
       </c>
-      <c r="D76" s="283" t="s">
+      <c r="D76" s="171" t="s">
         <v>1515</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="4" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="200"/>
-      <c r="B77" s="210"/>
+      <c r="A77" s="242"/>
+      <c r="B77" s="253"/>
       <c r="C77" s="95" t="s">
         <v>1511</v>
       </c>
-      <c r="D77" s="283" t="s">
+      <c r="D77" s="171" t="s">
         <v>1512</v>
       </c>
     </row>
     <row r="78" spans="1:4" s="4" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="198" t="s">
+      <c r="A78" s="240" t="s">
         <v>1437</v>
       </c>
       <c r="B78" s="84" t="s">
@@ -48151,7 +48224,7 @@
       <c r="D78" s="109"/>
     </row>
     <row r="79" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="199"/>
+      <c r="A79" s="241"/>
       <c r="B79" s="84" t="s">
         <v>169</v>
       </c>
@@ -48161,7 +48234,7 @@
       <c r="D79" s="109"/>
     </row>
     <row r="80" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="199"/>
+      <c r="A80" s="241"/>
       <c r="B80" s="84" t="s">
         <v>166</v>
       </c>
@@ -48171,7 +48244,7 @@
       <c r="D80" s="109"/>
     </row>
     <row r="81" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="199"/>
+      <c r="A81" s="241"/>
       <c r="B81" s="84" t="s">
         <v>167</v>
       </c>
@@ -48181,7 +48254,7 @@
       <c r="D81" s="109"/>
     </row>
     <row r="82" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="199"/>
+      <c r="A82" s="241"/>
       <c r="B82" s="84" t="s">
         <v>168</v>
       </c>
@@ -48191,7 +48264,7 @@
       <c r="D82" s="109"/>
     </row>
     <row r="83" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="199"/>
+      <c r="A83" s="241"/>
       <c r="B83" s="84" t="s">
         <v>170</v>
       </c>
@@ -48201,7 +48274,7 @@
       <c r="D83" s="109"/>
     </row>
     <row r="84" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="199"/>
+      <c r="A84" s="241"/>
       <c r="B84" s="84" t="s">
         <v>171</v>
       </c>
@@ -48211,7 +48284,7 @@
       <c r="D84" s="109"/>
     </row>
     <row r="85" spans="1:4" s="4" customFormat="1" ht="50.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="199"/>
+      <c r="A85" s="241"/>
       <c r="B85" s="87" t="s">
         <v>1526</v>
       </c>
@@ -48221,19 +48294,19 @@
       <c r="D85" s="110"/>
     </row>
     <row r="86" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="200"/>
+      <c r="A86" s="242"/>
       <c r="B86" s="95" t="s">
         <v>1404</v>
       </c>
       <c r="C86" s="95" t="s">
         <v>388</v>
       </c>
-      <c r="D86" s="284" t="s">
+      <c r="D86" s="172" t="s">
         <v>1514</v>
       </c>
     </row>
     <row r="87" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="205" t="s">
+      <c r="A87" s="251" t="s">
         <v>1438</v>
       </c>
       <c r="B87" s="84" t="s">
@@ -48245,7 +48318,7 @@
       <c r="D87" s="109"/>
     </row>
     <row r="88" spans="1:4" s="4" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="199"/>
+      <c r="A88" s="241"/>
       <c r="B88" s="84" t="s">
         <v>236</v>
       </c>
@@ -48257,19 +48330,19 @@
       </c>
     </row>
     <row r="89" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="199"/>
+      <c r="A89" s="241"/>
       <c r="B89" s="84" t="s">
         <v>237</v>
       </c>
       <c r="C89" s="84" t="s">
         <v>238</v>
       </c>
-      <c r="D89" s="285" t="s">
+      <c r="D89" s="173" t="s">
         <v>1516</v>
       </c>
     </row>
     <row r="90" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="199"/>
+      <c r="A90" s="241"/>
       <c r="B90" s="84" t="s">
         <v>163</v>
       </c>
@@ -48281,7 +48354,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" s="4" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="199"/>
+      <c r="A91" s="241"/>
       <c r="B91" s="84" t="s">
         <v>164</v>
       </c>
@@ -48291,7 +48364,7 @@
       <c r="D91" s="109"/>
     </row>
     <row r="92" spans="1:4" s="4" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="198" t="s">
+      <c r="A92" s="240" t="s">
         <v>1439</v>
       </c>
       <c r="B92" s="84" t="s">
@@ -48305,19 +48378,19 @@
       </c>
     </row>
     <row r="93" spans="1:4" s="4" customFormat="1" ht="34.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="199"/>
+      <c r="A93" s="241"/>
       <c r="B93" s="84" t="s">
         <v>173</v>
       </c>
       <c r="C93" s="84" t="s">
         <v>1406</v>
       </c>
-      <c r="D93" s="285" t="s">
+      <c r="D93" s="173" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="94" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="199"/>
+      <c r="A94" s="241"/>
       <c r="B94" s="84" t="s">
         <v>166</v>
       </c>
@@ -48327,7 +48400,7 @@
       <c r="D94" s="109"/>
     </row>
     <row r="95" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="200"/>
+      <c r="A95" s="242"/>
       <c r="B95" s="84" t="s">
         <v>168</v>
       </c>
@@ -48340,14 +48413,14 @@
       <c r="A96" s="113" t="s">
         <v>1440</v>
       </c>
-      <c r="B96" s="202" t="s">
+      <c r="B96" s="260" t="s">
         <v>389</v>
       </c>
-      <c r="C96" s="203"/>
-      <c r="D96" s="204"/>
+      <c r="C96" s="261"/>
+      <c r="D96" s="262"/>
     </row>
     <row r="97" spans="1:4" s="4" customFormat="1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="198" t="s">
+      <c r="A97" s="240" t="s">
         <v>1441</v>
       </c>
       <c r="B97" s="84" t="s">
@@ -48359,7 +48432,7 @@
       <c r="D97" s="109"/>
     </row>
     <row r="98" spans="1:4" s="4" customFormat="1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="199"/>
+      <c r="A98" s="241"/>
       <c r="B98" s="84" t="s">
         <v>176</v>
       </c>
@@ -48369,7 +48442,7 @@
       <c r="D98" s="109"/>
     </row>
     <row r="99" spans="1:4" s="4" customFormat="1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="199"/>
+      <c r="A99" s="241"/>
       <c r="B99" s="84" t="s">
         <v>177</v>
       </c>
@@ -48379,7 +48452,7 @@
       <c r="D99" s="109"/>
     </row>
     <row r="100" spans="1:4" s="4" customFormat="1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="199"/>
+      <c r="A100" s="241"/>
       <c r="B100" s="84" t="s">
         <v>178</v>
       </c>
@@ -48389,7 +48462,7 @@
       <c r="D100" s="109"/>
     </row>
     <row r="101" spans="1:4" s="4" customFormat="1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="199"/>
+      <c r="A101" s="241"/>
       <c r="B101" s="84" t="s">
         <v>179</v>
       </c>
@@ -48399,7 +48472,7 @@
       <c r="D101" s="109"/>
     </row>
     <row r="102" spans="1:4" s="4" customFormat="1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="199"/>
+      <c r="A102" s="241"/>
       <c r="B102" s="84" t="s">
         <v>180</v>
       </c>
@@ -48409,7 +48482,7 @@
       <c r="D102" s="109"/>
     </row>
     <row r="103" spans="1:4" s="4" customFormat="1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="199"/>
+      <c r="A103" s="241"/>
       <c r="B103" s="84" t="s">
         <v>181</v>
       </c>
@@ -48419,7 +48492,7 @@
       <c r="D103" s="109"/>
     </row>
     <row r="104" spans="1:4" s="4" customFormat="1" ht="121.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="198" t="s">
+      <c r="A104" s="240" t="s">
         <v>1442</v>
       </c>
       <c r="B104" s="84" t="s">
@@ -48433,7 +48506,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" s="4" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="199"/>
+      <c r="A105" s="241"/>
       <c r="B105" s="96" t="s">
         <v>411</v>
       </c>
@@ -48443,7 +48516,7 @@
       <c r="D105" s="114"/>
     </row>
     <row r="106" spans="1:4" s="4" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="199"/>
+      <c r="A106" s="241"/>
       <c r="B106" s="96" t="s">
         <v>186</v>
       </c>
@@ -48455,7 +48528,7 @@
       </c>
     </row>
     <row r="107" spans="1:4" s="4" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="199"/>
+      <c r="A107" s="241"/>
       <c r="B107" s="88" t="s">
         <v>182</v>
       </c>
@@ -48465,7 +48538,7 @@
       <c r="D107" s="111"/>
     </row>
     <row r="108" spans="1:4" s="4" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="199"/>
+      <c r="A108" s="241"/>
       <c r="B108" s="88" t="s">
         <v>183</v>
       </c>
@@ -48477,7 +48550,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" s="4" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="199"/>
+      <c r="A109" s="241"/>
       <c r="B109" s="88" t="s">
         <v>184</v>
       </c>
@@ -48487,7 +48560,7 @@
       <c r="D109" s="111"/>
     </row>
     <row r="110" spans="1:4" s="4" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="199"/>
+      <c r="A110" s="241"/>
       <c r="B110" s="88" t="s">
         <v>185</v>
       </c>
@@ -48499,7 +48572,7 @@
       </c>
     </row>
     <row r="111" spans="1:4" s="4" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="199"/>
+      <c r="A111" s="241"/>
       <c r="B111" s="88" t="s">
         <v>412</v>
       </c>
@@ -48507,7 +48580,7 @@
       <c r="D111" s="111"/>
     </row>
     <row r="112" spans="1:4" s="4" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="199"/>
+      <c r="A112" s="241"/>
       <c r="B112" s="88" t="s">
         <v>413</v>
       </c>
@@ -48515,7 +48588,7 @@
       <c r="D112" s="111"/>
     </row>
     <row r="113" spans="1:4" s="4" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="199"/>
+      <c r="A113" s="241"/>
       <c r="B113" s="88" t="s">
         <v>414</v>
       </c>
@@ -48523,19 +48596,19 @@
       <c r="D113" s="111"/>
     </row>
     <row r="114" spans="1:4" s="4" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A114" s="199"/>
+      <c r="A114" s="241"/>
       <c r="B114" s="96" t="s">
         <v>189</v>
       </c>
       <c r="C114" s="96" t="s">
         <v>1408</v>
       </c>
-      <c r="D114" s="285" t="s">
+      <c r="D114" s="173" t="s">
         <v>1524</v>
       </c>
     </row>
     <row r="115" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="199"/>
+      <c r="A115" s="241"/>
       <c r="B115" s="96" t="s">
         <v>190</v>
       </c>
@@ -48547,7 +48620,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="199"/>
+      <c r="A116" s="241"/>
       <c r="B116" s="84" t="s">
         <v>187</v>
       </c>
@@ -48557,7 +48630,7 @@
       <c r="D116" s="114"/>
     </row>
     <row r="117" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="199"/>
+      <c r="A117" s="241"/>
       <c r="B117" s="84" t="s">
         <v>188</v>
       </c>
@@ -48567,10 +48640,10 @@
       <c r="D117" s="114"/>
     </row>
     <row r="118" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="197" t="s">
+      <c r="A118" s="258" t="s">
         <v>1443</v>
       </c>
-      <c r="B118" s="193" t="s">
+      <c r="B118" s="254" t="s">
         <v>1410</v>
       </c>
       <c r="C118" s="97" t="s">
@@ -48581,8 +48654,8 @@
       </c>
     </row>
     <row r="119" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="197"/>
-      <c r="B119" s="193"/>
+      <c r="A119" s="258"/>
+      <c r="B119" s="254"/>
       <c r="C119" s="97" t="s">
         <v>159</v>
       </c>
@@ -48591,8 +48664,8 @@
       </c>
     </row>
     <row r="120" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="197"/>
-      <c r="B120" s="193"/>
+      <c r="A120" s="258"/>
+      <c r="B120" s="254"/>
       <c r="C120" s="97" t="s">
         <v>160</v>
       </c>
@@ -48601,8 +48674,8 @@
       </c>
     </row>
     <row r="121" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="197"/>
-      <c r="B121" s="193"/>
+      <c r="A121" s="258"/>
+      <c r="B121" s="254"/>
       <c r="C121" s="97" t="s">
         <v>161</v>
       </c>
@@ -48611,8 +48684,8 @@
       </c>
     </row>
     <row r="122" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="197"/>
-      <c r="B122" s="193"/>
+      <c r="A122" s="258"/>
+      <c r="B122" s="254"/>
       <c r="C122" s="97" t="s">
         <v>162</v>
       </c>
@@ -48621,8 +48694,8 @@
       </c>
     </row>
     <row r="123" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="197"/>
-      <c r="B123" s="193"/>
+      <c r="A123" s="258"/>
+      <c r="B123" s="254"/>
       <c r="C123" s="99" t="s">
         <v>191</v>
       </c>
@@ -48631,8 +48704,8 @@
       </c>
     </row>
     <row r="124" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="197"/>
-      <c r="B124" s="193"/>
+      <c r="A124" s="258"/>
+      <c r="B124" s="254"/>
       <c r="C124" s="97" t="s">
         <v>192</v>
       </c>
@@ -48641,8 +48714,8 @@
       </c>
     </row>
     <row r="125" spans="1:4" s="4" customFormat="1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="197"/>
-      <c r="B125" s="201" t="s">
+      <c r="A125" s="258"/>
+      <c r="B125" s="259" t="s">
         <v>1413</v>
       </c>
       <c r="C125" s="101" t="s">
@@ -48653,8 +48726,8 @@
       </c>
     </row>
     <row r="126" spans="1:4" s="4" customFormat="1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="197"/>
-      <c r="B126" s="201"/>
+      <c r="A126" s="258"/>
+      <c r="B126" s="259"/>
       <c r="C126" s="102" t="s">
         <v>1414</v>
       </c>
@@ -48663,8 +48736,8 @@
       </c>
     </row>
     <row r="127" spans="1:4" s="4" customFormat="1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="197"/>
-      <c r="B127" s="193" t="s">
+      <c r="A127" s="258"/>
+      <c r="B127" s="254" t="s">
         <v>1416</v>
       </c>
       <c r="C127" s="97" t="s">
@@ -48675,8 +48748,8 @@
       </c>
     </row>
     <row r="128" spans="1:4" s="4" customFormat="1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="197"/>
-      <c r="B128" s="193"/>
+      <c r="A128" s="258"/>
+      <c r="B128" s="254"/>
       <c r="C128" s="97" t="s">
         <v>196</v>
       </c>
@@ -48685,8 +48758,8 @@
       </c>
     </row>
     <row r="129" spans="1:4" s="4" customFormat="1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A129" s="197"/>
-      <c r="B129" s="193"/>
+      <c r="A129" s="258"/>
+      <c r="B129" s="254"/>
       <c r="C129" s="97" t="s">
         <v>193</v>
       </c>
@@ -48695,8 +48768,8 @@
       </c>
     </row>
     <row r="130" spans="1:4" s="4" customFormat="1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="197"/>
-      <c r="B130" s="193"/>
+      <c r="A130" s="258"/>
+      <c r="B130" s="254"/>
       <c r="C130" s="97" t="s">
         <v>194</v>
       </c>
@@ -48705,8 +48778,8 @@
       </c>
     </row>
     <row r="131" spans="1:4" s="4" customFormat="1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="197"/>
-      <c r="B131" s="193"/>
+      <c r="A131" s="258"/>
+      <c r="B131" s="254"/>
       <c r="C131" s="97" t="s">
         <v>203</v>
       </c>
@@ -48715,8 +48788,8 @@
       </c>
     </row>
     <row r="132" spans="1:4" s="4" customFormat="1" ht="70.349999999999994" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="197"/>
-      <c r="B132" s="193"/>
+      <c r="A132" s="258"/>
+      <c r="B132" s="254"/>
       <c r="C132" s="103" t="s">
         <v>204</v>
       </c>
@@ -48725,8 +48798,8 @@
       </c>
     </row>
     <row r="133" spans="1:4" s="4" customFormat="1" ht="88.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="197"/>
-      <c r="B133" s="193"/>
+      <c r="A133" s="258"/>
+      <c r="B133" s="254"/>
       <c r="C133" s="104" t="s">
         <v>419</v>
       </c>
@@ -48735,8 +48808,8 @@
       </c>
     </row>
     <row r="134" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="197"/>
-      <c r="B134" s="201" t="s">
+      <c r="A134" s="258"/>
+      <c r="B134" s="259" t="s">
         <v>1421</v>
       </c>
       <c r="C134" s="102" t="s">
@@ -48747,8 +48820,8 @@
       </c>
     </row>
     <row r="135" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A135" s="197"/>
-      <c r="B135" s="201"/>
+      <c r="A135" s="258"/>
+      <c r="B135" s="259"/>
       <c r="C135" s="102" t="s">
         <v>198</v>
       </c>
@@ -48757,8 +48830,8 @@
       </c>
     </row>
     <row r="136" spans="1:4" s="4" customFormat="1" ht="54.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A136" s="197"/>
-      <c r="B136" s="201"/>
+      <c r="A136" s="258"/>
+      <c r="B136" s="259"/>
       <c r="C136" s="105" t="s">
         <v>199</v>
       </c>
@@ -48767,8 +48840,8 @@
       </c>
     </row>
     <row r="137" spans="1:4" s="4" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A137" s="197"/>
-      <c r="B137" s="193" t="s">
+      <c r="A137" s="258"/>
+      <c r="B137" s="254" t="s">
         <v>1423</v>
       </c>
       <c r="C137" s="97" t="s">
@@ -48779,8 +48852,8 @@
       </c>
     </row>
     <row r="138" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="197"/>
-      <c r="B138" s="193"/>
+      <c r="A138" s="258"/>
+      <c r="B138" s="254"/>
       <c r="C138" s="97" t="s">
         <v>1426</v>
       </c>
@@ -48789,8 +48862,8 @@
       </c>
     </row>
     <row r="139" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="197"/>
-      <c r="B139" s="201" t="s">
+      <c r="A139" s="258"/>
+      <c r="B139" s="259" t="s">
         <v>1427</v>
       </c>
       <c r="C139" s="106" t="s">
@@ -48801,8 +48874,8 @@
       </c>
     </row>
     <row r="140" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="197"/>
-      <c r="B140" s="201"/>
+      <c r="A140" s="258"/>
+      <c r="B140" s="259"/>
       <c r="C140" s="102" t="s">
         <v>201</v>
       </c>
@@ -48811,8 +48884,8 @@
       </c>
     </row>
     <row r="141" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="197"/>
-      <c r="B141" s="201"/>
+      <c r="A141" s="258"/>
+      <c r="B141" s="259"/>
       <c r="C141" s="106" t="s">
         <v>417</v>
       </c>
@@ -48821,8 +48894,8 @@
       </c>
     </row>
     <row r="142" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A142" s="197"/>
-      <c r="B142" s="201"/>
+      <c r="A142" s="258"/>
+      <c r="B142" s="259"/>
       <c r="C142" s="106" t="s">
         <v>202</v>
       </c>
@@ -48831,7 +48904,7 @@
       </c>
     </row>
     <row r="143" spans="1:4" s="4" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A143" s="197" t="s">
+      <c r="A143" s="258" t="s">
         <v>1444</v>
       </c>
       <c r="B143" s="98" t="s">
@@ -48841,7 +48914,7 @@
       <c r="D143" s="98"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A144" s="197"/>
+      <c r="A144" s="258"/>
       <c r="B144" s="108" t="s">
         <v>308</v>
       </c>
@@ -48849,7 +48922,7 @@
       <c r="D144" s="108"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A145" s="197"/>
+      <c r="A145" s="258"/>
       <c r="B145" s="108" t="s">
         <v>309</v>
       </c>
@@ -48859,27 +48932,6 @@
     <row r="146" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A43"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A44:A54"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
     <mergeCell ref="B127:B133"/>
     <mergeCell ref="D26:D29"/>
     <mergeCell ref="A143:A145"/>
@@ -48895,6 +48947,27 @@
     <mergeCell ref="A78:A86"/>
     <mergeCell ref="A55:A63"/>
     <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A44:A54"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.05" right="0" top="0.05" bottom="0" header="0" footer="0"/>
@@ -48903,14 +48976,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1F7BCE-4E08-477C-8685-C2A7AA59FA58}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D42" sqref="D42:D45"/>
     </sheetView>
   </sheetViews>
@@ -48923,31 +48996,31 @@
     <col min="5" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="318" customFormat="1" ht="63.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="315"/>
-      <c r="B1" s="316"/>
-      <c r="C1" s="316"/>
-      <c r="D1" s="317"/>
-    </row>
-    <row r="2" spans="1:4" s="322" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="319" t="s">
+    <row r="1" spans="1:4" s="187" customFormat="1" ht="63.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="288"/>
+      <c r="B1" s="289"/>
+      <c r="C1" s="289"/>
+      <c r="D1" s="186"/>
+    </row>
+    <row r="2" spans="1:4" s="189" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="263" t="s">
         <v>1557</v>
       </c>
-      <c r="B2" s="320"/>
-      <c r="C2" s="320"/>
-      <c r="D2" s="321"/>
-    </row>
-    <row r="3" spans="1:4" s="326" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A3" s="323" t="s">
+      <c r="B2" s="264"/>
+      <c r="C2" s="264"/>
+      <c r="D2" s="188"/>
+    </row>
+    <row r="3" spans="1:4" s="193" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.4">
+      <c r="A3" s="190" t="s">
         <v>1558</v>
       </c>
-      <c r="B3" s="324" t="s">
+      <c r="B3" s="191" t="s">
         <v>1559</v>
       </c>
-      <c r="C3" s="324" t="s">
+      <c r="C3" s="191" t="s">
         <v>1560</v>
       </c>
-      <c r="D3" s="325" t="s">
+      <c r="D3" s="192" t="s">
         <v>48</v>
       </c>
     </row>
@@ -48955,56 +49028,56 @@
       <c r="A4" s="158" t="s">
         <v>432</v>
       </c>
-      <c r="B4" s="221" t="s">
+      <c r="B4" s="265" t="s">
         <v>486</v>
       </c>
-      <c r="C4" s="221"/>
-      <c r="D4" s="222"/>
+      <c r="C4" s="265"/>
+      <c r="D4" s="272"/>
     </row>
     <row r="5" spans="1:4" ht="35.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="161" t="s">
         <v>267</v>
       </c>
-      <c r="B5" s="221" t="s">
+      <c r="B5" s="265" t="s">
         <v>351</v>
       </c>
-      <c r="C5" s="221"/>
-      <c r="D5" s="222"/>
+      <c r="C5" s="265"/>
+      <c r="D5" s="272"/>
     </row>
     <row r="6" spans="1:4" ht="22.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="223" t="s">
+      <c r="A6" s="277" t="s">
         <v>487</v>
       </c>
       <c r="B6" s="116" t="s">
         <v>433</v>
       </c>
-      <c r="C6" s="290" t="s">
+      <c r="C6" s="273" t="s">
         <v>488</v>
       </c>
-      <c r="D6" s="293"/>
+      <c r="D6" s="278"/>
     </row>
     <row r="7" spans="1:4" ht="22.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="223"/>
+      <c r="A7" s="277"/>
       <c r="B7" s="116" t="s">
         <v>434</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="273" t="s">
         <v>489</v>
       </c>
-      <c r="D7" s="293"/>
+      <c r="D7" s="278"/>
     </row>
     <row r="8" spans="1:4" ht="22.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="223"/>
+      <c r="A8" s="277"/>
       <c r="B8" s="116" t="s">
         <v>435</v>
       </c>
-      <c r="C8" s="290" t="s">
+      <c r="C8" s="273" t="s">
         <v>490</v>
       </c>
-      <c r="D8" s="293"/>
+      <c r="D8" s="278"/>
     </row>
     <row r="9" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="192" t="s">
+      <c r="A9" s="217" t="s">
         <v>491</v>
       </c>
       <c r="B9" s="117" t="s">
@@ -49013,136 +49086,136 @@
       <c r="C9" s="59" t="s">
         <v>436</v>
       </c>
-      <c r="D9" s="191" t="s">
+      <c r="D9" s="231" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="223"/>
+      <c r="A10" s="277"/>
       <c r="B10" s="117" t="s">
         <v>437</v>
       </c>
       <c r="C10" s="59" t="s">
         <v>493</v>
       </c>
-      <c r="D10" s="191"/>
+      <c r="D10" s="231"/>
     </row>
     <row r="11" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="223"/>
+      <c r="A11" s="277"/>
       <c r="B11" s="117" t="s">
         <v>439</v>
       </c>
       <c r="C11" s="59" t="s">
         <v>494</v>
       </c>
-      <c r="D11" s="191"/>
+      <c r="D11" s="231"/>
     </row>
     <row r="12" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="223"/>
-      <c r="B12" s="301" t="s">
+      <c r="A12" s="277"/>
+      <c r="B12" s="176" t="s">
         <v>440</v>
       </c>
       <c r="C12" s="58" t="s">
         <v>1540</v>
       </c>
-      <c r="D12" s="333" t="s">
+      <c r="D12" s="271" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="223"/>
-      <c r="B13" s="301" t="s">
+      <c r="A13" s="277"/>
+      <c r="B13" s="176" t="s">
         <v>441</v>
       </c>
       <c r="C13" s="58" t="s">
         <v>1541</v>
       </c>
-      <c r="D13" s="333"/>
+      <c r="D13" s="271"/>
     </row>
     <row r="14" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="223"/>
+      <c r="A14" s="277"/>
       <c r="B14" s="117" t="s">
         <v>442</v>
       </c>
       <c r="C14" s="59" t="s">
         <v>352</v>
       </c>
-      <c r="D14" s="222" t="s">
+      <c r="D14" s="272" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="223"/>
+      <c r="A15" s="277"/>
       <c r="B15" s="117" t="s">
         <v>443</v>
       </c>
       <c r="C15" s="59" t="s">
         <v>353</v>
       </c>
-      <c r="D15" s="222"/>
+      <c r="D15" s="272"/>
     </row>
     <row r="16" spans="1:4" s="167" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="292" t="s">
+      <c r="A16" s="293" t="s">
         <v>1445</v>
       </c>
-      <c r="B16" s="327" t="s">
+      <c r="B16" s="194" t="s">
         <v>1564</v>
       </c>
       <c r="C16" s="166"/>
       <c r="D16" s="166"/>
     </row>
     <row r="17" spans="1:4" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="224"/>
+      <c r="A17" s="294"/>
       <c r="B17" s="119" t="s">
         <v>354</v>
       </c>
-      <c r="C17" s="221" t="s">
+      <c r="C17" s="265" t="s">
         <v>496</v>
       </c>
-      <c r="D17" s="222" t="s">
+      <c r="D17" s="272" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="36.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="224"/>
+      <c r="A18" s="294"/>
       <c r="B18" s="120" t="s">
         <v>444</v>
       </c>
-      <c r="C18" s="221"/>
-      <c r="D18" s="222"/>
+      <c r="C18" s="265"/>
+      <c r="D18" s="272"/>
     </row>
     <row r="19" spans="1:4" s="167" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="224"/>
-      <c r="B19" s="327" t="s">
+      <c r="A19" s="294"/>
+      <c r="B19" s="194" t="s">
         <v>1563</v>
       </c>
       <c r="C19" s="166"/>
       <c r="D19" s="166"/>
     </row>
     <row r="20" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="224"/>
+      <c r="A20" s="294"/>
       <c r="B20" s="117" t="s">
         <v>498</v>
       </c>
       <c r="C20" s="59" t="s">
         <v>499</v>
       </c>
-      <c r="D20" s="222" t="s">
+      <c r="D20" s="272" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="224"/>
+      <c r="A21" s="294"/>
       <c r="B21" s="119" t="s">
         <v>268</v>
       </c>
       <c r="C21" s="163" t="s">
         <v>355</v>
       </c>
-      <c r="D21" s="222"/>
+      <c r="D21" s="272"/>
     </row>
     <row r="22" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="224"/>
+      <c r="A22" s="294"/>
       <c r="B22" s="163"/>
       <c r="C22" s="163" t="s">
         <v>272</v>
@@ -49152,15 +49225,15 @@
       </c>
     </row>
     <row r="23" spans="1:4" s="167" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="224"/>
-      <c r="B23" s="327" t="s">
+      <c r="A23" s="294"/>
+      <c r="B23" s="194" t="s">
         <v>1562</v>
       </c>
       <c r="C23" s="166"/>
       <c r="D23" s="166"/>
     </row>
     <row r="24" spans="1:4" ht="22.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="224"/>
+      <c r="A24" s="294"/>
       <c r="B24" s="117" t="s">
         <v>501</v>
       </c>
@@ -49170,55 +49243,55 @@
       <c r="D24" s="67"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="224"/>
-      <c r="B25" s="231" t="s">
+      <c r="A25" s="294"/>
+      <c r="B25" s="283" t="s">
         <v>1535</v>
       </c>
-      <c r="C25" s="231"/>
-      <c r="D25" s="232"/>
+      <c r="C25" s="283"/>
+      <c r="D25" s="284"/>
     </row>
     <row r="26" spans="1:4" ht="26.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="224"/>
+      <c r="A26" s="294"/>
       <c r="B26" s="117" t="s">
         <v>271</v>
       </c>
       <c r="C26" s="59" t="s">
         <v>503</v>
       </c>
-      <c r="D26" s="191" t="s">
+      <c r="D26" s="231" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="26.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="224"/>
+      <c r="A27" s="294"/>
       <c r="B27" s="117" t="s">
         <v>269</v>
       </c>
       <c r="C27" s="59" t="s">
         <v>356</v>
       </c>
-      <c r="D27" s="294"/>
+      <c r="D27" s="282"/>
     </row>
     <row r="28" spans="1:4" ht="26.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="224"/>
+      <c r="A28" s="294"/>
       <c r="B28" s="117" t="s">
         <v>270</v>
       </c>
       <c r="C28" s="59" t="s">
         <v>357</v>
       </c>
-      <c r="D28" s="294"/>
+      <c r="D28" s="282"/>
     </row>
     <row r="29" spans="1:4" s="167" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="224"/>
-      <c r="B29" s="327" t="s">
+      <c r="A29" s="294"/>
+      <c r="B29" s="194" t="s">
         <v>1561</v>
       </c>
       <c r="C29" s="166"/>
       <c r="D29" s="166"/>
     </row>
     <row r="30" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="224"/>
+      <c r="A30" s="294"/>
       <c r="B30" s="117" t="s">
         <v>505</v>
       </c>
@@ -49228,7 +49301,7 @@
       <c r="D30" s="67"/>
     </row>
     <row r="31" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="224"/>
+      <c r="A31" s="294"/>
       <c r="B31" s="117" t="s">
         <v>506</v>
       </c>
@@ -49238,7 +49311,7 @@
       <c r="D31" s="67"/>
     </row>
     <row r="32" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="224"/>
+      <c r="A32" s="294"/>
       <c r="B32" s="117" t="s">
         <v>507</v>
       </c>
@@ -49248,15 +49321,15 @@
       <c r="D32" s="67"/>
     </row>
     <row r="33" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="224"/>
-      <c r="B33" s="334" t="s">
+      <c r="A33" s="294"/>
+      <c r="B33" s="291" t="s">
         <v>1536</v>
       </c>
-      <c r="C33" s="334"/>
-      <c r="D33" s="335"/>
+      <c r="C33" s="291"/>
+      <c r="D33" s="292"/>
     </row>
     <row r="34" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="224"/>
+      <c r="A34" s="294"/>
       <c r="B34" s="119" t="s">
         <v>337</v>
       </c>
@@ -49268,7 +49341,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="224"/>
+      <c r="A35" s="294"/>
       <c r="B35" s="119" t="s">
         <v>510</v>
       </c>
@@ -49278,7 +49351,7 @@
       <c r="D35" s="164"/>
     </row>
     <row r="36" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="224"/>
+      <c r="A36" s="294"/>
       <c r="B36" s="119" t="s">
         <v>512</v>
       </c>
@@ -49291,14 +49364,14 @@
       <c r="A37" s="158" t="s">
         <v>513</v>
       </c>
-      <c r="B37" s="190" t="s">
+      <c r="B37" s="230" t="s">
         <v>514</v>
       </c>
-      <c r="C37" s="190"/>
-      <c r="D37" s="191"/>
+      <c r="C37" s="230"/>
+      <c r="D37" s="231"/>
     </row>
     <row r="38" spans="1:4" ht="20.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="192" t="s">
+      <c r="A38" s="217" t="s">
         <v>515</v>
       </c>
       <c r="B38" s="162" t="s">
@@ -49312,20 +49385,20 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="20.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="223"/>
-      <c r="B39" s="247" t="s">
+      <c r="A39" s="277"/>
+      <c r="B39" s="279" t="s">
         <v>517</v>
       </c>
-      <c r="C39" s="339" t="s">
+      <c r="C39" s="198" t="s">
         <v>340</v>
       </c>
-      <c r="D39" s="336" t="s">
+      <c r="D39" s="196" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" s="223"/>
-      <c r="B40" s="247"/>
+      <c r="A40" s="277"/>
+      <c r="B40" s="279"/>
       <c r="C40" s="124" t="s">
         <v>449</v>
       </c>
@@ -49334,8 +49407,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="223"/>
-      <c r="B41" s="247"/>
+      <c r="A41" s="277"/>
+      <c r="B41" s="279"/>
       <c r="C41" s="124" t="s">
         <v>450</v>
       </c>
@@ -49344,42 +49417,42 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="223"/>
-      <c r="B42" s="247"/>
+      <c r="A42" s="277"/>
+      <c r="B42" s="279"/>
       <c r="C42" s="120" t="s">
         <v>452</v>
       </c>
-      <c r="D42" s="337" t="s">
+      <c r="D42" s="290" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="223"/>
-      <c r="B43" s="247"/>
+      <c r="A43" s="277"/>
+      <c r="B43" s="279"/>
       <c r="C43" s="119" t="s">
         <v>446</v>
       </c>
-      <c r="D43" s="337"/>
+      <c r="D43" s="290"/>
     </row>
     <row r="44" spans="1:4" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="223"/>
-      <c r="B44" s="247"/>
+      <c r="A44" s="277"/>
+      <c r="B44" s="279"/>
       <c r="C44" s="119" t="s">
         <v>447</v>
       </c>
-      <c r="D44" s="337"/>
+      <c r="D44" s="290"/>
     </row>
     <row r="45" spans="1:4" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="223"/>
-      <c r="B45" s="247"/>
+      <c r="A45" s="277"/>
+      <c r="B45" s="279"/>
       <c r="C45" s="119" t="s">
         <v>448</v>
       </c>
-      <c r="D45" s="337"/>
+      <c r="D45" s="290"/>
     </row>
     <row r="46" spans="1:4" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="223"/>
-      <c r="B46" s="247" t="s">
+      <c r="A46" s="277"/>
+      <c r="B46" s="279" t="s">
         <v>522</v>
       </c>
       <c r="C46" s="120" t="s">
@@ -49390,47 +49463,47 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="223"/>
-      <c r="B47" s="247"/>
+      <c r="A47" s="277"/>
+      <c r="B47" s="279"/>
       <c r="C47" s="124" t="s">
         <v>451</v>
       </c>
       <c r="D47" s="127"/>
     </row>
     <row r="48" spans="1:4" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="223"/>
-      <c r="B48" s="247"/>
+      <c r="A48" s="277"/>
+      <c r="B48" s="279"/>
       <c r="C48" s="119" t="s">
         <v>453</v>
       </c>
       <c r="D48" s="164"/>
     </row>
     <row r="49" spans="1:4" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="223"/>
-      <c r="B49" s="247"/>
+      <c r="A49" s="277"/>
+      <c r="B49" s="279"/>
       <c r="C49" s="119" t="s">
         <v>454</v>
       </c>
       <c r="D49" s="164"/>
     </row>
     <row r="50" spans="1:4" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="223"/>
-      <c r="B50" s="247"/>
+      <c r="A50" s="277"/>
+      <c r="B50" s="279"/>
       <c r="C50" s="119" t="s">
         <v>455</v>
       </c>
       <c r="D50" s="164"/>
     </row>
     <row r="51" spans="1:4" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="223"/>
-      <c r="B51" s="247"/>
+      <c r="A51" s="277"/>
+      <c r="B51" s="279"/>
       <c r="C51" s="119" t="s">
         <v>456</v>
       </c>
       <c r="D51" s="164"/>
     </row>
     <row r="52" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="192" t="s">
+      <c r="A52" s="217" t="s">
         <v>524</v>
       </c>
       <c r="B52" s="119" t="s">
@@ -49442,7 +49515,7 @@
       <c r="D52" s="164"/>
     </row>
     <row r="53" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="223"/>
+      <c r="A53" s="277"/>
       <c r="B53" s="119" t="s">
         <v>458</v>
       </c>
@@ -49452,8 +49525,8 @@
       <c r="D53" s="164"/>
     </row>
     <row r="54" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="223"/>
-      <c r="B54" s="279" t="s">
+      <c r="A54" s="277"/>
+      <c r="B54" s="169" t="s">
         <v>459</v>
       </c>
       <c r="C54" s="59" t="s">
@@ -49464,7 +49537,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="223"/>
+      <c r="A55" s="277"/>
       <c r="B55" s="117" t="s">
         <v>461</v>
       </c>
@@ -49476,7 +49549,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="35.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="223"/>
+      <c r="A56" s="277"/>
       <c r="B56" s="117" t="s">
         <v>463</v>
       </c>
@@ -49491,14 +49564,14 @@
       <c r="A57" s="161" t="s">
         <v>526</v>
       </c>
-      <c r="B57" s="190" t="s">
+      <c r="B57" s="230" t="s">
         <v>527</v>
       </c>
-      <c r="C57" s="190"/>
-      <c r="D57" s="191"/>
+      <c r="C57" s="230"/>
+      <c r="D57" s="231"/>
     </row>
     <row r="58" spans="1:4" ht="60.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="223" t="s">
+      <c r="A58" s="277" t="s">
         <v>361</v>
       </c>
       <c r="B58" s="119" t="s">
@@ -49512,19 +49585,19 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="68.650000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="223"/>
+      <c r="A59" s="277"/>
       <c r="B59" s="122" t="s">
         <v>559</v>
       </c>
       <c r="C59" s="163" t="s">
         <v>529</v>
       </c>
-      <c r="D59" s="297" t="s">
+      <c r="D59" s="175" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="223" t="s">
+      <c r="A60" s="277" t="s">
         <v>363</v>
       </c>
       <c r="B60" s="119" t="s">
@@ -49536,17 +49609,17 @@
       <c r="D60" s="164"/>
     </row>
     <row r="61" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="223"/>
+      <c r="A61" s="277"/>
       <c r="B61" s="120" t="s">
         <v>558</v>
       </c>
       <c r="C61" s="163"/>
-      <c r="D61" s="297" t="s">
+      <c r="D61" s="175" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="223" t="s">
+      <c r="A62" s="277" t="s">
         <v>532</v>
       </c>
       <c r="B62" s="117" t="s">
@@ -49558,7 +49631,7 @@
       <c r="D62" s="164"/>
     </row>
     <row r="63" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="223"/>
+      <c r="A63" s="277"/>
       <c r="B63" s="117" t="s">
         <v>483</v>
       </c>
@@ -49568,7 +49641,7 @@
       <c r="D63" s="164"/>
     </row>
     <row r="64" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="223"/>
+      <c r="A64" s="277"/>
       <c r="B64" s="117" t="s">
         <v>485</v>
       </c>
@@ -49580,7 +49653,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="223"/>
+      <c r="A65" s="277"/>
       <c r="B65" s="117" t="s">
         <v>484</v>
       </c>
@@ -49592,7 +49665,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="20.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="223"/>
+      <c r="A66" s="277"/>
       <c r="B66" s="117" t="s">
         <v>1532</v>
       </c>
@@ -49602,7 +49675,7 @@
       <c r="D66" s="164"/>
     </row>
     <row r="67" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="223" t="s">
+      <c r="A67" s="277" t="s">
         <v>537</v>
       </c>
       <c r="B67" s="119" t="s">
@@ -49611,22 +49684,22 @@
       <c r="C67" s="163" t="s">
         <v>538</v>
       </c>
-      <c r="D67" s="222" t="s">
+      <c r="D67" s="272" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="223"/>
+      <c r="A68" s="277"/>
       <c r="B68" s="119" t="s">
         <v>347</v>
       </c>
       <c r="C68" s="163" t="s">
         <v>540</v>
       </c>
-      <c r="D68" s="222"/>
+      <c r="D68" s="272"/>
     </row>
     <row r="69" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="223"/>
+      <c r="A69" s="277"/>
       <c r="B69" s="119" t="s">
         <v>349</v>
       </c>
@@ -49641,46 +49714,46 @@
       <c r="A70" s="161" t="s">
         <v>542</v>
       </c>
-      <c r="B70" s="229" t="s">
+      <c r="B70" s="286" t="s">
         <v>543</v>
       </c>
-      <c r="C70" s="229"/>
-      <c r="D70" s="230"/>
+      <c r="C70" s="286"/>
+      <c r="D70" s="287"/>
     </row>
     <row r="71" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="161" t="s">
         <v>544</v>
       </c>
-      <c r="B71" s="229" t="s">
+      <c r="B71" s="286" t="s">
         <v>545</v>
       </c>
-      <c r="C71" s="229"/>
-      <c r="D71" s="230"/>
+      <c r="C71" s="286"/>
+      <c r="D71" s="287"/>
     </row>
     <row r="72" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="161" t="s">
         <v>546</v>
       </c>
-      <c r="B72" s="290" t="s">
+      <c r="B72" s="273" t="s">
         <v>1533</v>
       </c>
-      <c r="C72" s="229"/>
-      <c r="D72" s="230"/>
+      <c r="C72" s="286"/>
+      <c r="D72" s="287"/>
     </row>
     <row r="73" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="158" t="s">
         <v>547</v>
       </c>
-      <c r="B73" s="338" t="s">
+      <c r="B73" s="197" t="s">
         <v>1531</v>
       </c>
-      <c r="C73" s="298" t="s">
+      <c r="C73" s="280" t="s">
         <v>548</v>
       </c>
-      <c r="D73" s="299"/>
+      <c r="D73" s="281"/>
     </row>
     <row r="74" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="192" t="s">
+      <c r="A74" s="217" t="s">
         <v>1537</v>
       </c>
       <c r="B74" s="119" t="s">
@@ -49689,34 +49762,34 @@
       <c r="C74" s="163" t="s">
         <v>549</v>
       </c>
-      <c r="D74" s="297" t="s">
+      <c r="D74" s="175" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="21.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="223"/>
+      <c r="A75" s="277"/>
       <c r="B75" s="119" t="s">
         <v>343</v>
       </c>
       <c r="C75" s="163" t="s">
         <v>551</v>
       </c>
-      <c r="D75" s="333" t="s">
+      <c r="D75" s="271" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="21.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="223"/>
+      <c r="A76" s="277"/>
       <c r="B76" s="117" t="s">
         <v>344</v>
       </c>
       <c r="C76" s="59" t="s">
         <v>552</v>
       </c>
-      <c r="D76" s="333"/>
+      <c r="D76" s="271"/>
     </row>
     <row r="77" spans="1:4" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="192" t="s">
+      <c r="A77" s="217" t="s">
         <v>1538</v>
       </c>
       <c r="B77" s="119" t="s">
@@ -49725,40 +49798,40 @@
       <c r="C77" s="163" t="s">
         <v>477</v>
       </c>
-      <c r="D77" s="333"/>
+      <c r="D77" s="271"/>
     </row>
     <row r="78" spans="1:4" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="223"/>
+      <c r="A78" s="277"/>
       <c r="B78" s="119" t="s">
         <v>475</v>
       </c>
       <c r="C78" s="163" t="s">
         <v>556</v>
       </c>
-      <c r="D78" s="333"/>
+      <c r="D78" s="271"/>
     </row>
     <row r="79" spans="1:4" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="223"/>
+      <c r="A79" s="277"/>
       <c r="B79" s="119" t="s">
         <v>476</v>
       </c>
       <c r="C79" s="163" t="s">
         <v>478</v>
       </c>
-      <c r="D79" s="333"/>
+      <c r="D79" s="271"/>
     </row>
     <row r="80" spans="1:4" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="192" t="s">
+      <c r="A80" s="217" t="s">
         <v>557</v>
       </c>
       <c r="B80" s="119" t="s">
         <v>479</v>
       </c>
       <c r="C80" s="163"/>
-      <c r="D80" s="333"/>
+      <c r="D80" s="271"/>
     </row>
     <row r="81" spans="1:4" ht="21.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="223"/>
+      <c r="A81" s="277"/>
       <c r="B81" s="119" t="s">
         <v>350</v>
       </c>
@@ -49768,7 +49841,7 @@
       <c r="D81" s="164"/>
     </row>
     <row r="82" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="223" t="s">
+      <c r="A82" s="277" t="s">
         <v>364</v>
       </c>
       <c r="B82" s="117" t="s">
@@ -49777,12 +49850,12 @@
       <c r="C82" s="59" t="s">
         <v>553</v>
       </c>
-      <c r="D82" s="297" t="s">
+      <c r="D82" s="175" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="223"/>
+      <c r="A83" s="277"/>
       <c r="B83" s="59" t="s">
         <v>472</v>
       </c>
@@ -49792,7 +49865,7 @@
       <c r="D83" s="164"/>
     </row>
     <row r="84" spans="1:4" ht="36.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="223"/>
+      <c r="A84" s="277"/>
       <c r="B84" s="59" t="s">
         <v>473</v>
       </c>
@@ -49802,38 +49875,38 @@
       <c r="D84" s="164"/>
     </row>
     <row r="85" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="223"/>
-      <c r="B85" s="228" t="s">
+      <c r="A85" s="277"/>
+      <c r="B85" s="285" t="s">
         <v>346</v>
       </c>
-      <c r="C85" s="190" t="s">
+      <c r="C85" s="230" t="s">
         <v>365</v>
       </c>
-      <c r="D85" s="297" t="s">
+      <c r="D85" s="175" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="102.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="223"/>
-      <c r="B86" s="228"/>
-      <c r="C86" s="190"/>
-      <c r="D86" s="297" t="s">
+      <c r="A86" s="277"/>
+      <c r="B86" s="285"/>
+      <c r="C86" s="230"/>
+      <c r="D86" s="175" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="322" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="328" t="s">
+    <row r="87" spans="1:4" s="189" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="274" t="s">
         <v>1565</v>
       </c>
-      <c r="B87" s="329"/>
-      <c r="C87" s="329"/>
-      <c r="D87" s="330"/>
+      <c r="B87" s="275"/>
+      <c r="C87" s="275"/>
+      <c r="D87" s="276"/>
     </row>
     <row r="88" spans="1:4" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="192" t="s">
+      <c r="A88" s="217" t="s">
         <v>328</v>
       </c>
-      <c r="B88" s="290" t="s">
+      <c r="B88" s="273" t="s">
         <v>1542</v>
       </c>
       <c r="C88" s="163" t="s">
@@ -49844,8 +49917,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="20.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="192"/>
-      <c r="B89" s="290"/>
+      <c r="A89" s="217"/>
+      <c r="B89" s="273"/>
       <c r="C89" s="163" t="s">
         <v>295</v>
       </c>
@@ -49854,8 +49927,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="20.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="192"/>
-      <c r="B90" s="290"/>
+      <c r="A90" s="217"/>
+      <c r="B90" s="273"/>
       <c r="C90" s="163" t="s">
         <v>296</v>
       </c>
@@ -49864,8 +49937,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="20.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="192"/>
-      <c r="B91" s="290"/>
+      <c r="A91" s="217"/>
+      <c r="B91" s="273"/>
       <c r="C91" s="163" t="s">
         <v>297</v>
       </c>
@@ -49874,8 +49947,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="20.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="192"/>
-      <c r="B92" s="290"/>
+      <c r="A92" s="217"/>
+      <c r="B92" s="273"/>
       <c r="C92" s="163" t="s">
         <v>298</v>
       </c>
@@ -49884,10 +49957,10 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="192" t="s">
+      <c r="A93" s="217" t="s">
         <v>329</v>
       </c>
-      <c r="B93" s="290" t="s">
+      <c r="B93" s="273" t="s">
         <v>606</v>
       </c>
       <c r="C93" s="163" t="s">
@@ -49898,8 +49971,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="192"/>
-      <c r="B94" s="290"/>
+      <c r="A94" s="217"/>
+      <c r="B94" s="273"/>
       <c r="C94" s="163" t="s">
         <v>302</v>
       </c>
@@ -49908,8 +49981,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="192"/>
-      <c r="B95" s="290"/>
+      <c r="A95" s="217"/>
+      <c r="B95" s="273"/>
       <c r="C95" s="163" t="s">
         <v>299</v>
       </c>
@@ -49918,8 +49991,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="192"/>
-      <c r="B96" s="290"/>
+      <c r="A96" s="217"/>
+      <c r="B96" s="273"/>
       <c r="C96" s="163" t="s">
         <v>300</v>
       </c>
@@ -49928,10 +50001,10 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="192" t="s">
+      <c r="A97" s="217" t="s">
         <v>330</v>
       </c>
-      <c r="B97" s="290" t="s">
+      <c r="B97" s="273" t="s">
         <v>609</v>
       </c>
       <c r="C97" s="163" t="s">
@@ -49942,8 +50015,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="192"/>
-      <c r="B98" s="290"/>
+      <c r="A98" s="217"/>
+      <c r="B98" s="273"/>
       <c r="C98" s="163" t="s">
         <v>304</v>
       </c>
@@ -49952,8 +50025,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="192"/>
-      <c r="B99" s="290"/>
+      <c r="A99" s="217"/>
+      <c r="B99" s="273"/>
       <c r="C99" s="163" t="s">
         <v>572</v>
       </c>
@@ -49962,8 +50035,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="192"/>
-      <c r="B100" s="290"/>
+      <c r="A100" s="217"/>
+      <c r="B100" s="273"/>
       <c r="C100" s="163" t="s">
         <v>373</v>
       </c>
@@ -49972,7 +50045,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="192" t="s">
+      <c r="A101" s="217" t="s">
         <v>612</v>
       </c>
       <c r="B101" s="163" t="s">
@@ -49981,48 +50054,48 @@
       <c r="C101" s="163" t="s">
         <v>587</v>
       </c>
-      <c r="D101" s="333" t="s">
+      <c r="D101" s="271" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="192"/>
+      <c r="A102" s="217"/>
       <c r="B102" s="163" t="s">
         <v>306</v>
       </c>
       <c r="C102" s="163" t="s">
         <v>588</v>
       </c>
-      <c r="D102" s="333"/>
+      <c r="D102" s="271"/>
     </row>
     <row r="103" spans="1:4" ht="118.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="192"/>
-      <c r="B103" s="221" t="s">
+      <c r="A103" s="217"/>
+      <c r="B103" s="265" t="s">
         <v>636</v>
       </c>
-      <c r="C103" s="221"/>
-      <c r="D103" s="222"/>
-    </row>
-    <row r="104" spans="1:4" s="331" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="328" t="s">
+      <c r="C103" s="265"/>
+      <c r="D103" s="272"/>
+    </row>
+    <row r="104" spans="1:4" s="195" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="274" t="s">
         <v>1566</v>
       </c>
-      <c r="B104" s="329"/>
-      <c r="C104" s="329"/>
-      <c r="D104" s="330"/>
+      <c r="B104" s="275"/>
+      <c r="C104" s="275"/>
+      <c r="D104" s="276"/>
     </row>
     <row r="105" spans="1:4" ht="73.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="158" t="s">
         <v>614</v>
       </c>
-      <c r="B105" s="221" t="s">
+      <c r="B105" s="265" t="s">
         <v>615</v>
       </c>
-      <c r="C105" s="225"/>
-      <c r="D105" s="226"/>
+      <c r="C105" s="266"/>
+      <c r="D105" s="270"/>
     </row>
     <row r="106" spans="1:4" ht="22.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="192" t="s">
+      <c r="A106" s="217" t="s">
         <v>331</v>
       </c>
       <c r="B106" s="119" t="s">
@@ -50034,7 +50107,7 @@
       <c r="D106" s="164"/>
     </row>
     <row r="107" spans="1:4" ht="22.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="192"/>
+      <c r="A107" s="217"/>
       <c r="B107" s="119" t="s">
         <v>311</v>
       </c>
@@ -50044,7 +50117,7 @@
       <c r="D107" s="164"/>
     </row>
     <row r="108" spans="1:4" ht="22.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="192"/>
+      <c r="A108" s="217"/>
       <c r="B108" s="119" t="s">
         <v>312</v>
       </c>
@@ -50054,7 +50127,7 @@
       <c r="D108" s="164"/>
     </row>
     <row r="109" spans="1:4" ht="22.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="192" t="s">
+      <c r="A109" s="217" t="s">
         <v>619</v>
       </c>
       <c r="B109" s="119" t="s">
@@ -50066,8 +50139,8 @@
       <c r="D109" s="164"/>
     </row>
     <row r="110" spans="1:4" ht="22.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="192"/>
-      <c r="B110" s="301" t="s">
+      <c r="A110" s="217"/>
+      <c r="B110" s="176" t="s">
         <v>313</v>
       </c>
       <c r="C110" s="58" t="s">
@@ -50078,17 +50151,17 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="22.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="192"/>
+      <c r="A111" s="217"/>
       <c r="B111" s="124" t="s">
         <v>574</v>
       </c>
-      <c r="C111" s="221" t="s">
+      <c r="C111" s="265" t="s">
         <v>621</v>
       </c>
-      <c r="D111" s="222"/>
+      <c r="D111" s="272"/>
     </row>
     <row r="112" spans="1:4" ht="22.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="192"/>
+      <c r="A112" s="217"/>
       <c r="B112" s="124" t="s">
         <v>576</v>
       </c>
@@ -50098,8 +50171,8 @@
       <c r="D112" s="160"/>
     </row>
     <row r="113" spans="1:4" ht="22.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="192"/>
-      <c r="B113" s="301" t="s">
+      <c r="A113" s="217"/>
+      <c r="B113" s="176" t="s">
         <v>314</v>
       </c>
       <c r="C113" s="58" t="s">
@@ -50110,7 +50183,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="192" t="s">
+      <c r="A114" s="217" t="s">
         <v>315</v>
       </c>
       <c r="B114" s="119" t="s">
@@ -50119,166 +50192,226 @@
       <c r="C114" s="163" t="s">
         <v>590</v>
       </c>
-      <c r="D114" s="333" t="s">
+      <c r="D114" s="271" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="192"/>
+      <c r="A115" s="217"/>
       <c r="B115" s="119" t="s">
         <v>578</v>
       </c>
       <c r="C115" s="163" t="s">
         <v>624</v>
       </c>
-      <c r="D115" s="333"/>
+      <c r="D115" s="271"/>
     </row>
     <row r="116" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="192"/>
+      <c r="A116" s="217"/>
       <c r="B116" s="119" t="s">
         <v>579</v>
       </c>
       <c r="C116" s="163" t="s">
         <v>625</v>
       </c>
-      <c r="D116" s="333"/>
+      <c r="D116" s="271"/>
     </row>
     <row r="117" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="192"/>
+      <c r="A117" s="217"/>
       <c r="B117" s="119" t="s">
         <v>580</v>
       </c>
       <c r="C117" s="163" t="s">
         <v>626</v>
       </c>
-      <c r="D117" s="333"/>
+      <c r="D117" s="271"/>
     </row>
     <row r="118" spans="1:4" ht="39.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="192" t="s">
+      <c r="A118" s="217" t="s">
         <v>627</v>
       </c>
-      <c r="B118" s="221" t="s">
+      <c r="B118" s="265" t="s">
         <v>628</v>
       </c>
-      <c r="C118" s="225"/>
-      <c r="D118" s="226"/>
+      <c r="C118" s="266"/>
+      <c r="D118" s="270"/>
     </row>
     <row r="119" spans="1:4" ht="31.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="192"/>
-      <c r="B119" s="221" t="s">
+      <c r="A119" s="217"/>
+      <c r="B119" s="265" t="s">
         <v>1529</v>
       </c>
-      <c r="C119" s="221"/>
-      <c r="D119" s="222"/>
+      <c r="C119" s="265"/>
+      <c r="D119" s="272"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A120" s="192"/>
-      <c r="B120" s="221" t="s">
+      <c r="A120" s="217"/>
+      <c r="B120" s="265" t="s">
         <v>1528</v>
       </c>
-      <c r="C120" s="221"/>
-      <c r="D120" s="222"/>
+      <c r="C120" s="265"/>
+      <c r="D120" s="272"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A121" s="192"/>
-      <c r="B121" s="221" t="s">
+      <c r="A121" s="217"/>
+      <c r="B121" s="265" t="s">
         <v>1530</v>
       </c>
-      <c r="C121" s="221"/>
-      <c r="D121" s="222"/>
+      <c r="C121" s="265"/>
+      <c r="D121" s="272"/>
     </row>
     <row r="122" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="192" t="s">
+      <c r="A122" s="217" t="s">
         <v>332</v>
       </c>
-      <c r="B122" s="300" t="s">
+      <c r="B122" s="267" t="s">
         <v>1539</v>
       </c>
-      <c r="C122" s="295"/>
-      <c r="D122" s="296"/>
+      <c r="C122" s="268"/>
+      <c r="D122" s="269"/>
     </row>
     <row r="123" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="192"/>
-      <c r="B123" s="221" t="s">
+      <c r="A123" s="217"/>
+      <c r="B123" s="265" t="s">
         <v>629</v>
       </c>
-      <c r="C123" s="225" t="s">
+      <c r="C123" s="266" t="s">
         <v>630</v>
       </c>
-      <c r="D123" s="226"/>
+      <c r="D123" s="270"/>
     </row>
     <row r="124" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="192"/>
-      <c r="B124" s="225"/>
-      <c r="C124" s="225" t="s">
+      <c r="A124" s="217"/>
+      <c r="B124" s="266"/>
+      <c r="C124" s="266" t="s">
         <v>631</v>
       </c>
-      <c r="D124" s="226" t="s">
+      <c r="D124" s="270" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="192"/>
-      <c r="B125" s="225"/>
-      <c r="C125" s="225" t="s">
+      <c r="A125" s="217"/>
+      <c r="B125" s="266"/>
+      <c r="C125" s="266" t="s">
         <v>632</v>
       </c>
-      <c r="D125" s="226" t="s">
+      <c r="D125" s="270" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="192"/>
-      <c r="B126" s="225"/>
-      <c r="C126" s="225" t="s">
+      <c r="A126" s="217"/>
+      <c r="B126" s="266"/>
+      <c r="C126" s="266" t="s">
         <v>633</v>
       </c>
-      <c r="D126" s="226" t="s">
+      <c r="D126" s="270" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="192"/>
-      <c r="B127" s="221" t="s">
+      <c r="A127" s="217"/>
+      <c r="B127" s="265" t="s">
         <v>634</v>
       </c>
-      <c r="C127" s="225" t="s">
+      <c r="C127" s="266" t="s">
         <v>316</v>
       </c>
-      <c r="D127" s="226" t="s">
+      <c r="D127" s="270" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="192"/>
-      <c r="B128" s="225"/>
-      <c r="C128" s="225" t="s">
+      <c r="A128" s="217"/>
+      <c r="B128" s="266"/>
+      <c r="C128" s="266" t="s">
         <v>317</v>
       </c>
-      <c r="D128" s="226" t="s">
+      <c r="D128" s="270" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A129" s="192"/>
-      <c r="B129" s="225"/>
-      <c r="C129" s="225" t="s">
+      <c r="A129" s="217"/>
+      <c r="B129" s="266"/>
+      <c r="C129" s="266" t="s">
         <v>318</v>
       </c>
-      <c r="D129" s="226" t="s">
+      <c r="D129" s="270" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="192"/>
-      <c r="B130" s="225"/>
-      <c r="C130" s="225" t="s">
+      <c r="A130" s="217"/>
+      <c r="B130" s="266"/>
+      <c r="C130" s="266" t="s">
         <v>319</v>
       </c>
-      <c r="D130" s="226"/>
+      <c r="D130" s="270"/>
     </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="A38:A51"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A16:A36"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D75:D80"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B121:D121"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="B123:B126"/>
     <mergeCell ref="B127:B130"/>
@@ -50295,66 +50428,6 @@
     <mergeCell ref="D114:D117"/>
     <mergeCell ref="A114:A117"/>
     <mergeCell ref="B105:D105"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D75:D80"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="A38:A51"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A16:A36"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="B39:B45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.05" right="0" top="0.05" bottom="0" header="0" footer="0"/>
@@ -50363,15 +50436,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94C62D2-7845-4434-9B59-109903D3F362}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -50383,31 +50456,31 @@
     <col min="5" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="306" customFormat="1" ht="63.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="303"/>
-      <c r="B1" s="304"/>
-      <c r="C1" s="304"/>
-      <c r="D1" s="305"/>
-    </row>
-    <row r="2" spans="1:4" s="310" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="307" t="s">
+    <row r="1" spans="1:4" s="179" customFormat="1" ht="63.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="297"/>
+      <c r="B1" s="298"/>
+      <c r="C1" s="298"/>
+      <c r="D1" s="178"/>
+    </row>
+    <row r="2" spans="1:4" s="181" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="295" t="s">
         <v>1484</v>
       </c>
-      <c r="B2" s="308"/>
-      <c r="C2" s="308"/>
-      <c r="D2" s="309"/>
-    </row>
-    <row r="3" spans="1:4" s="314" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A3" s="311" t="s">
+      <c r="B2" s="296"/>
+      <c r="C2" s="296"/>
+      <c r="D2" s="180"/>
+    </row>
+    <row r="3" spans="1:4" s="185" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.4">
+      <c r="A3" s="182" t="s">
         <v>1554</v>
       </c>
-      <c r="B3" s="312" t="s">
+      <c r="B3" s="183" t="s">
         <v>1555</v>
       </c>
-      <c r="C3" s="312" t="s">
+      <c r="C3" s="183" t="s">
         <v>1556</v>
       </c>
-      <c r="D3" s="313" t="s">
+      <c r="D3" s="184" t="s">
         <v>48</v>
       </c>
     </row>
@@ -50415,24 +50488,24 @@
       <c r="A4" s="158" t="s">
         <v>273</v>
       </c>
-      <c r="B4" s="221" t="s">
+      <c r="B4" s="265" t="s">
         <v>568</v>
       </c>
-      <c r="C4" s="221"/>
-      <c r="D4" s="222"/>
+      <c r="C4" s="265"/>
+      <c r="D4" s="272"/>
     </row>
     <row r="5" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="158" t="s">
         <v>1552</v>
       </c>
-      <c r="B5" s="221" t="s">
+      <c r="B5" s="265" t="s">
         <v>591</v>
       </c>
-      <c r="C5" s="221"/>
-      <c r="D5" s="222"/>
+      <c r="C5" s="265"/>
+      <c r="D5" s="272"/>
     </row>
     <row r="6" spans="1:4" ht="136.80000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="192" t="s">
+      <c r="A6" s="217" t="s">
         <v>1553</v>
       </c>
       <c r="B6" s="129" t="s">
@@ -50446,19 +50519,19 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="192"/>
+      <c r="A7" s="217"/>
       <c r="B7" s="129" t="s">
         <v>274</v>
       </c>
       <c r="C7" s="59" t="s">
         <v>320</v>
       </c>
-      <c r="D7" s="297" t="s">
+      <c r="D7" s="175" t="s">
         <v>1545</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="192"/>
+      <c r="A8" s="217"/>
       <c r="B8" s="129" t="s">
         <v>561</v>
       </c>
@@ -50470,7 +50543,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="25.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="192" t="s">
+      <c r="A9" s="217" t="s">
         <v>1551</v>
       </c>
       <c r="B9" s="163" t="s">
@@ -50484,7 +50557,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="192"/>
+      <c r="A10" s="217"/>
       <c r="B10" s="163" t="s">
         <v>277</v>
       </c>
@@ -50499,25 +50572,25 @@
       <c r="A11" s="158" t="s">
         <v>1550</v>
       </c>
-      <c r="B11" s="221" t="s">
+      <c r="B11" s="265" t="s">
         <v>595</v>
       </c>
-      <c r="C11" s="221"/>
-      <c r="D11" s="222"/>
+      <c r="C11" s="265"/>
+      <c r="D11" s="272"/>
     </row>
     <row r="12" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="192" t="s">
+      <c r="A12" s="217" t="s">
         <v>596</v>
       </c>
-      <c r="B12" s="221" t="s">
+      <c r="B12" s="265" t="s">
         <v>597</v>
       </c>
-      <c r="C12" s="221"/>
-      <c r="D12" s="222"/>
+      <c r="C12" s="265"/>
+      <c r="D12" s="272"/>
     </row>
     <row r="13" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="192"/>
-      <c r="B13" s="290" t="s">
+      <c r="A13" s="217"/>
+      <c r="B13" s="273" t="s">
         <v>1567</v>
       </c>
       <c r="C13" s="59" t="s">
@@ -50528,8 +50601,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="192"/>
-      <c r="B14" s="290"/>
+      <c r="A14" s="217"/>
+      <c r="B14" s="273"/>
       <c r="C14" s="59" t="s">
         <v>280</v>
       </c>
@@ -50538,8 +50611,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="192"/>
-      <c r="B15" s="290"/>
+      <c r="A15" s="217"/>
+      <c r="B15" s="273"/>
       <c r="C15" s="59" t="s">
         <v>281</v>
       </c>
@@ -50548,8 +50621,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="192"/>
-      <c r="B16" s="290"/>
+      <c r="A16" s="217"/>
+      <c r="B16" s="273"/>
       <c r="C16" s="59" t="s">
         <v>282</v>
       </c>
@@ -50558,8 +50631,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="192"/>
-      <c r="B17" s="290"/>
+      <c r="A17" s="217"/>
+      <c r="B17" s="273"/>
       <c r="C17" s="59" t="s">
         <v>283</v>
       </c>
@@ -50568,8 +50641,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="192"/>
-      <c r="B18" s="290"/>
+      <c r="A18" s="217"/>
+      <c r="B18" s="273"/>
       <c r="C18" s="59" t="s">
         <v>284</v>
       </c>
@@ -50578,7 +50651,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="192" t="s">
+      <c r="A19" s="217" t="s">
         <v>1549</v>
       </c>
       <c r="B19" s="58" t="s">
@@ -50592,7 +50665,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="192"/>
+      <c r="A20" s="217"/>
       <c r="B20" s="59" t="s">
         <v>286</v>
       </c>
@@ -50602,7 +50675,7 @@
       <c r="D20" s="67"/>
     </row>
     <row r="21" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="192"/>
+      <c r="A21" s="217"/>
       <c r="B21" s="59" t="s">
         <v>287</v>
       </c>
@@ -50612,7 +50685,7 @@
       <c r="D21" s="67"/>
     </row>
     <row r="22" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="192"/>
+      <c r="A22" s="217"/>
       <c r="B22" s="59" t="s">
         <v>288</v>
       </c>
@@ -50622,7 +50695,7 @@
       <c r="D22" s="67"/>
     </row>
     <row r="23" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="192"/>
+      <c r="A23" s="217"/>
       <c r="B23" s="58" t="s">
         <v>289</v>
       </c>
@@ -50634,7 +50707,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="192"/>
+      <c r="A24" s="217"/>
       <c r="B24" s="59" t="s">
         <v>290</v>
       </c>
@@ -50644,7 +50717,7 @@
       <c r="D24" s="67"/>
     </row>
     <row r="25" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="192" t="s">
+      <c r="A25" s="217" t="s">
         <v>1548</v>
       </c>
       <c r="B25" s="163" t="s">
@@ -50656,7 +50729,7 @@
       <c r="D25" s="164"/>
     </row>
     <row r="26" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="192"/>
+      <c r="A26" s="217"/>
       <c r="B26" s="163" t="s">
         <v>292</v>
       </c>
@@ -50666,7 +50739,7 @@
       <c r="D26" s="164"/>
     </row>
     <row r="27" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="192"/>
+      <c r="A27" s="217"/>
       <c r="B27" s="163" t="s">
         <v>293</v>
       </c>
@@ -50684,16 +50757,16 @@
       <c r="B28" s="118" t="s">
         <v>566</v>
       </c>
-      <c r="C28" s="221" t="s">
+      <c r="C28" s="265" t="s">
         <v>567</v>
       </c>
-      <c r="D28" s="222"/>
+      <c r="D28" s="272"/>
     </row>
     <row r="29" spans="1:4" ht="20.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="192" t="s">
+      <c r="A29" s="217" t="s">
         <v>1547</v>
       </c>
-      <c r="B29" s="291" t="s">
+      <c r="B29" s="300" t="s">
         <v>599</v>
       </c>
       <c r="C29" s="163" t="s">
@@ -50704,8 +50777,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="21.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="192"/>
-      <c r="B30" s="247"/>
+      <c r="A30" s="217"/>
+      <c r="B30" s="279"/>
       <c r="C30" s="163" t="s">
         <v>570</v>
       </c>
@@ -50714,22 +50787,17 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A31" s="234"/>
-      <c r="B31" s="332"/>
+      <c r="A31" s="299"/>
+      <c r="B31" s="301"/>
       <c r="C31" s="130" t="s">
         <v>571</v>
       </c>
-      <c r="D31" s="302" t="s">
+      <c r="D31" s="177" t="s">
         <v>602</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A1:C1"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B11:D11"/>
@@ -50740,6 +50808,11 @@
     <mergeCell ref="A19:A24"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="B13:B18"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.05" right="0" top="0.05" bottom="0" header="0" footer="0"/>
@@ -50748,15 +50821,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715E8408-F489-4930-BA01-B267763A1E0A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129:E129"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -50770,26 +50843,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="77" customFormat="1" ht="63.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="211"/>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
+      <c r="A1" s="243"/>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
       <c r="E1" s="76"/>
     </row>
     <row r="2" spans="1:5" s="78" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="232" t="s">
         <v>1448</v>
       </c>
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
+      <c r="B2" s="233"/>
+      <c r="C2" s="233"/>
       <c r="D2" s="142"/>
       <c r="E2" s="143"/>
     </row>
     <row r="3" spans="1:5" s="79" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A3" s="236" t="s">
+      <c r="A3" s="319" t="s">
         <v>1360</v>
       </c>
-      <c r="B3" s="237"/>
+      <c r="B3" s="320"/>
       <c r="C3" s="133" t="s">
         <v>1361</v>
       </c>
@@ -50801,63 +50874,63 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="180" t="s">
+      <c r="A4" s="220" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="244" t="s">
+      <c r="B4" s="313" t="s">
         <v>926</v>
       </c>
-      <c r="C4" s="245" t="s">
+      <c r="C4" s="314" t="s">
         <v>666</v>
       </c>
-      <c r="D4" s="245"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="144"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="192"/>
-      <c r="B5" s="227"/>
-      <c r="C5" s="221" t="s">
+      <c r="A5" s="217"/>
+      <c r="B5" s="302"/>
+      <c r="C5" s="265" t="s">
         <v>667</v>
       </c>
-      <c r="D5" s="221"/>
-      <c r="E5" s="246" t="s">
+      <c r="D5" s="265"/>
+      <c r="E5" s="315" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="192"/>
-      <c r="B6" s="227"/>
-      <c r="C6" s="221" t="s">
+      <c r="A6" s="217"/>
+      <c r="B6" s="302"/>
+      <c r="C6" s="265" t="s">
         <v>879</v>
       </c>
-      <c r="D6" s="221"/>
-      <c r="E6" s="246"/>
+      <c r="D6" s="265"/>
+      <c r="E6" s="315"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="192"/>
-      <c r="B7" s="227"/>
-      <c r="C7" s="221" t="s">
+      <c r="A7" s="217"/>
+      <c r="B7" s="302"/>
+      <c r="C7" s="265" t="s">
         <v>668</v>
       </c>
-      <c r="D7" s="221"/>
+      <c r="D7" s="265"/>
       <c r="E7" s="125"/>
     </row>
     <row r="8" spans="1:5" ht="47.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="192"/>
-      <c r="B8" s="227" t="s">
+      <c r="A8" s="217"/>
+      <c r="B8" s="302" t="s">
         <v>662</v>
       </c>
       <c r="C8" s="121" t="s">
         <v>907</v>
       </c>
-      <c r="D8" s="221" t="s">
+      <c r="D8" s="265" t="s">
         <v>669</v>
       </c>
-      <c r="E8" s="222"/>
+      <c r="E8" s="272"/>
     </row>
     <row r="9" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="192"/>
-      <c r="B9" s="227"/>
+      <c r="A9" s="217"/>
+      <c r="B9" s="302"/>
       <c r="C9" s="121" t="s">
         <v>880</v>
       </c>
@@ -50869,8 +50942,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="34.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="192"/>
-      <c r="B10" s="227" t="s">
+      <c r="A10" s="217"/>
+      <c r="B10" s="302" t="s">
         <v>927</v>
       </c>
       <c r="C10" s="121" t="s">
@@ -50879,13 +50952,13 @@
       <c r="D10" s="140" t="s">
         <v>1485</v>
       </c>
-      <c r="E10" s="353" t="s">
+      <c r="E10" s="202" t="s">
         <v>1579</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="192"/>
-      <c r="B11" s="227"/>
+      <c r="A11" s="217"/>
+      <c r="B11" s="302"/>
       <c r="C11" s="121" t="s">
         <v>672</v>
       </c>
@@ -50897,7 +50970,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="56.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="192"/>
+      <c r="A12" s="217"/>
       <c r="B12" s="123" t="s">
         <v>928</v>
       </c>
@@ -50912,10 +50985,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="192" t="s">
+      <c r="A13" s="217" t="s">
         <v>929</v>
       </c>
-      <c r="B13" s="227" t="s">
+      <c r="B13" s="302" t="s">
         <v>968</v>
       </c>
       <c r="C13" s="121" t="s">
@@ -50929,8 +51002,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="192"/>
-      <c r="B14" s="227"/>
+      <c r="A14" s="217"/>
+      <c r="B14" s="302"/>
       <c r="C14" s="121" t="s">
         <v>664</v>
       </c>
@@ -50942,8 +51015,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="192"/>
-      <c r="B15" s="227"/>
+      <c r="A15" s="217"/>
+      <c r="B15" s="302"/>
       <c r="C15" s="121" t="s">
         <v>882</v>
       </c>
@@ -50955,8 +51028,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="192"/>
-      <c r="B16" s="227" t="s">
+      <c r="A16" s="217"/>
+      <c r="B16" s="302" t="s">
         <v>930</v>
       </c>
       <c r="C16" s="121" t="s">
@@ -50970,8 +51043,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="192"/>
-      <c r="B17" s="227"/>
+      <c r="A17" s="217"/>
+      <c r="B17" s="302"/>
       <c r="C17" s="121" t="s">
         <v>884</v>
       </c>
@@ -50983,8 +51056,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="192"/>
-      <c r="B18" s="227"/>
+      <c r="A18" s="217"/>
+      <c r="B18" s="302"/>
       <c r="C18" s="121" t="s">
         <v>885</v>
       </c>
@@ -50996,8 +51069,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A19" s="192"/>
-      <c r="B19" s="227"/>
+      <c r="A19" s="217"/>
+      <c r="B19" s="302"/>
       <c r="C19" s="121" t="s">
         <v>886</v>
       </c>
@@ -51009,7 +51082,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="192"/>
+      <c r="A20" s="217"/>
       <c r="B20" s="123" t="s">
         <v>931</v>
       </c>
@@ -51022,7 +51095,7 @@
       <c r="E20" s="125"/>
     </row>
     <row r="21" spans="1:5" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="192"/>
+      <c r="A21" s="217"/>
       <c r="B21" s="123" t="s">
         <v>932</v>
       </c>
@@ -51033,23 +51106,23 @@
       <c r="E21" s="125"/>
     </row>
     <row r="22" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A22" s="192" t="s">
+      <c r="A22" s="217" t="s">
         <v>933</v>
       </c>
-      <c r="B22" s="247"/>
+      <c r="B22" s="279"/>
       <c r="C22" s="121" t="s">
         <v>718</v>
       </c>
       <c r="D22" s="121" t="s">
         <v>687</v>
       </c>
-      <c r="E22" s="297" t="s">
+      <c r="E22" s="175" t="s">
         <v>1580</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="192"/>
-      <c r="B23" s="247"/>
+      <c r="A23" s="217"/>
+      <c r="B23" s="279"/>
       <c r="C23" s="121" t="s">
         <v>688</v>
       </c>
@@ -51059,8 +51132,8 @@
       <c r="E23" s="125"/>
     </row>
     <row r="24" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="192"/>
-      <c r="B24" s="247"/>
+      <c r="A24" s="217"/>
+      <c r="B24" s="279"/>
       <c r="C24" s="122" t="s">
         <v>719</v>
       </c>
@@ -51072,8 +51145,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="192"/>
-      <c r="B25" s="247"/>
+      <c r="A25" s="217"/>
+      <c r="B25" s="279"/>
       <c r="C25" s="122" t="s">
         <v>720</v>
       </c>
@@ -51085,8 +51158,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="192"/>
-      <c r="B26" s="247"/>
+      <c r="A26" s="217"/>
+      <c r="B26" s="279"/>
       <c r="C26" s="122" t="s">
         <v>721</v>
       </c>
@@ -51098,8 +51171,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="192"/>
-      <c r="B27" s="247"/>
+      <c r="A27" s="217"/>
+      <c r="B27" s="279"/>
       <c r="C27" s="121" t="s">
         <v>722</v>
       </c>
@@ -51111,8 +51184,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="192"/>
-      <c r="B28" s="247"/>
+      <c r="A28" s="217"/>
+      <c r="B28" s="279"/>
       <c r="C28" s="121" t="s">
         <v>723</v>
       </c>
@@ -51124,8 +51197,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="192"/>
-      <c r="B29" s="247"/>
+      <c r="A29" s="217"/>
+      <c r="B29" s="279"/>
       <c r="C29" s="121" t="s">
         <v>724</v>
       </c>
@@ -51137,10 +51210,10 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="192" t="s">
+      <c r="A30" s="217" t="s">
         <v>934</v>
       </c>
-      <c r="B30" s="227" t="s">
+      <c r="B30" s="302" t="s">
         <v>661</v>
       </c>
       <c r="C30" s="121" t="s">
@@ -51149,26 +51222,26 @@
       <c r="D30" s="121" t="s">
         <v>772</v>
       </c>
-      <c r="E30" s="354" t="s">
+      <c r="E30" s="203" t="s">
         <v>1582</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="192"/>
-      <c r="B31" s="227"/>
+      <c r="A31" s="217"/>
+      <c r="B31" s="302"/>
       <c r="C31" s="121" t="s">
         <v>691</v>
       </c>
       <c r="D31" s="121" t="s">
         <v>773</v>
       </c>
-      <c r="E31" s="354" t="s">
+      <c r="E31" s="203" t="s">
         <v>1582</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="192"/>
-      <c r="B32" s="227"/>
+      <c r="A32" s="217"/>
+      <c r="B32" s="302"/>
       <c r="C32" s="122" t="s">
         <v>692</v>
       </c>
@@ -51178,8 +51251,8 @@
       <c r="E32" s="126"/>
     </row>
     <row r="33" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="192"/>
-      <c r="B33" s="227"/>
+      <c r="A33" s="217"/>
+      <c r="B33" s="302"/>
       <c r="C33" s="121" t="s">
         <v>774</v>
       </c>
@@ -51189,8 +51262,8 @@
       <c r="E33" s="125"/>
     </row>
     <row r="34" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A34" s="192"/>
-      <c r="B34" s="227"/>
+      <c r="A34" s="217"/>
+      <c r="B34" s="302"/>
       <c r="C34" s="121" t="s">
         <v>776</v>
       </c>
@@ -51202,8 +51275,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="192"/>
-      <c r="B35" s="227"/>
+      <c r="A35" s="217"/>
+      <c r="B35" s="302"/>
       <c r="C35" s="121" t="s">
         <v>725</v>
       </c>
@@ -51213,8 +51286,8 @@
       <c r="E35" s="125"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" s="192"/>
-      <c r="B36" s="227"/>
+      <c r="A36" s="217"/>
+      <c r="B36" s="302"/>
       <c r="C36" s="121" t="s">
         <v>726</v>
       </c>
@@ -51224,21 +51297,21 @@
       <c r="E36" s="125"/>
     </row>
     <row r="37" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="192"/>
-      <c r="B37" s="227" t="s">
+      <c r="A37" s="217"/>
+      <c r="B37" s="302" t="s">
         <v>954</v>
       </c>
       <c r="C37" s="122" t="s">
         <v>958</v>
       </c>
-      <c r="D37" s="221" t="s">
+      <c r="D37" s="265" t="s">
         <v>970</v>
       </c>
-      <c r="E37" s="222"/>
+      <c r="E37" s="272"/>
     </row>
     <row r="38" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="192"/>
-      <c r="B38" s="227"/>
+      <c r="A38" s="217"/>
+      <c r="B38" s="302"/>
       <c r="C38" s="122" t="s">
         <v>959</v>
       </c>
@@ -51248,67 +51321,67 @@
       <c r="E38" s="125"/>
     </row>
     <row r="39" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="192"/>
-      <c r="B39" s="227"/>
+      <c r="A39" s="217"/>
+      <c r="B39" s="302"/>
       <c r="C39" s="121" t="s">
         <v>962</v>
       </c>
-      <c r="D39" s="221" t="s">
+      <c r="D39" s="265" t="s">
         <v>972</v>
       </c>
-      <c r="E39" s="222"/>
+      <c r="E39" s="272"/>
     </row>
     <row r="40" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="192"/>
-      <c r="B40" s="227"/>
+      <c r="A40" s="217"/>
+      <c r="B40" s="302"/>
       <c r="C40" s="121" t="s">
         <v>963</v>
       </c>
-      <c r="D40" s="221" t="s">
+      <c r="D40" s="265" t="s">
         <v>973</v>
       </c>
-      <c r="E40" s="222"/>
+      <c r="E40" s="272"/>
     </row>
     <row r="41" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="192"/>
-      <c r="B41" s="227"/>
+      <c r="A41" s="217"/>
+      <c r="B41" s="302"/>
       <c r="C41" s="121" t="s">
         <v>960</v>
       </c>
-      <c r="D41" s="221" t="s">
+      <c r="D41" s="265" t="s">
         <v>975</v>
       </c>
-      <c r="E41" s="222"/>
+      <c r="E41" s="272"/>
     </row>
     <row r="42" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="192"/>
-      <c r="B42" s="227"/>
+      <c r="A42" s="217"/>
+      <c r="B42" s="302"/>
       <c r="C42" s="121" t="s">
         <v>961</v>
       </c>
-      <c r="D42" s="221" t="s">
+      <c r="D42" s="265" t="s">
         <v>974</v>
       </c>
-      <c r="E42" s="222"/>
+      <c r="E42" s="272"/>
     </row>
     <row r="43" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="192"/>
+      <c r="A43" s="217"/>
       <c r="B43" s="123" t="s">
         <v>1053</v>
       </c>
       <c r="C43" s="121" t="s">
         <v>1052</v>
       </c>
-      <c r="D43" s="221" t="s">
+      <c r="D43" s="265" t="s">
         <v>1054</v>
       </c>
-      <c r="E43" s="222"/>
+      <c r="E43" s="272"/>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="238" t="s">
+      <c r="A44" s="321" t="s">
         <v>1449</v>
       </c>
-      <c r="B44" s="227" t="s">
+      <c r="B44" s="302" t="s">
         <v>704</v>
       </c>
       <c r="C44" s="121" t="s">
@@ -51317,48 +51390,48 @@
       <c r="D44" s="121" t="s">
         <v>781</v>
       </c>
-      <c r="E44" s="222" t="s">
+      <c r="E44" s="272" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="179"/>
-      <c r="B45" s="227"/>
+      <c r="A45" s="216"/>
+      <c r="B45" s="302"/>
       <c r="C45" s="121" t="s">
         <v>694</v>
       </c>
       <c r="D45" s="121" t="s">
         <v>783</v>
       </c>
-      <c r="E45" s="222"/>
+      <c r="E45" s="272"/>
     </row>
     <row r="46" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="179"/>
-      <c r="B46" s="227"/>
+      <c r="A46" s="216"/>
+      <c r="B46" s="302"/>
       <c r="C46" s="121" t="s">
         <v>695</v>
       </c>
       <c r="D46" s="121" t="s">
         <v>784</v>
       </c>
-      <c r="E46" s="299" t="s">
+      <c r="E46" s="281" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="179"/>
-      <c r="B47" s="227"/>
+      <c r="A47" s="216"/>
+      <c r="B47" s="302"/>
       <c r="C47" s="121" t="s">
         <v>696</v>
       </c>
       <c r="D47" s="121" t="s">
         <v>785</v>
       </c>
-      <c r="E47" s="299"/>
+      <c r="E47" s="281"/>
     </row>
     <row r="48" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="179"/>
-      <c r="B48" s="227"/>
+      <c r="A48" s="216"/>
+      <c r="B48" s="302"/>
       <c r="C48" s="121" t="s">
         <v>697</v>
       </c>
@@ -51370,8 +51443,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="179"/>
-      <c r="B49" s="227"/>
+      <c r="A49" s="216"/>
+      <c r="B49" s="302"/>
       <c r="C49" s="121" t="s">
         <v>698</v>
       </c>
@@ -51381,8 +51454,8 @@
       <c r="E49" s="125"/>
     </row>
     <row r="50" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="179"/>
-      <c r="B50" s="227"/>
+      <c r="A50" s="216"/>
+      <c r="B50" s="302"/>
       <c r="C50" s="121" t="s">
         <v>699</v>
       </c>
@@ -51394,56 +51467,56 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="179"/>
-      <c r="B51" s="227"/>
+      <c r="A51" s="216"/>
+      <c r="B51" s="302"/>
       <c r="C51" s="121" t="s">
         <v>700</v>
       </c>
-      <c r="D51" s="221" t="s">
+      <c r="D51" s="265" t="s">
         <v>791</v>
       </c>
-      <c r="E51" s="222"/>
+      <c r="E51" s="272"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A52" s="179"/>
-      <c r="B52" s="227"/>
+      <c r="A52" s="216"/>
+      <c r="B52" s="302"/>
       <c r="C52" s="121" t="s">
         <v>701</v>
       </c>
       <c r="D52" s="121" t="s">
         <v>792</v>
       </c>
-      <c r="E52" s="222" t="s">
+      <c r="E52" s="272" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A53" s="179"/>
-      <c r="B53" s="227"/>
+      <c r="A53" s="216"/>
+      <c r="B53" s="302"/>
       <c r="C53" s="121" t="s">
         <v>702</v>
       </c>
       <c r="D53" s="121" t="s">
         <v>794</v>
       </c>
-      <c r="E53" s="222"/>
+      <c r="E53" s="272"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A54" s="180"/>
-      <c r="B54" s="227"/>
+      <c r="A54" s="220"/>
+      <c r="B54" s="302"/>
       <c r="C54" s="121" t="s">
         <v>703</v>
       </c>
       <c r="D54" s="121" t="s">
         <v>795</v>
       </c>
-      <c r="E54" s="222"/>
+      <c r="E54" s="272"/>
     </row>
     <row r="55" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="239" t="s">
+      <c r="A55" s="322" t="s">
         <v>1449</v>
       </c>
-      <c r="B55" s="227" t="s">
+      <c r="B55" s="302" t="s">
         <v>935</v>
       </c>
       <c r="C55" s="121" t="s">
@@ -51457,8 +51530,8 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A56" s="240"/>
-      <c r="B56" s="227"/>
+      <c r="A56" s="323"/>
+      <c r="B56" s="302"/>
       <c r="C56" s="121" t="s">
         <v>706</v>
       </c>
@@ -51468,8 +51541,8 @@
       <c r="E56" s="125"/>
     </row>
     <row r="57" spans="1:5" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="240"/>
-      <c r="B57" s="227"/>
+      <c r="A57" s="323"/>
+      <c r="B57" s="302"/>
       <c r="C57" s="121" t="s">
         <v>707</v>
       </c>
@@ -51479,8 +51552,8 @@
       <c r="E57" s="125"/>
     </row>
     <row r="58" spans="1:5" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="240"/>
-      <c r="B58" s="227"/>
+      <c r="A58" s="323"/>
+      <c r="B58" s="302"/>
       <c r="C58" s="121" t="s">
         <v>711</v>
       </c>
@@ -51492,8 +51565,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="240"/>
-      <c r="B59" s="227"/>
+      <c r="A59" s="323"/>
+      <c r="B59" s="302"/>
       <c r="C59" s="121" t="s">
         <v>713</v>
       </c>
@@ -51503,8 +51576,8 @@
       <c r="E59" s="125"/>
     </row>
     <row r="60" spans="1:5" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="240"/>
-      <c r="B60" s="227"/>
+      <c r="A60" s="323"/>
+      <c r="B60" s="302"/>
       <c r="C60" s="121" t="s">
         <v>714</v>
       </c>
@@ -51514,8 +51587,8 @@
       <c r="E60" s="125"/>
     </row>
     <row r="61" spans="1:5" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="240"/>
-      <c r="B61" s="227"/>
+      <c r="A61" s="323"/>
+      <c r="B61" s="302"/>
       <c r="C61" s="121" t="s">
         <v>715</v>
       </c>
@@ -51525,8 +51598,8 @@
       <c r="E61" s="125"/>
     </row>
     <row r="62" spans="1:5" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="240"/>
-      <c r="B62" s="227"/>
+      <c r="A62" s="323"/>
+      <c r="B62" s="302"/>
       <c r="C62" s="121" t="s">
         <v>716</v>
       </c>
@@ -51536,8 +51609,8 @@
       <c r="E62" s="125"/>
     </row>
     <row r="63" spans="1:5" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="240"/>
-      <c r="B63" s="227"/>
+      <c r="A63" s="323"/>
+      <c r="B63" s="302"/>
       <c r="C63" s="137" t="s">
         <v>708</v>
       </c>
@@ -51549,17 +51622,17 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="240"/>
-      <c r="B64" s="227"/>
-      <c r="C64" s="242" t="s">
+      <c r="A64" s="323"/>
+      <c r="B64" s="302"/>
+      <c r="C64" s="317" t="s">
         <v>964</v>
       </c>
-      <c r="D64" s="242"/>
-      <c r="E64" s="243"/>
+      <c r="D64" s="317"/>
+      <c r="E64" s="318"/>
     </row>
     <row r="65" spans="1:5" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="240"/>
-      <c r="B65" s="227" t="s">
+      <c r="A65" s="323"/>
+      <c r="B65" s="302" t="s">
         <v>1590</v>
       </c>
       <c r="C65" s="121" t="s">
@@ -51571,8 +51644,8 @@
       <c r="E65" s="125"/>
     </row>
     <row r="66" spans="1:5" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="241"/>
-      <c r="B66" s="227"/>
+      <c r="A66" s="324"/>
+      <c r="B66" s="302"/>
       <c r="C66" s="121" t="s">
         <v>1039</v>
       </c>
@@ -51584,58 +51657,58 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A67" s="192" t="s">
+      <c r="A67" s="217" t="s">
         <v>145</v>
       </c>
-      <c r="B67" s="352" t="s">
+      <c r="B67" s="312" t="s">
         <v>1589</v>
       </c>
-      <c r="C67" s="221" t="s">
+      <c r="C67" s="265" t="s">
         <v>727</v>
       </c>
       <c r="D67" s="121" t="s">
         <v>728</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="272" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A68" s="192"/>
-      <c r="B68" s="227"/>
-      <c r="C68" s="221"/>
+      <c r="A68" s="217"/>
+      <c r="B68" s="302"/>
+      <c r="C68" s="265"/>
       <c r="D68" s="121" t="s">
         <v>806</v>
       </c>
-      <c r="E68" s="222"/>
+      <c r="E68" s="272"/>
     </row>
     <row r="69" spans="1:5" ht="32.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="192"/>
-      <c r="B69" s="352" t="s">
+      <c r="A69" s="217"/>
+      <c r="B69" s="312" t="s">
         <v>1588</v>
       </c>
       <c r="C69" s="115" t="s">
         <v>1042</v>
       </c>
-      <c r="D69" s="221" t="s">
+      <c r="D69" s="265" t="s">
         <v>1055</v>
       </c>
-      <c r="E69" s="222"/>
+      <c r="E69" s="272"/>
     </row>
     <row r="70" spans="1:5" ht="31.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="192"/>
-      <c r="B70" s="227"/>
+      <c r="A70" s="217"/>
+      <c r="B70" s="302"/>
       <c r="C70" s="115" t="s">
         <v>1045</v>
       </c>
-      <c r="D70" s="221" t="s">
+      <c r="D70" s="265" t="s">
         <v>1056</v>
       </c>
-      <c r="E70" s="222"/>
+      <c r="E70" s="272"/>
     </row>
     <row r="71" spans="1:5" ht="97.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="192"/>
-      <c r="B71" s="227" t="s">
+      <c r="A71" s="217"/>
+      <c r="B71" s="302" t="s">
         <v>1587</v>
       </c>
       <c r="C71" s="115" t="s">
@@ -51644,13 +51717,13 @@
       <c r="D71" s="115" t="s">
         <v>1057</v>
       </c>
-      <c r="E71" s="355" t="s">
+      <c r="E71" s="204" t="s">
         <v>1592</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="88.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="192"/>
-      <c r="B72" s="227"/>
+      <c r="A72" s="217"/>
+      <c r="B72" s="302"/>
       <c r="C72" s="115" t="s">
         <v>1043</v>
       </c>
@@ -51662,8 +51735,8 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="192"/>
-      <c r="B73" s="352" t="s">
+      <c r="A73" s="217"/>
+      <c r="B73" s="312" t="s">
         <v>1586</v>
       </c>
       <c r="C73" s="115" t="s">
@@ -51672,76 +51745,76 @@
       <c r="D73" s="115" t="s">
         <v>1049</v>
       </c>
-      <c r="E73" s="222" t="s">
+      <c r="E73" s="272" t="s">
         <v>1059</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="192"/>
-      <c r="B74" s="227"/>
+      <c r="A74" s="217"/>
+      <c r="B74" s="302"/>
       <c r="C74" s="115" t="s">
         <v>1047</v>
       </c>
       <c r="D74" s="115" t="s">
         <v>1050</v>
       </c>
-      <c r="E74" s="222"/>
+      <c r="E74" s="272"/>
     </row>
     <row r="75" spans="1:5" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="192"/>
-      <c r="B75" s="227"/>
+      <c r="A75" s="217"/>
+      <c r="B75" s="302"/>
       <c r="C75" s="115" t="s">
         <v>1048</v>
       </c>
       <c r="D75" s="115" t="s">
         <v>1051</v>
       </c>
-      <c r="E75" s="222"/>
+      <c r="E75" s="272"/>
     </row>
     <row r="76" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="192" t="s">
+      <c r="A76" s="217" t="s">
         <v>936</v>
       </c>
-      <c r="B76" s="227" t="s">
+      <c r="B76" s="302" t="s">
         <v>937</v>
       </c>
-      <c r="C76" s="221" t="s">
+      <c r="C76" s="265" t="s">
         <v>808</v>
       </c>
-      <c r="D76" s="221"/>
-      <c r="E76" s="222"/>
+      <c r="D76" s="265"/>
+      <c r="E76" s="272"/>
     </row>
     <row r="77" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="192"/>
-      <c r="B77" s="227"/>
-      <c r="C77" s="221" t="s">
+      <c r="A77" s="217"/>
+      <c r="B77" s="302"/>
+      <c r="C77" s="265" t="s">
         <v>809</v>
       </c>
-      <c r="D77" s="221"/>
-      <c r="E77" s="222"/>
+      <c r="D77" s="265"/>
+      <c r="E77" s="272"/>
     </row>
     <row r="78" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="192"/>
-      <c r="B78" s="227"/>
-      <c r="C78" s="221" t="s">
+      <c r="A78" s="217"/>
+      <c r="B78" s="302"/>
+      <c r="C78" s="265" t="s">
         <v>810</v>
       </c>
-      <c r="D78" s="221"/>
-      <c r="E78" s="222"/>
+      <c r="D78" s="265"/>
+      <c r="E78" s="272"/>
     </row>
     <row r="79" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="192"/>
-      <c r="B79" s="227"/>
-      <c r="C79" s="221" t="s">
+      <c r="A79" s="217"/>
+      <c r="B79" s="302"/>
+      <c r="C79" s="265" t="s">
         <v>811</v>
       </c>
-      <c r="D79" s="221"/>
-      <c r="E79" s="222"/>
+      <c r="D79" s="265"/>
+      <c r="E79" s="272"/>
     </row>
     <row r="80" spans="1:5" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="192"/>
-      <c r="B80" s="227"/>
-      <c r="C80" s="221" t="s">
+      <c r="A80" s="217"/>
+      <c r="B80" s="302"/>
+      <c r="C80" s="265" t="s">
         <v>812</v>
       </c>
       <c r="D80" s="121" t="s">
@@ -51752,9 +51825,9 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="192"/>
-      <c r="B81" s="227"/>
-      <c r="C81" s="221"/>
+      <c r="A81" s="217"/>
+      <c r="B81" s="302"/>
+      <c r="C81" s="265"/>
       <c r="D81" s="121" t="s">
         <v>733</v>
       </c>
@@ -51763,17 +51836,17 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="192"/>
-      <c r="B82" s="227"/>
-      <c r="C82" s="221" t="s">
+      <c r="A82" s="217"/>
+      <c r="B82" s="302"/>
+      <c r="C82" s="265" t="s">
         <v>888</v>
       </c>
-      <c r="D82" s="221"/>
-      <c r="E82" s="222"/>
+      <c r="D82" s="265"/>
+      <c r="E82" s="272"/>
     </row>
     <row r="83" spans="1:5" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="192"/>
-      <c r="B83" s="227"/>
+      <c r="A83" s="217"/>
+      <c r="B83" s="302"/>
       <c r="C83" s="121" t="s">
         <v>815</v>
       </c>
@@ -51785,16 +51858,16 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="192"/>
-      <c r="B84" s="227"/>
-      <c r="C84" s="221" t="s">
+      <c r="A84" s="217"/>
+      <c r="B84" s="302"/>
+      <c r="C84" s="265" t="s">
         <v>816</v>
       </c>
-      <c r="D84" s="221"/>
-      <c r="E84" s="222"/>
+      <c r="D84" s="265"/>
+      <c r="E84" s="272"/>
     </row>
     <row r="85" spans="1:5" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="192"/>
+      <c r="A85" s="217"/>
       <c r="B85" s="123" t="s">
         <v>938</v>
       </c>
@@ -51809,20 +51882,20 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="192"/>
-      <c r="B86" s="351" t="s">
+      <c r="A86" s="217"/>
+      <c r="B86" s="201" t="s">
         <v>1585</v>
       </c>
-      <c r="C86" s="221" t="s">
+      <c r="C86" s="265" t="s">
         <v>819</v>
       </c>
-      <c r="D86" s="221"/>
+      <c r="D86" s="265"/>
       <c r="E86" s="125" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="67.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="192"/>
+      <c r="A87" s="217"/>
       <c r="B87" s="123" t="s">
         <v>939</v>
       </c>
@@ -51837,8 +51910,8 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="192"/>
-      <c r="B88" s="227" t="s">
+      <c r="A88" s="217"/>
+      <c r="B88" s="302" t="s">
         <v>940</v>
       </c>
       <c r="C88" s="121" t="s">
@@ -51852,50 +51925,50 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="22.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="192"/>
-      <c r="B89" s="227"/>
-      <c r="C89" s="221" t="s">
+      <c r="A89" s="217"/>
+      <c r="B89" s="302"/>
+      <c r="C89" s="265" t="s">
         <v>825</v>
       </c>
-      <c r="D89" s="221"/>
-      <c r="E89" s="222"/>
+      <c r="D89" s="265"/>
+      <c r="E89" s="272"/>
     </row>
     <row r="90" spans="1:5" ht="22.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="192"/>
-      <c r="B90" s="227"/>
-      <c r="C90" s="221" t="s">
+      <c r="A90" s="217"/>
+      <c r="B90" s="302"/>
+      <c r="C90" s="265" t="s">
         <v>826</v>
       </c>
-      <c r="D90" s="221"/>
-      <c r="E90" s="222"/>
+      <c r="D90" s="265"/>
+      <c r="E90" s="272"/>
     </row>
     <row r="91" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="192"/>
+      <c r="A91" s="217"/>
       <c r="B91" s="123" t="s">
         <v>941</v>
       </c>
-      <c r="C91" s="221" t="s">
+      <c r="C91" s="265" t="s">
         <v>827</v>
       </c>
-      <c r="D91" s="221"/>
-      <c r="E91" s="222"/>
+      <c r="D91" s="265"/>
+      <c r="E91" s="272"/>
     </row>
     <row r="92" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="192"/>
+      <c r="A92" s="217"/>
       <c r="B92" s="123" t="s">
         <v>942</v>
       </c>
-      <c r="C92" s="221" t="s">
+      <c r="C92" s="265" t="s">
         <v>828</v>
       </c>
-      <c r="D92" s="221"/>
-      <c r="E92" s="222"/>
+      <c r="D92" s="265"/>
+      <c r="E92" s="272"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A93" s="192" t="s">
+      <c r="A93" s="217" t="s">
         <v>943</v>
       </c>
-      <c r="B93" s="227" t="s">
+      <c r="B93" s="302" t="s">
         <v>944</v>
       </c>
       <c r="C93" s="121" t="s">
@@ -51907,8 +51980,8 @@
       <c r="E93" s="125"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A94" s="192"/>
-      <c r="B94" s="227"/>
+      <c r="A94" s="217"/>
+      <c r="B94" s="302"/>
       <c r="C94" s="121" t="s">
         <v>737</v>
       </c>
@@ -51920,8 +51993,8 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A95" s="192"/>
-      <c r="B95" s="227"/>
+      <c r="A95" s="217"/>
+      <c r="B95" s="302"/>
       <c r="C95" s="121" t="s">
         <v>738</v>
       </c>
@@ -51933,8 +52006,8 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="49.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="192"/>
-      <c r="B96" s="227"/>
+      <c r="A96" s="217"/>
+      <c r="B96" s="302"/>
       <c r="C96" s="121" t="s">
         <v>739</v>
       </c>
@@ -51944,8 +52017,8 @@
       <c r="E96" s="125"/>
     </row>
     <row r="97" spans="1:5" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A97" s="192"/>
-      <c r="B97" s="227" t="s">
+      <c r="A97" s="217"/>
+      <c r="B97" s="302" t="s">
         <v>945</v>
       </c>
       <c r="C97" s="121" t="s">
@@ -51959,8 +52032,8 @@
       </c>
     </row>
     <row r="98" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A98" s="192"/>
-      <c r="B98" s="227"/>
+      <c r="A98" s="217"/>
+      <c r="B98" s="302"/>
       <c r="C98" s="121" t="s">
         <v>834</v>
       </c>
@@ -51970,19 +52043,19 @@
       <c r="E98" s="125"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A99" s="192"/>
-      <c r="B99" s="227"/>
+      <c r="A99" s="217"/>
+      <c r="B99" s="302"/>
       <c r="C99" s="121" t="s">
         <v>741</v>
       </c>
-      <c r="D99" s="221" t="s">
+      <c r="D99" s="265" t="s">
         <v>836</v>
       </c>
-      <c r="E99" s="222"/>
+      <c r="E99" s="272"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A100" s="192"/>
-      <c r="B100" s="227" t="s">
+      <c r="A100" s="217"/>
+      <c r="B100" s="302" t="s">
         <v>946</v>
       </c>
       <c r="C100" s="121" t="s">
@@ -51996,8 +52069,8 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A101" s="192"/>
-      <c r="B101" s="227"/>
+      <c r="A101" s="217"/>
+      <c r="B101" s="302"/>
       <c r="C101" s="121" t="s">
         <v>742</v>
       </c>
@@ -52009,8 +52082,8 @@
       </c>
     </row>
     <row r="102" spans="1:5" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A102" s="192"/>
-      <c r="B102" s="227"/>
+      <c r="A102" s="217"/>
+      <c r="B102" s="302"/>
       <c r="C102" s="121" t="s">
         <v>743</v>
       </c>
@@ -52022,8 +52095,8 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A103" s="192"/>
-      <c r="B103" s="227"/>
+      <c r="A103" s="217"/>
+      <c r="B103" s="302"/>
       <c r="C103" s="121" t="s">
         <v>745</v>
       </c>
@@ -52033,8 +52106,8 @@
       <c r="E103" s="125"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A104" s="192"/>
-      <c r="B104" s="227"/>
+      <c r="A104" s="217"/>
+      <c r="B104" s="302"/>
       <c r="C104" s="121" t="s">
         <v>746</v>
       </c>
@@ -52046,45 +52119,45 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A105" s="192"/>
-      <c r="B105" s="227"/>
+      <c r="A105" s="217"/>
+      <c r="B105" s="302"/>
       <c r="C105" s="121" t="s">
         <v>748</v>
       </c>
       <c r="D105" s="121" t="s">
         <v>845</v>
       </c>
-      <c r="E105" s="222" t="s">
+      <c r="E105" s="272" t="s">
         <v>976</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A106" s="192"/>
-      <c r="B106" s="227"/>
+      <c r="A106" s="217"/>
+      <c r="B106" s="302"/>
       <c r="C106" s="121" t="s">
         <v>749</v>
       </c>
       <c r="D106" s="121" t="s">
         <v>846</v>
       </c>
-      <c r="E106" s="222"/>
+      <c r="E106" s="272"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A107" s="192"/>
-      <c r="B107" s="227"/>
+      <c r="A107" s="217"/>
+      <c r="B107" s="302"/>
       <c r="C107" s="121" t="s">
         <v>747</v>
       </c>
       <c r="D107" s="121" t="s">
         <v>847</v>
       </c>
-      <c r="E107" s="222"/>
+      <c r="E107" s="272"/>
     </row>
     <row r="108" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A108" s="178" t="s">
+      <c r="A108" s="215" t="s">
         <v>241</v>
       </c>
-      <c r="B108" s="248" t="s">
+      <c r="B108" s="307" t="s">
         <v>979</v>
       </c>
       <c r="C108" s="121" t="s">
@@ -52096,8 +52169,8 @@
       <c r="E108" s="125"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A109" s="179"/>
-      <c r="B109" s="227"/>
+      <c r="A109" s="216"/>
+      <c r="B109" s="302"/>
       <c r="C109" s="121" t="s">
         <v>751</v>
       </c>
@@ -52109,7 +52182,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="62.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="179"/>
+      <c r="A110" s="216"/>
       <c r="B110" s="123" t="s">
         <v>939</v>
       </c>
@@ -52124,7 +52197,7 @@
       </c>
     </row>
     <row r="111" spans="1:5" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="179"/>
+      <c r="A111" s="216"/>
       <c r="B111" s="138" t="s">
         <v>1036</v>
       </c>
@@ -52139,77 +52212,77 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A112" s="179"/>
-      <c r="B112" s="247" t="s">
+      <c r="A112" s="216"/>
+      <c r="B112" s="279" t="s">
         <v>947</v>
       </c>
       <c r="C112" s="118"/>
-      <c r="D112" s="249" t="s">
+      <c r="D112" s="308" t="s">
         <v>956</v>
       </c>
-      <c r="E112" s="250"/>
+      <c r="E112" s="309"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A113" s="179"/>
-      <c r="B113" s="247"/>
+      <c r="A113" s="216"/>
+      <c r="B113" s="279"/>
       <c r="C113" s="121" t="s">
         <v>755</v>
       </c>
-      <c r="D113" s="221" t="s">
+      <c r="D113" s="265" t="s">
         <v>1453</v>
       </c>
-      <c r="E113" s="222"/>
+      <c r="E113" s="272"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A114" s="179"/>
-      <c r="B114" s="247"/>
+      <c r="A114" s="216"/>
+      <c r="B114" s="279"/>
       <c r="C114" s="121" t="s">
         <v>756</v>
       </c>
-      <c r="D114" s="221" t="s">
+      <c r="D114" s="265" t="s">
         <v>1454</v>
       </c>
-      <c r="E114" s="222"/>
+      <c r="E114" s="272"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A115" s="179"/>
-      <c r="B115" s="247"/>
+      <c r="A115" s="216"/>
+      <c r="B115" s="279"/>
       <c r="C115" s="121" t="s">
         <v>758</v>
       </c>
-      <c r="D115" s="221" t="s">
+      <c r="D115" s="265" t="s">
         <v>977</v>
       </c>
-      <c r="E115" s="222"/>
+      <c r="E115" s="272"/>
       <c r="F115" s="75"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A116" s="179"/>
-      <c r="B116" s="247"/>
+      <c r="A116" s="216"/>
+      <c r="B116" s="279"/>
       <c r="C116" s="121" t="s">
         <v>759</v>
       </c>
-      <c r="D116" s="221" t="s">
+      <c r="D116" s="265" t="s">
         <v>1452</v>
       </c>
-      <c r="E116" s="222"/>
+      <c r="E116" s="272"/>
       <c r="F116" s="131"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A117" s="179"/>
-      <c r="B117" s="247"/>
+      <c r="A117" s="216"/>
+      <c r="B117" s="279"/>
       <c r="C117" s="121" t="s">
         <v>760</v>
       </c>
-      <c r="D117" s="221" t="s">
+      <c r="D117" s="265" t="s">
         <v>978</v>
       </c>
-      <c r="E117" s="222"/>
+      <c r="E117" s="272"/>
       <c r="F117" s="132"/>
     </row>
     <row r="118" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A118" s="179"/>
-      <c r="B118" s="227" t="s">
+      <c r="A118" s="216"/>
+      <c r="B118" s="302" t="s">
         <v>948</v>
       </c>
       <c r="C118" s="121" t="s">
@@ -52218,13 +52291,13 @@
       <c r="D118" s="121" t="s">
         <v>858</v>
       </c>
-      <c r="E118" s="297" t="s">
+      <c r="E118" s="175" t="s">
         <v>1593</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A119" s="179"/>
-      <c r="B119" s="227"/>
+      <c r="A119" s="216"/>
+      <c r="B119" s="302"/>
       <c r="C119" s="121" t="s">
         <v>859</v>
       </c>
@@ -52236,8 +52309,8 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A120" s="179"/>
-      <c r="B120" s="227"/>
+      <c r="A120" s="216"/>
+      <c r="B120" s="302"/>
       <c r="C120" s="121" t="s">
         <v>862</v>
       </c>
@@ -52249,8 +52322,8 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A121" s="179"/>
-      <c r="B121" s="227" t="s">
+      <c r="A121" s="216"/>
+      <c r="B121" s="302" t="s">
         <v>949</v>
       </c>
       <c r="C121" s="121" t="s">
@@ -52259,34 +52332,34 @@
       <c r="D121" s="121" t="s">
         <v>845</v>
       </c>
-      <c r="E121" s="222" t="s">
+      <c r="E121" s="272" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A122" s="179"/>
-      <c r="B122" s="227"/>
+      <c r="A122" s="216"/>
+      <c r="B122" s="302"/>
       <c r="C122" s="121" t="s">
         <v>761</v>
       </c>
       <c r="D122" s="121" t="s">
         <v>846</v>
       </c>
-      <c r="E122" s="222"/>
+      <c r="E122" s="272"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A123" s="179"/>
-      <c r="B123" s="227"/>
+      <c r="A123" s="216"/>
+      <c r="B123" s="302"/>
       <c r="C123" s="121" t="s">
         <v>762</v>
       </c>
       <c r="D123" s="121" t="s">
         <v>847</v>
       </c>
-      <c r="E123" s="222"/>
+      <c r="E123" s="272"/>
     </row>
     <row r="124" spans="1:6" ht="84.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="179"/>
+      <c r="A124" s="216"/>
       <c r="B124" s="123" t="s">
         <v>950</v>
       </c>
@@ -52301,8 +52374,8 @@
       </c>
     </row>
     <row r="125" spans="1:6" ht="111.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="179"/>
-      <c r="B125" s="227" t="s">
+      <c r="A125" s="216"/>
+      <c r="B125" s="302" t="s">
         <v>951</v>
       </c>
       <c r="C125" s="121" t="s">
@@ -52311,26 +52384,26 @@
       <c r="D125" s="121" t="s">
         <v>966</v>
       </c>
-      <c r="E125" s="297" t="s">
+      <c r="E125" s="175" t="s">
         <v>1583</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A126" s="179"/>
-      <c r="B126" s="227"/>
+      <c r="A126" s="216"/>
+      <c r="B126" s="302"/>
       <c r="C126" s="121" t="s">
         <v>1455</v>
       </c>
       <c r="D126" s="121" t="s">
         <v>967</v>
       </c>
-      <c r="E126" s="354" t="s">
+      <c r="E126" s="203" t="s">
         <v>1581</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="82.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="179"/>
-      <c r="B127" s="227"/>
+      <c r="A127" s="216"/>
+      <c r="B127" s="302"/>
       <c r="C127" s="121" t="s">
         <v>855</v>
       </c>
@@ -52342,9 +52415,9 @@
       </c>
     </row>
     <row r="128" spans="1:6" ht="38.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="179"/>
-      <c r="B128" s="227"/>
-      <c r="C128" s="233" t="s">
+      <c r="A128" s="216"/>
+      <c r="B128" s="302"/>
+      <c r="C128" s="316" t="s">
         <v>914</v>
       </c>
       <c r="D128" s="121" t="s">
@@ -52355,28 +52428,28 @@
       </c>
     </row>
     <row r="129" spans="1:5" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A129" s="179"/>
-      <c r="B129" s="227"/>
-      <c r="C129" s="233"/>
-      <c r="D129" s="251" t="s">
+      <c r="A129" s="216"/>
+      <c r="B129" s="302"/>
+      <c r="C129" s="316"/>
+      <c r="D129" s="310" t="s">
         <v>916</v>
       </c>
-      <c r="E129" s="252"/>
+      <c r="E129" s="311"/>
     </row>
     <row r="130" spans="1:5" ht="71.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="180"/>
-      <c r="B130" s="227"/>
-      <c r="C130" s="233"/>
-      <c r="D130" s="251" t="s">
+      <c r="A130" s="220"/>
+      <c r="B130" s="302"/>
+      <c r="C130" s="316"/>
+      <c r="D130" s="310" t="s">
         <v>917</v>
       </c>
-      <c r="E130" s="252"/>
+      <c r="E130" s="311"/>
     </row>
     <row r="131" spans="1:5" ht="162" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="239" t="s">
+      <c r="A131" s="322" t="s">
         <v>1451</v>
       </c>
-      <c r="B131" s="227" t="s">
+      <c r="B131" s="302" t="s">
         <v>944</v>
       </c>
       <c r="C131" s="121" t="s">
@@ -52390,84 +52463,84 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="240"/>
-      <c r="B132" s="227"/>
-      <c r="C132" s="221" t="s">
+      <c r="A132" s="323"/>
+      <c r="B132" s="302"/>
+      <c r="C132" s="265" t="s">
         <v>912</v>
       </c>
-      <c r="D132" s="221" t="s">
+      <c r="D132" s="265" t="s">
         <v>869</v>
       </c>
-      <c r="E132" s="222"/>
+      <c r="E132" s="272"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A133" s="240"/>
-      <c r="B133" s="227"/>
-      <c r="C133" s="221"/>
-      <c r="D133" s="221" t="s">
+      <c r="A133" s="323"/>
+      <c r="B133" s="302"/>
+      <c r="C133" s="265"/>
+      <c r="D133" s="265" t="s">
         <v>870</v>
       </c>
-      <c r="E133" s="222"/>
+      <c r="E133" s="272"/>
     </row>
     <row r="134" spans="1:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="240"/>
-      <c r="B134" s="227"/>
-      <c r="C134" s="221"/>
-      <c r="D134" s="221" t="s">
+      <c r="A134" s="323"/>
+      <c r="B134" s="302"/>
+      <c r="C134" s="265"/>
+      <c r="D134" s="265" t="s">
         <v>871</v>
       </c>
-      <c r="E134" s="222" t="s">
+      <c r="E134" s="272" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A135" s="240"/>
-      <c r="B135" s="227"/>
-      <c r="C135" s="221"/>
-      <c r="D135" s="221" t="s">
+      <c r="A135" s="323"/>
+      <c r="B135" s="302"/>
+      <c r="C135" s="265"/>
+      <c r="D135" s="265" t="s">
         <v>876</v>
       </c>
-      <c r="E135" s="222" t="s">
+      <c r="E135" s="272" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A136" s="240"/>
-      <c r="B136" s="227"/>
-      <c r="C136" s="221" t="s">
+      <c r="A136" s="323"/>
+      <c r="B136" s="302"/>
+      <c r="C136" s="265" t="s">
         <v>913</v>
       </c>
-      <c r="D136" s="221" t="s">
+      <c r="D136" s="265" t="s">
         <v>873</v>
       </c>
-      <c r="E136" s="222" t="s">
+      <c r="E136" s="272" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="240"/>
-      <c r="B137" s="227"/>
-      <c r="C137" s="221"/>
-      <c r="D137" s="221" t="s">
+      <c r="A137" s="323"/>
+      <c r="B137" s="302"/>
+      <c r="C137" s="265"/>
+      <c r="D137" s="265" t="s">
         <v>877</v>
       </c>
-      <c r="E137" s="222" t="s">
+      <c r="E137" s="272" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="241"/>
-      <c r="B138" s="227"/>
-      <c r="C138" s="221"/>
-      <c r="D138" s="221" t="s">
+      <c r="A138" s="324"/>
+      <c r="B138" s="302"/>
+      <c r="C138" s="265"/>
+      <c r="D138" s="265" t="s">
         <v>878</v>
       </c>
-      <c r="E138" s="222" t="s">
+      <c r="E138" s="272" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="32.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="192" t="s">
+      <c r="A139" s="217" t="s">
         <v>890</v>
       </c>
       <c r="B139" s="123" t="s">
@@ -52476,14 +52549,14 @@
       <c r="C139" s="121" t="s">
         <v>918</v>
       </c>
-      <c r="D139" s="221" t="s">
+      <c r="D139" s="265" t="s">
         <v>919</v>
       </c>
-      <c r="E139" s="222"/>
+      <c r="E139" s="272"/>
     </row>
     <row r="140" spans="1:5" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="192"/>
-      <c r="B140" s="227" t="s">
+      <c r="A140" s="217"/>
+      <c r="B140" s="302" t="s">
         <v>953</v>
       </c>
       <c r="C140" s="121" t="s">
@@ -52492,48 +52565,48 @@
       <c r="D140" s="121" t="s">
         <v>920</v>
       </c>
-      <c r="E140" s="222" t="s">
+      <c r="E140" s="272" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="48.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="192"/>
-      <c r="B141" s="227"/>
+      <c r="A141" s="217"/>
+      <c r="B141" s="302"/>
       <c r="C141" s="121" t="s">
         <v>892</v>
       </c>
       <c r="D141" s="121" t="s">
         <v>922</v>
       </c>
-      <c r="E141" s="222"/>
+      <c r="E141" s="272"/>
     </row>
     <row r="142" spans="1:5" ht="67.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A142" s="192"/>
-      <c r="B142" s="227"/>
+      <c r="A142" s="217"/>
+      <c r="B142" s="302"/>
       <c r="C142" s="121" t="s">
         <v>893</v>
       </c>
       <c r="D142" s="121" t="s">
         <v>923</v>
       </c>
-      <c r="E142" s="222"/>
+      <c r="E142" s="272"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A143" s="192"/>
-      <c r="B143" s="227" t="s">
+      <c r="A143" s="217"/>
+      <c r="B143" s="302" t="s">
         <v>954</v>
       </c>
       <c r="C143" s="121" t="s">
         <v>895</v>
       </c>
-      <c r="D143" s="221" t="s">
+      <c r="D143" s="265" t="s">
         <v>924</v>
       </c>
-      <c r="E143" s="222"/>
+      <c r="E143" s="272"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A144" s="192"/>
-      <c r="B144" s="227"/>
+      <c r="A144" s="217"/>
+      <c r="B144" s="302"/>
       <c r="C144" s="121" t="s">
         <v>894</v>
       </c>
@@ -52543,8 +52616,8 @@
       <c r="E144" s="125"/>
     </row>
     <row r="145" spans="1:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A145" s="192"/>
-      <c r="B145" s="227" t="s">
+      <c r="A145" s="217"/>
+      <c r="B145" s="302" t="s">
         <v>955</v>
       </c>
       <c r="C145" s="137" t="s">
@@ -52558,8 +52631,8 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A146" s="192"/>
-      <c r="B146" s="227"/>
+      <c r="A146" s="217"/>
+      <c r="B146" s="302"/>
       <c r="C146" s="137" t="s">
         <v>897</v>
       </c>
@@ -52571,8 +52644,8 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A147" s="192"/>
-      <c r="B147" s="227"/>
+      <c r="A147" s="217"/>
+      <c r="B147" s="302"/>
       <c r="C147" s="137" t="s">
         <v>898</v>
       </c>
@@ -52584,8 +52657,8 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A148" s="192"/>
-      <c r="B148" s="227"/>
+      <c r="A148" s="217"/>
+      <c r="B148" s="302"/>
       <c r="C148" s="137" t="s">
         <v>899</v>
       </c>
@@ -52595,7 +52668,7 @@
       <c r="E148" s="125"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A149" s="192" t="s">
+      <c r="A149" s="217" t="s">
         <v>994</v>
       </c>
       <c r="B149" s="123" t="s">
@@ -52604,135 +52677,135 @@
       <c r="C149" s="121" t="s">
         <v>1006</v>
       </c>
-      <c r="D149" s="221" t="s">
+      <c r="D149" s="265" t="s">
         <v>1007</v>
       </c>
-      <c r="E149" s="222"/>
+      <c r="E149" s="272"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A150" s="192"/>
-      <c r="B150" s="227" t="s">
+      <c r="A150" s="217"/>
+      <c r="B150" s="302" t="s">
         <v>1008</v>
       </c>
       <c r="C150" s="121" t="s">
         <v>980</v>
       </c>
-      <c r="D150" s="221" t="s">
+      <c r="D150" s="265" t="s">
         <v>1009</v>
       </c>
-      <c r="E150" s="222"/>
+      <c r="E150" s="272"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A151" s="192"/>
-      <c r="B151" s="227"/>
+      <c r="A151" s="217"/>
+      <c r="B151" s="302"/>
       <c r="C151" s="121" t="s">
         <v>981</v>
       </c>
-      <c r="D151" s="221" t="s">
+      <c r="D151" s="265" t="s">
         <v>1010</v>
       </c>
-      <c r="E151" s="222"/>
+      <c r="E151" s="272"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A152" s="192"/>
-      <c r="B152" s="227" t="s">
+      <c r="A152" s="217"/>
+      <c r="B152" s="302" t="s">
         <v>1011</v>
       </c>
       <c r="C152" s="121" t="s">
         <v>984</v>
       </c>
-      <c r="D152" s="221" t="s">
+      <c r="D152" s="265" t="s">
         <v>1012</v>
       </c>
-      <c r="E152" s="222"/>
+      <c r="E152" s="272"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A153" s="192"/>
-      <c r="B153" s="227"/>
+      <c r="A153" s="217"/>
+      <c r="B153" s="302"/>
       <c r="C153" s="121" t="s">
         <v>982</v>
       </c>
-      <c r="D153" s="221" t="s">
+      <c r="D153" s="265" t="s">
         <v>1013</v>
       </c>
-      <c r="E153" s="222"/>
+      <c r="E153" s="272"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A154" s="192"/>
-      <c r="B154" s="227"/>
+      <c r="A154" s="217"/>
+      <c r="B154" s="302"/>
       <c r="C154" s="121" t="s">
         <v>983</v>
       </c>
-      <c r="D154" s="221" t="s">
+      <c r="D154" s="265" t="s">
         <v>1014</v>
       </c>
-      <c r="E154" s="222"/>
+      <c r="E154" s="272"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A155" s="192"/>
-      <c r="B155" s="227"/>
+      <c r="A155" s="217"/>
+      <c r="B155" s="302"/>
       <c r="C155" s="121" t="s">
         <v>985</v>
       </c>
-      <c r="D155" s="221" t="s">
+      <c r="D155" s="265" t="s">
         <v>1015</v>
       </c>
-      <c r="E155" s="222"/>
+      <c r="E155" s="272"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A156" s="192"/>
-      <c r="B156" s="227" t="s">
+      <c r="A156" s="217"/>
+      <c r="B156" s="302" t="s">
         <v>1016</v>
       </c>
       <c r="C156" s="121" t="s">
         <v>986</v>
       </c>
-      <c r="D156" s="221"/>
-      <c r="E156" s="222"/>
+      <c r="D156" s="265"/>
+      <c r="E156" s="272"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A157" s="192"/>
-      <c r="B157" s="227"/>
+      <c r="A157" s="217"/>
+      <c r="B157" s="302"/>
       <c r="C157" s="121" t="s">
         <v>988</v>
       </c>
-      <c r="D157" s="221"/>
-      <c r="E157" s="222"/>
+      <c r="D157" s="265"/>
+      <c r="E157" s="272"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A158" s="192"/>
-      <c r="B158" s="227"/>
+      <c r="A158" s="217"/>
+      <c r="B158" s="302"/>
       <c r="C158" s="121" t="s">
         <v>990</v>
       </c>
-      <c r="D158" s="221" t="s">
+      <c r="D158" s="265" t="s">
         <v>1017</v>
       </c>
-      <c r="E158" s="222"/>
+      <c r="E158" s="272"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A159" s="192"/>
-      <c r="B159" s="227" t="s">
+      <c r="A159" s="217"/>
+      <c r="B159" s="302" t="s">
         <v>1018</v>
       </c>
       <c r="C159" s="121" t="s">
         <v>987</v>
       </c>
-      <c r="D159" s="221"/>
-      <c r="E159" s="222"/>
+      <c r="D159" s="265"/>
+      <c r="E159" s="272"/>
     </row>
     <row r="160" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A160" s="192"/>
-      <c r="B160" s="227"/>
+      <c r="A160" s="217"/>
+      <c r="B160" s="302"/>
       <c r="C160" s="121" t="s">
         <v>989</v>
       </c>
-      <c r="D160" s="221"/>
-      <c r="E160" s="222"/>
+      <c r="D160" s="265"/>
+      <c r="E160" s="272"/>
     </row>
     <row r="161" spans="1:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A161" s="192"/>
-      <c r="B161" s="247" t="s">
+      <c r="A161" s="217"/>
+      <c r="B161" s="279" t="s">
         <v>1019</v>
       </c>
       <c r="C161" s="141" t="s">
@@ -52746,8 +52819,8 @@
       </c>
     </row>
     <row r="162" spans="1:5" ht="32.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A162" s="192"/>
-      <c r="B162" s="247"/>
+      <c r="A162" s="217"/>
+      <c r="B162" s="279"/>
       <c r="C162" s="121" t="s">
         <v>991</v>
       </c>
@@ -52759,62 +52832,62 @@
       </c>
     </row>
     <row r="163" spans="1:5" ht="32.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A163" s="192" t="s">
+      <c r="A163" s="217" t="s">
         <v>995</v>
       </c>
       <c r="B163" s="123" t="s">
         <v>1023</v>
       </c>
-      <c r="C163" s="221" t="s">
+      <c r="C163" s="265" t="s">
         <v>1024</v>
       </c>
-      <c r="D163" s="221"/>
-      <c r="E163" s="222"/>
+      <c r="D163" s="265"/>
+      <c r="E163" s="272"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A164" s="192"/>
+      <c r="A164" s="217"/>
       <c r="B164" s="123" t="s">
         <v>1005</v>
       </c>
       <c r="C164" s="121" t="s">
         <v>1025</v>
       </c>
-      <c r="D164" s="221" t="s">
+      <c r="D164" s="265" t="s">
         <v>1026</v>
       </c>
-      <c r="E164" s="222"/>
+      <c r="E164" s="272"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A165" s="192"/>
-      <c r="B165" s="227" t="s">
+      <c r="A165" s="217"/>
+      <c r="B165" s="302" t="s">
         <v>1011</v>
       </c>
       <c r="C165" s="121" t="s">
         <v>984</v>
       </c>
-      <c r="D165" s="221"/>
-      <c r="E165" s="222"/>
+      <c r="D165" s="265"/>
+      <c r="E165" s="272"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A166" s="192"/>
-      <c r="B166" s="227"/>
+      <c r="A166" s="217"/>
+      <c r="B166" s="302"/>
       <c r="C166" s="121" t="s">
         <v>982</v>
       </c>
-      <c r="D166" s="221"/>
-      <c r="E166" s="222"/>
+      <c r="D166" s="265"/>
+      <c r="E166" s="272"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A167" s="192"/>
-      <c r="B167" s="227"/>
+      <c r="A167" s="217"/>
+      <c r="B167" s="302"/>
       <c r="C167" s="121" t="s">
         <v>983</v>
       </c>
-      <c r="D167" s="221"/>
-      <c r="E167" s="222"/>
+      <c r="D167" s="265"/>
+      <c r="E167" s="272"/>
     </row>
     <row r="168" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A168" s="192" t="s">
+      <c r="A168" s="217" t="s">
         <v>996</v>
       </c>
       <c r="B168" s="123" t="s">
@@ -52823,14 +52896,14 @@
       <c r="C168" s="121" t="s">
         <v>1027</v>
       </c>
-      <c r="D168" s="253" t="s">
+      <c r="D168" s="304" t="s">
         <v>1035</v>
       </c>
-      <c r="E168" s="222"/>
+      <c r="E168" s="272"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A169" s="192"/>
-      <c r="B169" s="227" t="s">
+      <c r="A169" s="217"/>
+      <c r="B169" s="302" t="s">
         <v>1028</v>
       </c>
       <c r="C169" s="121" t="s">
@@ -52842,8 +52915,8 @@
       <c r="E169" s="125"/>
     </row>
     <row r="170" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A170" s="192"/>
-      <c r="B170" s="227"/>
+      <c r="A170" s="217"/>
+      <c r="B170" s="302"/>
       <c r="C170" s="121" t="s">
         <v>998</v>
       </c>
@@ -52855,135 +52928,135 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A171" s="192"/>
-      <c r="B171" s="227"/>
+      <c r="A171" s="217"/>
+      <c r="B171" s="302"/>
       <c r="C171" s="121" t="s">
         <v>999</v>
       </c>
-      <c r="D171" s="221"/>
-      <c r="E171" s="222"/>
+      <c r="D171" s="265"/>
+      <c r="E171" s="272"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A172" s="192"/>
-      <c r="B172" s="227"/>
+      <c r="A172" s="217"/>
+      <c r="B172" s="302"/>
       <c r="C172" s="121" t="s">
         <v>1000</v>
       </c>
-      <c r="D172" s="221"/>
-      <c r="E172" s="222"/>
+      <c r="D172" s="265"/>
+      <c r="E172" s="272"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A173" s="192"/>
-      <c r="B173" s="227"/>
+      <c r="A173" s="217"/>
+      <c r="B173" s="302"/>
       <c r="C173" s="121" t="s">
         <v>1001</v>
       </c>
-      <c r="D173" s="221"/>
-      <c r="E173" s="222"/>
+      <c r="D173" s="265"/>
+      <c r="E173" s="272"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A174" s="192"/>
-      <c r="B174" s="227"/>
+      <c r="A174" s="217"/>
+      <c r="B174" s="302"/>
       <c r="C174" s="121" t="s">
         <v>985</v>
       </c>
-      <c r="D174" s="221"/>
-      <c r="E174" s="222"/>
+      <c r="D174" s="265"/>
+      <c r="E174" s="272"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A175" s="192"/>
-      <c r="B175" s="227" t="s">
+      <c r="A175" s="217"/>
+      <c r="B175" s="302" t="s">
         <v>1016</v>
       </c>
       <c r="C175" s="121" t="s">
         <v>986</v>
       </c>
-      <c r="D175" s="221" t="s">
+      <c r="D175" s="265" t="s">
         <v>1031</v>
       </c>
-      <c r="E175" s="222"/>
+      <c r="E175" s="272"/>
     </row>
     <row r="176" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A176" s="192"/>
-      <c r="B176" s="227"/>
+      <c r="A176" s="217"/>
+      <c r="B176" s="302"/>
       <c r="C176" s="121" t="s">
         <v>1459</v>
       </c>
-      <c r="D176" s="221"/>
-      <c r="E176" s="222"/>
+      <c r="D176" s="265"/>
+      <c r="E176" s="272"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A177" s="192"/>
-      <c r="B177" s="227"/>
+      <c r="A177" s="217"/>
+      <c r="B177" s="302"/>
       <c r="C177" s="121" t="s">
         <v>1458</v>
       </c>
-      <c r="D177" s="253" t="s">
+      <c r="D177" s="304" t="s">
         <v>1460</v>
       </c>
-      <c r="E177" s="222"/>
+      <c r="E177" s="272"/>
     </row>
     <row r="178" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A178" s="192" t="s">
+      <c r="A178" s="217" t="s">
         <v>1002</v>
       </c>
       <c r="B178" s="123" t="s">
         <v>1032</v>
       </c>
-      <c r="C178" s="221" t="s">
+      <c r="C178" s="265" t="s">
         <v>1033</v>
       </c>
-      <c r="D178" s="221"/>
-      <c r="E178" s="222"/>
+      <c r="D178" s="265"/>
+      <c r="E178" s="272"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A179" s="192"/>
+      <c r="A179" s="217"/>
       <c r="B179" s="123" t="s">
         <v>1005</v>
       </c>
       <c r="C179" s="121" t="s">
         <v>1034</v>
       </c>
-      <c r="D179" s="221"/>
-      <c r="E179" s="222"/>
+      <c r="D179" s="265"/>
+      <c r="E179" s="272"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A180" s="192"/>
-      <c r="B180" s="227" t="s">
+      <c r="A180" s="217"/>
+      <c r="B180" s="302" t="s">
         <v>1011</v>
       </c>
       <c r="C180" s="121" t="s">
         <v>999</v>
       </c>
-      <c r="D180" s="221"/>
-      <c r="E180" s="222"/>
+      <c r="D180" s="265"/>
+      <c r="E180" s="272"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A181" s="192"/>
-      <c r="B181" s="227"/>
+      <c r="A181" s="217"/>
+      <c r="B181" s="302"/>
       <c r="C181" s="121" t="s">
         <v>1000</v>
       </c>
-      <c r="D181" s="221"/>
-      <c r="E181" s="222"/>
+      <c r="D181" s="265"/>
+      <c r="E181" s="272"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A182" s="192"/>
-      <c r="B182" s="227"/>
+      <c r="A182" s="217"/>
+      <c r="B182" s="302"/>
       <c r="C182" s="121" t="s">
         <v>1004</v>
       </c>
-      <c r="D182" s="221"/>
-      <c r="E182" s="222"/>
+      <c r="D182" s="265"/>
+      <c r="E182" s="272"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A183" s="234"/>
-      <c r="B183" s="235"/>
+      <c r="A183" s="299"/>
+      <c r="B183" s="303"/>
       <c r="C183" s="130" t="s">
         <v>1003</v>
       </c>
-      <c r="D183" s="254"/>
-      <c r="E183" s="255"/>
+      <c r="D183" s="305"/>
+      <c r="E183" s="306"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A184" s="135"/>
@@ -53127,127 +53200,6 @@
     </row>
   </sheetData>
   <mergeCells count="145">
-    <mergeCell ref="A93:A107"/>
-    <mergeCell ref="A139:A148"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="B152:B155"/>
-    <mergeCell ref="B156:B158"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="A149:A162"/>
-    <mergeCell ref="C163:E163"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="B165:B167"/>
-    <mergeCell ref="A163:A167"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="B140:B142"/>
-    <mergeCell ref="E140:E142"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="B175:B177"/>
-    <mergeCell ref="A178:A183"/>
-    <mergeCell ref="C178:E178"/>
-    <mergeCell ref="D179:E179"/>
-    <mergeCell ref="A168:A177"/>
-    <mergeCell ref="B180:B183"/>
-    <mergeCell ref="D171:E171"/>
-    <mergeCell ref="D172:E172"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="D176:E176"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="D180:E180"/>
-    <mergeCell ref="D181:E181"/>
-    <mergeCell ref="D182:E182"/>
-    <mergeCell ref="D183:E183"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="B169:B174"/>
-    <mergeCell ref="D173:E173"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="B125:B130"/>
-    <mergeCell ref="B131:B138"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="E121:E123"/>
-    <mergeCell ref="B112:B117"/>
-    <mergeCell ref="C132:C135"/>
-    <mergeCell ref="C136:C138"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="A76:A92"/>
-    <mergeCell ref="A22:B29"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="B44:B54"/>
-    <mergeCell ref="A30:A43"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="A67:A75"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="E105:E107"/>
-    <mergeCell ref="B100:B107"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="B55:B64"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="B76:B84"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A1:D1"/>
@@ -53272,6 +53224,127 @@
     <mergeCell ref="C77:E77"/>
     <mergeCell ref="C79:E79"/>
     <mergeCell ref="C78:E78"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="B100:B107"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="B55:B64"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="B76:B84"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A76:A92"/>
+    <mergeCell ref="A22:B29"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="B44:B54"/>
+    <mergeCell ref="A30:A43"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="A67:A75"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="B125:B130"/>
+    <mergeCell ref="B131:B138"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="E121:E123"/>
+    <mergeCell ref="B112:B117"/>
+    <mergeCell ref="C132:C135"/>
+    <mergeCell ref="C136:C138"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="B175:B177"/>
+    <mergeCell ref="A178:A183"/>
+    <mergeCell ref="C178:E178"/>
+    <mergeCell ref="D179:E179"/>
+    <mergeCell ref="A168:A177"/>
+    <mergeCell ref="B180:B183"/>
+    <mergeCell ref="D171:E171"/>
+    <mergeCell ref="D172:E172"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="D176:E176"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="D180:E180"/>
+    <mergeCell ref="D181:E181"/>
+    <mergeCell ref="D182:E182"/>
+    <mergeCell ref="D183:E183"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="B169:B174"/>
+    <mergeCell ref="D173:E173"/>
+    <mergeCell ref="C163:E163"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="B165:B167"/>
+    <mergeCell ref="A163:A167"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="A93:A107"/>
+    <mergeCell ref="A139:A148"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="B152:B155"/>
+    <mergeCell ref="B156:B158"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="A149:A162"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="B140:B142"/>
+    <mergeCell ref="E140:E142"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D113:E113"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.05" right="0" top="0.05" bottom="0" header="0" footer="0"/>
@@ -53280,7 +53353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294C887F-F29B-493E-9E0C-06B29D20AE77}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -53288,7 +53361,7 @@
   <dimension ref="A1:E319"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -53301,30 +53374,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="150" customFormat="1" ht="63.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="271"/>
-      <c r="B1" s="272"/>
-      <c r="C1" s="272"/>
-      <c r="D1" s="272"/>
+      <c r="A1" s="330"/>
+      <c r="B1" s="331"/>
+      <c r="C1" s="331"/>
+      <c r="D1" s="331"/>
       <c r="E1" s="149"/>
     </row>
     <row r="2" spans="1:5" s="152" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="273" t="s">
+      <c r="A2" s="332" t="s">
         <v>1478</v>
       </c>
-      <c r="B2" s="274"/>
-      <c r="C2" s="274"/>
-      <c r="D2" s="274"/>
+      <c r="B2" s="333"/>
+      <c r="C2" s="333"/>
+      <c r="D2" s="333"/>
       <c r="E2" s="151"/>
     </row>
     <row r="3" spans="1:5" s="152" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="153" t="s">
         <v>1462</v>
       </c>
-      <c r="B3" s="340" t="s">
+      <c r="B3" s="336" t="s">
         <v>1569</v>
       </c>
-      <c r="C3" s="277"/>
-      <c r="D3" s="277"/>
+      <c r="C3" s="337"/>
+      <c r="D3" s="337"/>
       <c r="E3" s="154" t="s">
         <v>1463</v>
       </c>
@@ -53333,168 +53406,168 @@
       <c r="A4" s="155" t="s">
         <v>1464</v>
       </c>
-      <c r="B4" s="275" t="s">
+      <c r="B4" s="334" t="s">
         <v>1465</v>
       </c>
-      <c r="C4" s="275"/>
-      <c r="D4" s="275"/>
-      <c r="E4" s="276"/>
+      <c r="C4" s="334"/>
+      <c r="D4" s="334"/>
+      <c r="E4" s="335"/>
     </row>
     <row r="5" spans="1:5" ht="212.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="156" t="s">
         <v>1466</v>
       </c>
-      <c r="B5" s="268" t="s">
+      <c r="B5" s="328" t="s">
         <v>1467</v>
       </c>
-      <c r="C5" s="268"/>
-      <c r="D5" s="268"/>
-      <c r="E5" s="269"/>
+      <c r="C5" s="328"/>
+      <c r="D5" s="328"/>
+      <c r="E5" s="329"/>
     </row>
     <row r="6" spans="1:5" ht="122.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="267" t="s">
+      <c r="A6" s="325" t="s">
         <v>1468</v>
       </c>
-      <c r="B6" s="346" t="s">
+      <c r="B6" s="326" t="s">
         <v>1572</v>
       </c>
-      <c r="C6" s="345"/>
-      <c r="D6" s="268" t="s">
+      <c r="C6" s="327"/>
+      <c r="D6" s="328" t="s">
         <v>1469</v>
       </c>
-      <c r="E6" s="269"/>
+      <c r="E6" s="329"/>
     </row>
     <row r="7" spans="1:5" ht="122.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="267"/>
-      <c r="B7" s="346" t="s">
+      <c r="A7" s="325"/>
+      <c r="B7" s="326" t="s">
         <v>1573</v>
       </c>
-      <c r="C7" s="345"/>
-      <c r="D7" s="268" t="s">
+      <c r="C7" s="327"/>
+      <c r="D7" s="328" t="s">
         <v>637</v>
       </c>
-      <c r="E7" s="269"/>
+      <c r="E7" s="329"/>
     </row>
     <row r="8" spans="1:5" ht="65.349999999999994" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="267" t="s">
+      <c r="A8" s="325" t="s">
         <v>638</v>
       </c>
-      <c r="B8" s="350" t="s">
+      <c r="B8" s="200" t="s">
         <v>1574</v>
       </c>
-      <c r="C8" s="347" t="s">
+      <c r="C8" s="339" t="s">
         <v>1470</v>
       </c>
-      <c r="D8" s="348"/>
-      <c r="E8" s="349"/>
+      <c r="D8" s="340"/>
+      <c r="E8" s="341"/>
     </row>
     <row r="9" spans="1:5" ht="176.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="267"/>
-      <c r="B9" s="350" t="s">
+      <c r="A9" s="325"/>
+      <c r="B9" s="200" t="s">
         <v>1575</v>
       </c>
-      <c r="C9" s="347" t="s">
+      <c r="C9" s="339" t="s">
         <v>1576</v>
       </c>
-      <c r="D9" s="348"/>
-      <c r="E9" s="349"/>
+      <c r="D9" s="340"/>
+      <c r="E9" s="341"/>
     </row>
     <row r="10" spans="1:5" ht="219.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="267" t="s">
+      <c r="A10" s="325" t="s">
         <v>1471</v>
       </c>
-      <c r="B10" s="341" t="s">
+      <c r="B10" s="199" t="s">
         <v>1476</v>
       </c>
-      <c r="C10" s="268" t="s">
+      <c r="C10" s="328" t="s">
         <v>1472</v>
       </c>
-      <c r="D10" s="268"/>
+      <c r="D10" s="328"/>
       <c r="E10" s="157" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="219.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="267"/>
-      <c r="B11" s="341" t="s">
+      <c r="A11" s="325"/>
+      <c r="B11" s="199" t="s">
         <v>1477</v>
       </c>
-      <c r="C11" s="270" t="s">
+      <c r="C11" s="338" t="s">
         <v>1474</v>
       </c>
-      <c r="D11" s="270"/>
+      <c r="D11" s="338"/>
       <c r="E11" s="157" t="s">
         <v>1475</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="296.64999999999998" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="261" t="s">
+      <c r="A12" s="342" t="s">
         <v>639</v>
       </c>
       <c r="B12" s="26" t="s">
         <v>1060</v>
       </c>
-      <c r="C12" s="265" t="s">
+      <c r="C12" s="343" t="s">
         <v>1061</v>
       </c>
-      <c r="D12" s="265"/>
+      <c r="D12" s="343"/>
       <c r="E12" s="28" t="s">
         <v>1062</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="205.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="261"/>
+      <c r="A13" s="342"/>
       <c r="B13" s="26" t="s">
         <v>1063</v>
       </c>
-      <c r="C13" s="265" t="s">
+      <c r="C13" s="343" t="s">
         <v>1064</v>
       </c>
-      <c r="D13" s="265"/>
+      <c r="D13" s="343"/>
       <c r="E13" s="28" t="s">
         <v>1065</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="57.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="261" t="s">
+      <c r="A14" s="342" t="s">
         <v>641</v>
       </c>
-      <c r="B14" s="342" t="s">
+      <c r="B14" s="344" t="s">
         <v>1066</v>
       </c>
       <c r="C14" s="165" t="s">
         <v>1067</v>
       </c>
-      <c r="D14" s="265" t="s">
+      <c r="D14" s="343" t="s">
         <v>1068</v>
       </c>
-      <c r="E14" s="266"/>
+      <c r="E14" s="345"/>
     </row>
     <row r="15" spans="1:5" ht="107.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="261"/>
-      <c r="B15" s="342"/>
+      <c r="A15" s="342"/>
+      <c r="B15" s="344"/>
       <c r="C15" s="165" t="s">
         <v>1069</v>
       </c>
-      <c r="D15" s="265" t="s">
+      <c r="D15" s="343" t="s">
         <v>1070</v>
       </c>
-      <c r="E15" s="266"/>
+      <c r="E15" s="345"/>
     </row>
     <row r="16" spans="1:5" ht="43.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="261"/>
+      <c r="A16" s="342"/>
       <c r="B16" s="26" t="s">
         <v>640</v>
       </c>
-      <c r="C16" s="265" t="s">
+      <c r="C16" s="343" t="s">
         <v>1071</v>
       </c>
-      <c r="D16" s="265"/>
-      <c r="E16" s="266"/>
+      <c r="D16" s="343"/>
+      <c r="E16" s="345"/>
     </row>
     <row r="17" spans="1:5" ht="172.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="261"/>
-      <c r="B17" s="342" t="s">
+      <c r="A17" s="342"/>
+      <c r="B17" s="344" t="s">
         <v>1072</v>
       </c>
       <c r="C17" s="165" t="s">
@@ -53508,8 +53581,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="172.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="261"/>
-      <c r="B18" s="342"/>
+      <c r="A18" s="342"/>
+      <c r="B18" s="344"/>
       <c r="C18" s="165" t="s">
         <v>1571</v>
       </c>
@@ -53521,10 +53594,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="261" t="s">
+      <c r="A19" s="342" t="s">
         <v>646</v>
       </c>
-      <c r="B19" s="342" t="s">
+      <c r="B19" s="344" t="s">
         <v>1078</v>
       </c>
       <c r="C19" s="25"/>
@@ -53536,8 +53609,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="38.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="261"/>
-      <c r="B20" s="342"/>
+      <c r="A20" s="342"/>
+      <c r="B20" s="344"/>
       <c r="C20" s="21" t="s">
         <v>1577</v>
       </c>
@@ -53549,8 +53622,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="261"/>
-      <c r="B21" s="342"/>
+      <c r="A21" s="342"/>
+      <c r="B21" s="344"/>
       <c r="C21" s="21" t="s">
         <v>1578</v>
       </c>
@@ -53562,8 +53635,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="261"/>
-      <c r="B22" s="342"/>
+      <c r="A22" s="342"/>
+      <c r="B22" s="344"/>
       <c r="C22" s="21" t="s">
         <v>642</v>
       </c>
@@ -53578,85 +53651,85 @@
       <c r="A23" s="27" t="s">
         <v>1083</v>
       </c>
-      <c r="B23" s="265" t="s">
+      <c r="B23" s="343" t="s">
         <v>1084</v>
       </c>
-      <c r="C23" s="265"/>
-      <c r="D23" s="265"/>
-      <c r="E23" s="266"/>
+      <c r="C23" s="343"/>
+      <c r="D23" s="343"/>
+      <c r="E23" s="345"/>
     </row>
     <row r="24" spans="1:5" ht="45.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="261" t="s">
+      <c r="A24" s="342" t="s">
         <v>1085</v>
       </c>
       <c r="B24" s="26" t="s">
         <v>1086</v>
       </c>
-      <c r="C24" s="264" t="s">
+      <c r="C24" s="346" t="s">
         <v>1087</v>
       </c>
-      <c r="D24" s="265"/>
-      <c r="E24" s="266"/>
+      <c r="D24" s="343"/>
+      <c r="E24" s="345"/>
     </row>
     <row r="25" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="261"/>
+      <c r="A25" s="342"/>
       <c r="B25" s="26" t="s">
         <v>1088</v>
       </c>
-      <c r="C25" s="265" t="s">
+      <c r="C25" s="343" t="s">
         <v>1089</v>
       </c>
-      <c r="D25" s="265"/>
-      <c r="E25" s="266"/>
+      <c r="D25" s="343"/>
+      <c r="E25" s="345"/>
     </row>
     <row r="26" spans="1:5" ht="48.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="27" t="s">
         <v>1090</v>
       </c>
-      <c r="B26" s="343" t="s">
+      <c r="B26" s="347" t="s">
         <v>1570</v>
       </c>
-      <c r="C26" s="343"/>
-      <c r="D26" s="343"/>
-      <c r="E26" s="344"/>
+      <c r="C26" s="347"/>
+      <c r="D26" s="347"/>
+      <c r="E26" s="348"/>
     </row>
     <row r="27" spans="1:5" ht="23.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="261" t="s">
+      <c r="A27" s="342" t="s">
         <v>1091</v>
       </c>
-      <c r="B27" s="342" t="s">
+      <c r="B27" s="344" t="s">
         <v>1092</v>
       </c>
-      <c r="C27" s="262" t="s">
+      <c r="C27" s="349" t="s">
         <v>1093</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>647</v>
       </c>
-      <c r="E27" s="263"/>
+      <c r="E27" s="350"/>
     </row>
     <row r="28" spans="1:5" ht="23.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="261"/>
-      <c r="B28" s="342"/>
-      <c r="C28" s="262"/>
+      <c r="A28" s="342"/>
+      <c r="B28" s="344"/>
+      <c r="C28" s="349"/>
       <c r="D28" s="23" t="s">
         <v>648</v>
       </c>
-      <c r="E28" s="263"/>
+      <c r="E28" s="350"/>
     </row>
     <row r="29" spans="1:5" ht="23.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="261"/>
-      <c r="B29" s="342"/>
-      <c r="C29" s="262"/>
+      <c r="A29" s="342"/>
+      <c r="B29" s="344"/>
+      <c r="C29" s="349"/>
       <c r="D29" s="22" t="s">
         <v>649</v>
       </c>
-      <c r="E29" s="263"/>
+      <c r="E29" s="350"/>
     </row>
     <row r="30" spans="1:5" ht="30.4" x14ac:dyDescent="0.4">
-      <c r="A30" s="261"/>
-      <c r="B30" s="342"/>
-      <c r="C30" s="262"/>
+      <c r="A30" s="342"/>
+      <c r="B30" s="344"/>
+      <c r="C30" s="349"/>
       <c r="D30" s="22" t="s">
         <v>650</v>
       </c>
@@ -53665,11 +53738,11 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="261"/>
-      <c r="B31" s="342" t="s">
+      <c r="A31" s="342"/>
+      <c r="B31" s="344" t="s">
         <v>1095</v>
       </c>
-      <c r="C31" s="262" t="s">
+      <c r="C31" s="349" t="s">
         <v>1096</v>
       </c>
       <c r="D31" s="23" t="s">
@@ -53680,9 +53753,9 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="261"/>
-      <c r="B32" s="342"/>
-      <c r="C32" s="262"/>
+      <c r="A32" s="342"/>
+      <c r="B32" s="344"/>
+      <c r="C32" s="349"/>
       <c r="D32" s="22" t="s">
         <v>651</v>
       </c>
@@ -53691,9 +53764,9 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="261"/>
-      <c r="B33" s="342"/>
-      <c r="C33" s="262"/>
+      <c r="A33" s="342"/>
+      <c r="B33" s="344"/>
+      <c r="C33" s="349"/>
       <c r="D33" s="23" t="s">
         <v>652</v>
       </c>
@@ -53702,25 +53775,25 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="261"/>
-      <c r="B34" s="342"/>
-      <c r="C34" s="262"/>
+      <c r="A34" s="342"/>
+      <c r="B34" s="344"/>
+      <c r="C34" s="349"/>
       <c r="D34" s="22" t="s">
         <v>649</v>
       </c>
-      <c r="E34" s="263"/>
+      <c r="E34" s="350"/>
     </row>
     <row r="35" spans="1:5" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="261"/>
-      <c r="B35" s="342"/>
-      <c r="C35" s="262"/>
+      <c r="A35" s="342"/>
+      <c r="B35" s="344"/>
+      <c r="C35" s="349"/>
       <c r="D35" s="22" t="s">
         <v>653</v>
       </c>
-      <c r="E35" s="263"/>
+      <c r="E35" s="350"/>
     </row>
     <row r="36" spans="1:5" ht="60.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="261"/>
+      <c r="A36" s="342"/>
       <c r="B36" s="26" t="s">
         <v>1100</v>
       </c>
@@ -53735,13 +53808,13 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="261" t="s">
+      <c r="A37" s="342" t="s">
         <v>1103</v>
       </c>
-      <c r="B37" s="342" t="s">
+      <c r="B37" s="344" t="s">
         <v>1104</v>
       </c>
-      <c r="C37" s="262" t="s">
+      <c r="C37" s="349" t="s">
         <v>1105</v>
       </c>
       <c r="D37" s="22" t="s">
@@ -53750,9 +53823,9 @@
       <c r="E37" s="29"/>
     </row>
     <row r="38" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="261"/>
-      <c r="B38" s="342"/>
-      <c r="C38" s="262"/>
+      <c r="A38" s="342"/>
+      <c r="B38" s="344"/>
+      <c r="C38" s="349"/>
       <c r="D38" s="23" t="s">
         <v>658</v>
       </c>
@@ -53761,29 +53834,29 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="261"/>
-      <c r="B39" s="342"/>
-      <c r="C39" s="262"/>
+      <c r="A39" s="342"/>
+      <c r="B39" s="344"/>
+      <c r="C39" s="349"/>
       <c r="D39" s="22" t="s">
         <v>656</v>
       </c>
-      <c r="E39" s="263"/>
+      <c r="E39" s="350"/>
     </row>
     <row r="40" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="261"/>
-      <c r="B40" s="342"/>
-      <c r="C40" s="262"/>
+      <c r="A40" s="342"/>
+      <c r="B40" s="344"/>
+      <c r="C40" s="349"/>
       <c r="D40" s="22" t="s">
         <v>657</v>
       </c>
-      <c r="E40" s="263"/>
+      <c r="E40" s="350"/>
     </row>
     <row r="41" spans="1:5" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="261"/>
-      <c r="B41" s="342" t="s">
+      <c r="A41" s="342"/>
+      <c r="B41" s="344" t="s">
         <v>1107</v>
       </c>
-      <c r="C41" s="262" t="s">
+      <c r="C41" s="349" t="s">
         <v>1105</v>
       </c>
       <c r="D41" s="23" t="s">
@@ -53792,18 +53865,18 @@
       <c r="E41" s="32"/>
     </row>
     <row r="42" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="261"/>
-      <c r="B42" s="342"/>
-      <c r="C42" s="262"/>
+      <c r="A42" s="342"/>
+      <c r="B42" s="344"/>
+      <c r="C42" s="349"/>
       <c r="D42" s="22" t="s">
         <v>651</v>
       </c>
       <c r="E42" s="29"/>
     </row>
     <row r="43" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="261"/>
-      <c r="B43" s="342"/>
-      <c r="C43" s="262"/>
+      <c r="A43" s="342"/>
+      <c r="B43" s="344"/>
+      <c r="C43" s="349"/>
       <c r="D43" s="22" t="s">
         <v>656</v>
       </c>
@@ -53812,9 +53885,9 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="261"/>
-      <c r="B44" s="342"/>
-      <c r="C44" s="262"/>
+      <c r="A44" s="342"/>
+      <c r="B44" s="344"/>
+      <c r="C44" s="349"/>
       <c r="D44" s="23" t="s">
         <v>659</v>
       </c>
@@ -53823,9 +53896,9 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="47.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="261"/>
-      <c r="B45" s="342"/>
-      <c r="C45" s="262"/>
+      <c r="A45" s="342"/>
+      <c r="B45" s="344"/>
+      <c r="C45" s="349"/>
       <c r="D45" s="22" t="s">
         <v>1110</v>
       </c>
@@ -53834,7 +53907,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="49.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="261"/>
+      <c r="A46" s="342"/>
       <c r="B46" s="26" t="s">
         <v>1112</v>
       </c>
@@ -53850,34 +53923,34 @@
       <c r="A47" s="27" t="s">
         <v>1113</v>
       </c>
-      <c r="B47" s="256" t="s">
+      <c r="B47" s="351" t="s">
         <v>1114</v>
       </c>
-      <c r="C47" s="256"/>
-      <c r="D47" s="256"/>
-      <c r="E47" s="257"/>
+      <c r="C47" s="351"/>
+      <c r="D47" s="351"/>
+      <c r="E47" s="352"/>
     </row>
     <row r="48" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="27" t="s">
         <v>1115</v>
       </c>
-      <c r="B48" s="256" t="s">
+      <c r="B48" s="351" t="s">
         <v>1116</v>
       </c>
-      <c r="C48" s="256"/>
-      <c r="D48" s="256"/>
-      <c r="E48" s="257"/>
+      <c r="C48" s="351"/>
+      <c r="D48" s="351"/>
+      <c r="E48" s="352"/>
     </row>
     <row r="49" spans="1:5" ht="53.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="34" t="s">
         <v>1117</v>
       </c>
-      <c r="B49" s="258" t="s">
+      <c r="B49" s="353" t="s">
         <v>1118</v>
       </c>
-      <c r="C49" s="259"/>
-      <c r="D49" s="259"/>
-      <c r="E49" s="260"/>
+      <c r="C49" s="354"/>
+      <c r="D49" s="354"/>
+      <c r="E49" s="355"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="17"/>
@@ -55771,22 +55844,29 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="A27:A36"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
@@ -55796,29 +55876,22 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="A27:A36"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.05" right="0" top="0.05" bottom="0" header="0" footer="0"/>
